--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="382">
   <si>
     <t>route</t>
   </si>
@@ -1139,9 +1139,6 @@
     <t>WI_ML_LINEAR_REGRESSION</t>
   </si>
   <si>
-    <t>WI_ML_LOGISTIC_REGRESSION_CLASSIFIER</t>
-  </si>
-  <si>
     <t>WI_ML_LOGISTIC_REGRESSION_REGRESSION</t>
   </si>
   <si>
@@ -1167,6 +1164,12 @@
   </si>
   <si>
     <t>id_api</t>
+  </si>
+  <si>
+    <t>WI_ML_NEURAL_NETWORK_CLASSIFIER</t>
+  </si>
+  <si>
+    <t>WI_ML_NEURAL_NETWORK_REGRESSION</t>
   </si>
 </sst>
 </file>
@@ -1517,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M368"/>
+  <dimension ref="A1:M369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1571,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -16249,7 +16252,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>355</v>
@@ -16290,7 +16293,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>355</v>
@@ -16331,7 +16334,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>355</v>
@@ -16372,7 +16375,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>355</v>
@@ -16413,7 +16416,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>355</v>
@@ -16454,7 +16457,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>355</v>
@@ -16495,7 +16498,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>355</v>
@@ -16536,7 +16539,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>355</v>
@@ -16577,7 +16580,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>355</v>
@@ -16613,8 +16616,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D369" s="1">
+        <v>0</v>
+      </c>
+      <c r="E369" s="1">
+        <v>0</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+      <c r="G369" s="1">
+        <v>0</v>
+      </c>
+      <c r="H369" s="1">
+        <v>0</v>
+      </c>
+      <c r="I369" s="1">
+        <v>0</v>
+      </c>
+      <c r="J369" s="1">
+        <v>1</v>
+      </c>
+      <c r="K369" s="1">
+        <v>0</v>
+      </c>
+      <c r="L369" s="1">
+        <v>0</v>
+      </c>
+      <c r="M369" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:M368">
+  <conditionalFormatting sqref="D3:M359 D361:M369">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1139,9 +1139,6 @@
     <t>WI_ML_LINEAR_REGRESSION</t>
   </si>
   <si>
-    <t>WI_ML_LOGISTIC_REGRESSION_REGRESSION</t>
-  </si>
-  <si>
     <t>WI_ML_NON_LINEAR_REGRESSION</t>
   </si>
   <si>
@@ -1170,13 +1167,16 @@
   </si>
   <si>
     <t>WI_ML_NEURAL_NETWORK_REGRESSION</t>
+  </si>
+  <si>
+    <t>WI_ML_LOGISTIC_REGRESSION_CLASSIFIER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,8 +1184,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,6 +1202,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1226,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,6 +1258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,7 +1544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F354" sqref="F354"/>
+      <selection pane="bottomLeft" activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1591,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -15923,7 +15943,7 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -15964,7 +15984,7 @@
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" s="5" t="s">
         <v>364</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -16005,7 +16025,7 @@
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" s="5" t="s">
         <v>365</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -16046,7 +16066,7 @@
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" s="5" t="s">
         <v>366</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -16087,7 +16107,7 @@
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" s="5" t="s">
         <v>367</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -16128,7 +16148,7 @@
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" s="5" t="s">
         <v>368</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -16169,7 +16189,7 @@
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -16210,7 +16230,7 @@
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -16251,7 +16271,7 @@
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" s="5" t="s">
         <v>381</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -16292,8 +16312,8 @@
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" s="4" t="s">
-        <v>380</v>
+      <c r="B361" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>355</v>
@@ -16333,8 +16353,8 @@
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" s="4" t="s">
-        <v>371</v>
+      <c r="B362" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>355</v>
@@ -16374,8 +16394,8 @@
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>372</v>
+      <c r="B363" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>355</v>
@@ -16415,8 +16435,8 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" s="4" t="s">
-        <v>373</v>
+      <c r="B364" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>355</v>
@@ -16456,8 +16476,8 @@
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" s="4" t="s">
-        <v>374</v>
+      <c r="B365" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>355</v>
@@ -16497,8 +16517,8 @@
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" s="4" t="s">
-        <v>375</v>
+      <c r="B366" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>355</v>
@@ -16538,8 +16558,8 @@
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" s="4" t="s">
-        <v>376</v>
+      <c r="B367" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>355</v>
@@ -16579,8 +16599,8 @@
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" s="4" t="s">
-        <v>377</v>
+      <c r="B368" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>355</v>
@@ -16620,8 +16640,8 @@
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>378</v>
+      <c r="B369" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>355</v>
@@ -16679,5 +16699,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -62,1032 +62,9 @@
     <t>PYTHON</t>
   </si>
   <si>
-    <t>"/",</t>
-  </si>
-  <si>
     <t>BACKEND_API</t>
   </si>
   <si>
-    <t>"/apply-clone-project",</t>
-  </si>
-  <si>
-    <t>"/clone-project",</t>
-  </si>
-  <si>
-    <t>"/custom-fill/all",</t>
-  </si>
-  <si>
-    <t>"/custom-fill/clear",</t>
-  </si>
-  <si>
-    <t>"/custom-fill/delete",</t>
-  </si>
-  <si>
-    <t>"/custom-fill/save",</t>
-  </si>
-  <si>
-    <t>"/database/update",</t>
-  </si>
-  <si>
-    <t>"/dustbin",</t>
-  </si>
-  <si>
-    <t>"/dustbin/delete",</t>
-  </si>
-  <si>
-    <t>"/dustbin/restore",</t>
-  </si>
-  <si>
-    <t>"/export/clear",</t>
-  </si>
-  <si>
-    <t>"/export/CSV/rv",</t>
-  </si>
-  <si>
-    <t>"/export/CSV/wdrv",</t>
-  </si>
-  <si>
-    <t>"/export/dlisv1",</t>
-  </si>
-  <si>
-    <t>"/export/files",</t>
-  </si>
-  <si>
-    <t>"/export/las2",</t>
-  </si>
-  <si>
-    <t>"/export/las3",</t>
-  </si>
-  <si>
-    <t>"/export/marker-set",</t>
-  </si>
-  <si>
-    <t>"/export/zone-set",</t>
-  </si>
-  <si>
-    <t>"/family/all-unit",</t>
-  </si>
-  <si>
-    <t>"/family/delete",</t>
-  </si>
-  <si>
-    <t>"/family/edit",</t>
-  </si>
-  <si>
-    <t>"/family/info",</t>
-  </si>
-  <si>
-    <t>"/family/list",</t>
-  </si>
-  <si>
-    <t>"/family/list-unit",</t>
-  </si>
-  <si>
-    <t>"/family/new",</t>
-  </si>
-  <si>
-    <t>"/family/update-spec",</t>
-  </si>
-  <si>
-    <t>"/global-family/delete",</t>
-  </si>
-  <si>
-    <t>"/global-family/edit",</t>
-  </si>
-  <si>
-    <t>"/global-family/info",</t>
-  </si>
-  <si>
-    <t>"/global-family/list",</t>
-  </si>
-  <si>
-    <t>"/global-family/new",</t>
-  </si>
-  <si>
-    <t>"/global-family/sync",</t>
-  </si>
-  <si>
-    <t>"/image-delete",</t>
-  </si>
-  <si>
-    <t>"/image-list",</t>
-  </si>
-  <si>
-    <t>"/image-upload",</t>
-  </si>
-  <si>
-    <t>"/info",</t>
-  </si>
-  <si>
-    <t>"/inventory/import/dataset",</t>
-  </si>
-  <si>
-    <t>"/log-view/view-by-object",</t>
-  </si>
-  <si>
-    <t>"/log-view/view-by-user",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/delete",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/edit",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/info",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/list",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/marker-template/delete",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/marker-template/edit",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/marker-template/info",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/marker-template/list",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/marker-template/new",</t>
-  </si>
-  <si>
-    <t>"/marker-set-template/new",</t>
-  </si>
-  <si>
-    <t>"/ml-project/delete",</t>
-  </si>
-  <si>
-    <t>"/ml-project/edit",</t>
-  </si>
-  <si>
-    <t>"/ml-project/info",</t>
-  </si>
-  <si>
-    <t>"/ml-project/list",</t>
-  </si>
-  <si>
-    <t>"/ml-project/new",</t>
-  </si>
-  <si>
-    <t>"/pal/all",</t>
-  </si>
-  <si>
-    <t>"/pattern/list",</t>
-  </si>
-  <si>
-    <t>"/permission/check",</t>
-  </si>
-  <si>
-    <t>"/project/analysis/delete",</t>
-  </si>
-  <si>
-    <t>"/project/analysis/edit",</t>
-  </si>
-  <si>
-    <t>"/project/analysis/info",</t>
-  </si>
-  <si>
-    <t>"/project/analysis/list",</t>
-  </si>
-  <si>
-    <t>"/project/analysis/new",</t>
-  </si>
-  <si>
-    <t>"/project/close",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/delete",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/edit",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/info",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/new",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/selection-tool/delete",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/selection-tool/edit",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/selection-tool/info",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/selection-tool/new",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/tool/delete",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/tool/edit",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/tool/info",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/tool/list",</t>
-  </si>
-  <si>
-    <t>"/project/combined-box/tool/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/axis-color/all",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/axis-color/clear",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/axis-color/save",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/list",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/overlay-line/all",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/overlay-line/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/overlay-line/list",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/point-set/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/point-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/point-set/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/point-set/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/polygon/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/polygon/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/polygon/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/polygon/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/regression-line/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/regression-line/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/regression-line/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/regression-line/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/list",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/list-template",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/new",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/remove-template",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/ternary/save-template",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/user-define-line/delete",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/user-define-line/edit",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/user-define-line/info",</t>
-  </si>
-  <si>
-    <t>"/project/cross-plot/user-define-line/new",</t>
-  </si>
-  <si>
-    <t>"/project/delete",</t>
-  </si>
-  <si>
-    <t>"/project/edit",</t>
-  </si>
-  <si>
-    <t>"/project/export",</t>
-  </si>
-  <si>
-    <t>"/project/flow/delete",</t>
-  </si>
-  <si>
-    <t>"/project/flow/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/flow/edit",</t>
-  </si>
-  <si>
-    <t>"/project/flow/info",</t>
-  </si>
-  <si>
-    <t>"/project/flow/list",</t>
-  </si>
-  <si>
-    <t>"/project/flow/new",</t>
-  </si>
-  <si>
-    <t>"/project/flow/save-as-template",</t>
-  </si>
-  <si>
-    <t>"/project/flow/task/delete",</t>
-  </si>
-  <si>
-    <t>"/project/flow/task/edit",</t>
-  </si>
-  <si>
-    <t>"/project/flow/task/info",</t>
-  </si>
-  <si>
-    <t>"/project/flow/task/list",</t>
-  </si>
-  <si>
-    <t>"/project/flow/task/new",</t>
-  </si>
-  <si>
-    <t>"/project/fullinfo",</t>
-  </si>
-  <si>
-    <t>"/project/group/delete",</t>
-  </si>
-  <si>
-    <t>"/project/group/edit",</t>
-  </si>
-  <si>
-    <t>"/project/group/info",</t>
-  </si>
-  <si>
-    <t>"/project/group/new",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/delete",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/edit",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/histogram-curve-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/info",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/list",</t>
-  </si>
-  <si>
-    <t>"/project/histogram/new",</t>
-  </si>
-  <si>
-    <t>"/project/info",</t>
-  </si>
-  <si>
-    <t>"/project/list",</t>
-  </si>
-  <si>
-    <t>"/project/list-by-user",</t>
-  </si>
-  <si>
-    <t>"/project/list-of-all-user",</t>
-  </si>
-  <si>
-    <t>"/project/new",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/delete",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/download",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/info",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/list",</t>
-  </si>
-  <si>
-    <t>"/project/parameter-set/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/depth-axis/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/depth-axis/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/depth-axis/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/depth-axis/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/plot/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/export",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/image/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/image/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/image/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/image/list",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/image/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/image-track/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/import",</t>
-  </si>
-  <si>
-    <t>"/project/plot/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/list",</t>
-  </si>
-  <si>
-    <t>"/project/plot/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/new-from-parameter",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/object/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/object/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/object/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/object-track/object/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/save-as",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/annotation/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/annotation/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/annotation/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/annotation/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/apply-to-well",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/export",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/import",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/line/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/line/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/line/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/line/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/shading/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/shading/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/shading/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/track/shading/new",</t>
-  </si>
-  <si>
-    <t>"/project/plot/zone-track/delete",</t>
-  </si>
-  <si>
-    <t>"/project/plot/zone-track/edit",</t>
-  </si>
-  <si>
-    <t>"/project/plot/zone-track/info",</t>
-  </si>
-  <si>
-    <t>"/project/plot/zone-track/new",</t>
-  </si>
-  <si>
-    <t>"/project/share/update-permission",</t>
-  </si>
-  <si>
-    <t>"/project/storage-database/delete",</t>
-  </si>
-  <si>
-    <t>"/project/storage-database/info",</t>
-  </si>
-  <si>
-    <t>"/project/storage-database/list",</t>
-  </si>
-  <si>
-    <t>"/project/storage-database/list-by-user-project",</t>
-  </si>
-  <si>
-    <t>"/project/storage-database/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/bulk-update-well-header",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/bulk-update-params",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/copy",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/create-md",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/convert-unit",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/copy",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/export",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/getData",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/getDataFile",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/get-parents",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/getRawData",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/import-from-inventory",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/info-by-name",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/is-existed",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/merge-curve",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/move",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/new-raw-curve",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/processing",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/processing-array-data-curve",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/resync-family",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/scale",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/curve/split-curve",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/delete-dataset-param",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/info-by-name",</t>
-  </si>
-  <si>
-    <t>"/project/well/dataset/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/delete-well-header",</t>
-  </si>
-  <si>
-    <t>"/project/well/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/well/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/export-to-project",</t>
-  </si>
-  <si>
-    <t>"/project/well/full-info",</t>
-  </si>
-  <si>
-    <t>"/project/well/get-well-header",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/image/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/image/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/image/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/image/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/image/thumbnail",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/list",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/image-set/new-or-get",</t>
-  </si>
-  <si>
-    <t>"/project/well/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/info-by-name",</t>
-  </si>
-  <si>
-    <t>"/project/well/list",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/list",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/marker/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/marker/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/marker/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/marker/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/marker-set/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/reference-curve/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/reference-curve/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/reference-curve/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/reference-curve/list",</t>
-  </si>
-  <si>
-    <t>"/project/well/reference-curve/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/update-well-header",</t>
-  </si>
-  <si>
-    <t>"/project/well/well-top-update",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/duplicate",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/list",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/new",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/zone/delete",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/zone/edit",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/zone/info",</t>
-  </si>
-  <si>
-    <t>"/project/well/zone-set/zone/new",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/all",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/family",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/marker-template",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/overlay-line",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/task-spec",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/workflow-spec",</t>
-  </si>
-  <si>
-    <t>"/reset-parameter/zone-template",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/add-flow-default",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/add-flow-to-existed-project",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/add-ps-to-existed-project",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/add-zone-template-to-existed-project",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/clone-marker-set-template",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/clone-zone-set-template",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/task-spec",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/update-marker-set",</t>
-  </si>
-  <si>
-    <t>"/script/migrate/update-zone-set",</t>
-  </si>
-  <si>
-    <t>"/script/update-curve-data",</t>
-  </si>
-  <si>
-    <t>"/task-spec/delete",</t>
-  </si>
-  <si>
-    <t>"/task-spec/edit",</t>
-  </si>
-  <si>
-    <t>"/task-spec/info",</t>
-  </si>
-  <si>
-    <t>"/task-spec/list",</t>
-  </si>
-  <si>
-    <t>"/task-spec/new",</t>
-  </si>
-  <si>
-    <t>"/test/apply-clone-project"</t>
-  </si>
-  <si>
-    <t>"/test/clone-project",</t>
-  </si>
-  <si>
-    <t>"/update",</t>
-  </si>
-  <si>
-    <t>"/utm-zones/",</t>
-  </si>
-  <si>
-    <t>"/workflow/delete",</t>
-  </si>
-  <si>
-    <t>"/workflow/edit",</t>
-  </si>
-  <si>
-    <t>"/workflow/info",</t>
-  </si>
-  <si>
-    <t>"/workflow/list",</t>
-  </si>
-  <si>
-    <t>"/workflow/new",</t>
-  </si>
-  <si>
-    <t>"/workflow-spec/delete",</t>
-  </si>
-  <si>
-    <t>"/workflow-spec/edit",</t>
-  </si>
-  <si>
-    <t>"/workflow-spec/info",</t>
-  </si>
-  <si>
-    <t>"/workflow-spec/list",</t>
-  </si>
-  <si>
-    <t>"/workflow-spec/new",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/delete",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/edit",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/info",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/list",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/new",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/zone-template/delete",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/zone-template/edit",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/zone-template/list",</t>
-  </si>
-  <si>
-    <t>"/zone-set-template/zone-template/new",</t>
-  </si>
-  <si>
     <t>WI_BACKEND</t>
   </si>
   <si>
@@ -1170,6 +147,1029 @@
   </si>
   <si>
     <t>WI_ML_LOGISTIC_REGRESSION_CLASSIFIER</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/apply-clone-project</t>
+  </si>
+  <si>
+    <t>/clone-project</t>
+  </si>
+  <si>
+    <t>/custom-fill/all</t>
+  </si>
+  <si>
+    <t>/custom-fill/clear</t>
+  </si>
+  <si>
+    <t>/custom-fill/delete</t>
+  </si>
+  <si>
+    <t>/custom-fill/save</t>
+  </si>
+  <si>
+    <t>/database/update</t>
+  </si>
+  <si>
+    <t>/dustbin</t>
+  </si>
+  <si>
+    <t>/dustbin/delete</t>
+  </si>
+  <si>
+    <t>/dustbin/restore</t>
+  </si>
+  <si>
+    <t>/export/clear</t>
+  </si>
+  <si>
+    <t>/export/CSV/rv</t>
+  </si>
+  <si>
+    <t>/export/CSV/wdrv</t>
+  </si>
+  <si>
+    <t>/export/dlisv1</t>
+  </si>
+  <si>
+    <t>/export/files</t>
+  </si>
+  <si>
+    <t>/export/las2</t>
+  </si>
+  <si>
+    <t>/export/las3</t>
+  </si>
+  <si>
+    <t>/export/marker-set</t>
+  </si>
+  <si>
+    <t>/export/zone-set</t>
+  </si>
+  <si>
+    <t>/family/all-unit</t>
+  </si>
+  <si>
+    <t>/family/delete</t>
+  </si>
+  <si>
+    <t>/family/edit</t>
+  </si>
+  <si>
+    <t>/family/info</t>
+  </si>
+  <si>
+    <t>/family/list</t>
+  </si>
+  <si>
+    <t>/family/list-unit</t>
+  </si>
+  <si>
+    <t>/family/new</t>
+  </si>
+  <si>
+    <t>/family/update-spec</t>
+  </si>
+  <si>
+    <t>/global-family/delete</t>
+  </si>
+  <si>
+    <t>/global-family/edit</t>
+  </si>
+  <si>
+    <t>/global-family/info</t>
+  </si>
+  <si>
+    <t>/global-family/list</t>
+  </si>
+  <si>
+    <t>/global-family/new</t>
+  </si>
+  <si>
+    <t>/global-family/sync</t>
+  </si>
+  <si>
+    <t>/image-delete</t>
+  </si>
+  <si>
+    <t>/image-list</t>
+  </si>
+  <si>
+    <t>/image-upload</t>
+  </si>
+  <si>
+    <t>/info</t>
+  </si>
+  <si>
+    <t>/inventory/import/dataset</t>
+  </si>
+  <si>
+    <t>/log-view/view-by-object</t>
+  </si>
+  <si>
+    <t>/log-view/view-by-user</t>
+  </si>
+  <si>
+    <t>/marker-set-template/delete</t>
+  </si>
+  <si>
+    <t>/marker-set-template/edit</t>
+  </si>
+  <si>
+    <t>/marker-set-template/info</t>
+  </si>
+  <si>
+    <t>/marker-set-template/list</t>
+  </si>
+  <si>
+    <t>/marker-set-template/marker-template/delete</t>
+  </si>
+  <si>
+    <t>/marker-set-template/marker-template/edit</t>
+  </si>
+  <si>
+    <t>/marker-set-template/marker-template/info</t>
+  </si>
+  <si>
+    <t>/marker-set-template/marker-template/list</t>
+  </si>
+  <si>
+    <t>/marker-set-template/marker-template/new</t>
+  </si>
+  <si>
+    <t>/marker-set-template/new</t>
+  </si>
+  <si>
+    <t>/ml-project/delete</t>
+  </si>
+  <si>
+    <t>/ml-project/edit</t>
+  </si>
+  <si>
+    <t>/ml-project/info</t>
+  </si>
+  <si>
+    <t>/ml-project/list</t>
+  </si>
+  <si>
+    <t>/ml-project/new</t>
+  </si>
+  <si>
+    <t>/pal/all</t>
+  </si>
+  <si>
+    <t>/pattern/list</t>
+  </si>
+  <si>
+    <t>/permission/check</t>
+  </si>
+  <si>
+    <t>/project/analysis/delete</t>
+  </si>
+  <si>
+    <t>/project/analysis/edit</t>
+  </si>
+  <si>
+    <t>/project/analysis/info</t>
+  </si>
+  <si>
+    <t>/project/analysis/list</t>
+  </si>
+  <si>
+    <t>/project/analysis/new</t>
+  </si>
+  <si>
+    <t>/project/close</t>
+  </si>
+  <si>
+    <t>/project/combined-box/delete</t>
+  </si>
+  <si>
+    <t>/project/combined-box/edit</t>
+  </si>
+  <si>
+    <t>/project/combined-box/info</t>
+  </si>
+  <si>
+    <t>/project/combined-box/new</t>
+  </si>
+  <si>
+    <t>/project/combined-box/selection-tool/delete</t>
+  </si>
+  <si>
+    <t>/project/combined-box/selection-tool/edit</t>
+  </si>
+  <si>
+    <t>/project/combined-box/selection-tool/info</t>
+  </si>
+  <si>
+    <t>/project/combined-box/selection-tool/new</t>
+  </si>
+  <si>
+    <t>/project/combined-box/tool/delete</t>
+  </si>
+  <si>
+    <t>/project/combined-box/tool/edit</t>
+  </si>
+  <si>
+    <t>/project/combined-box/tool/info</t>
+  </si>
+  <si>
+    <t>/project/combined-box/tool/list</t>
+  </si>
+  <si>
+    <t>/project/combined-box/tool/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/axis-color/all</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/axis-color/clear</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/axis-color/save</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/duplicate</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/list</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/overlay-line/all</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/overlay-line/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/overlay-line/list</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/point-set/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/point-set/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/point-set/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/point-set/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/polygon/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/polygon/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/polygon/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/polygon/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/regression-line/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/regression-line/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/regression-line/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/regression-line/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/list</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/list-template</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/new</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/remove-template</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/ternary/save-template</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/user-define-line/delete</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/user-define-line/edit</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/user-define-line/info</t>
+  </si>
+  <si>
+    <t>/project/cross-plot/user-define-line/new</t>
+  </si>
+  <si>
+    <t>/project/delete</t>
+  </si>
+  <si>
+    <t>/project/edit</t>
+  </si>
+  <si>
+    <t>/project/export</t>
+  </si>
+  <si>
+    <t>/project/flow/delete</t>
+  </si>
+  <si>
+    <t>/project/flow/duplicate</t>
+  </si>
+  <si>
+    <t>/project/flow/edit</t>
+  </si>
+  <si>
+    <t>/project/flow/info</t>
+  </si>
+  <si>
+    <t>/project/flow/list</t>
+  </si>
+  <si>
+    <t>/project/flow/new</t>
+  </si>
+  <si>
+    <t>/project/flow/save-as-template</t>
+  </si>
+  <si>
+    <t>/project/flow/task/delete</t>
+  </si>
+  <si>
+    <t>/project/flow/task/edit</t>
+  </si>
+  <si>
+    <t>/project/flow/task/info</t>
+  </si>
+  <si>
+    <t>/project/flow/task/list</t>
+  </si>
+  <si>
+    <t>/project/flow/task/new</t>
+  </si>
+  <si>
+    <t>/project/fullinfo</t>
+  </si>
+  <si>
+    <t>/project/group/delete</t>
+  </si>
+  <si>
+    <t>/project/group/edit</t>
+  </si>
+  <si>
+    <t>/project/group/info</t>
+  </si>
+  <si>
+    <t>/project/group/new</t>
+  </si>
+  <si>
+    <t>/project/histogram/delete</t>
+  </si>
+  <si>
+    <t>/project/histogram/duplicate</t>
+  </si>
+  <si>
+    <t>/project/histogram/edit</t>
+  </si>
+  <si>
+    <t>/project/histogram/histogram-curve-set/edit</t>
+  </si>
+  <si>
+    <t>/project/histogram/info</t>
+  </si>
+  <si>
+    <t>/project/histogram/list</t>
+  </si>
+  <si>
+    <t>/project/histogram/new</t>
+  </si>
+  <si>
+    <t>/project/info</t>
+  </si>
+  <si>
+    <t>/project/list</t>
+  </si>
+  <si>
+    <t>/project/list-by-user</t>
+  </si>
+  <si>
+    <t>/project/list-of-all-user</t>
+  </si>
+  <si>
+    <t>/project/new</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/delete</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/download</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/edit</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/info</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/list</t>
+  </si>
+  <si>
+    <t>/project/parameter-set/new</t>
+  </si>
+  <si>
+    <t>/project/plot/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/depth-axis/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/depth-axis/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/depth-axis/info</t>
+  </si>
+  <si>
+    <t>/project/plot/depth-axis/new</t>
+  </si>
+  <si>
+    <t>/project/plot/duplicate</t>
+  </si>
+  <si>
+    <t>/project/plot/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/export</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/image/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/image/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/image/info</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/image/list</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/image/new</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/image-track/new</t>
+  </si>
+  <si>
+    <t>/project/plot/import</t>
+  </si>
+  <si>
+    <t>/project/plot/info</t>
+  </si>
+  <si>
+    <t>/project/plot/list</t>
+  </si>
+  <si>
+    <t>/project/plot/new</t>
+  </si>
+  <si>
+    <t>/project/plot/new-from-parameter</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/new</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/object/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/object/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/object/info</t>
+  </si>
+  <si>
+    <t>/project/plot/object-track/object/new</t>
+  </si>
+  <si>
+    <t>/project/plot/save-as</t>
+  </si>
+  <si>
+    <t>/project/plot/track/annotation/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/track/annotation/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/track/annotation/info</t>
+  </si>
+  <si>
+    <t>/project/plot/track/annotation/new</t>
+  </si>
+  <si>
+    <t>/project/plot/track/apply-to-well</t>
+  </si>
+  <si>
+    <t>/project/plot/track/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/track/duplicate</t>
+  </si>
+  <si>
+    <t>/project/plot/track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/track/export</t>
+  </si>
+  <si>
+    <t>/project/plot/track/import</t>
+  </si>
+  <si>
+    <t>/project/plot/track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/track/line/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/track/line/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/track/line/info</t>
+  </si>
+  <si>
+    <t>/project/plot/track/line/new</t>
+  </si>
+  <si>
+    <t>/project/plot/track/new</t>
+  </si>
+  <si>
+    <t>/project/plot/track/shading/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/track/shading/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/track/shading/info</t>
+  </si>
+  <si>
+    <t>/project/plot/track/shading/new</t>
+  </si>
+  <si>
+    <t>/project/plot/zone-track/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/zone-track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/zone-track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/zone-track/new</t>
+  </si>
+  <si>
+    <t>/project/share/update-permission</t>
+  </si>
+  <si>
+    <t>/project/storage-database/delete</t>
+  </si>
+  <si>
+    <t>/project/storage-database/info</t>
+  </si>
+  <si>
+    <t>/project/storage-database/list</t>
+  </si>
+  <si>
+    <t>/project/storage-database/list-by-user-project</t>
+  </si>
+  <si>
+    <t>/project/storage-database/new</t>
+  </si>
+  <si>
+    <t>/project/well/bulk-update-well-header</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/bulk-update-params</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/copy</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/create-md</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/convert-unit</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/copy</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/delete</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/duplicate</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/edit</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/export</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/getData</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/getDataFile</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/get-parents</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/getRawData</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/import-from-inventory</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/info</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/info-by-name</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/is-existed</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/merge-curve</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/move</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/new</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/new-raw-curve</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/processing</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/processing-array-data-curve</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/resync-family</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/scale</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/curve/split-curve</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/delete</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/delete-dataset-param</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/duplicate</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/edit</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/info</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/info-by-name</t>
+  </si>
+  <si>
+    <t>/project/well/dataset/new</t>
+  </si>
+  <si>
+    <t>/project/well/delete</t>
+  </si>
+  <si>
+    <t>/project/well/delete-well-header</t>
+  </si>
+  <si>
+    <t>/project/well/duplicate</t>
+  </si>
+  <si>
+    <t>/project/well/edit</t>
+  </si>
+  <si>
+    <t>/project/well/export-to-project</t>
+  </si>
+  <si>
+    <t>/project/well/full-info</t>
+  </si>
+  <si>
+    <t>/project/well/get-well-header</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/delete</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/duplicate</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/edit</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/image/delete</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/image/edit</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/image/info</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/image/new</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/image/thumbnail</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/info</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/list</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/new</t>
+  </si>
+  <si>
+    <t>/project/well/image-set/new-or-get</t>
+  </si>
+  <si>
+    <t>/project/well/info</t>
+  </si>
+  <si>
+    <t>/project/well/info-by-name</t>
+  </si>
+  <si>
+    <t>/project/well/list</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/delete</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/edit</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/info</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/list</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/marker/delete</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/marker/edit</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/marker/info</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/marker/new</t>
+  </si>
+  <si>
+    <t>/project/well/marker-set/new</t>
+  </si>
+  <si>
+    <t>/project/well/new</t>
+  </si>
+  <si>
+    <t>/project/well/reference-curve/delete</t>
+  </si>
+  <si>
+    <t>/project/well/reference-curve/edit</t>
+  </si>
+  <si>
+    <t>/project/well/reference-curve/info</t>
+  </si>
+  <si>
+    <t>/project/well/reference-curve/list</t>
+  </si>
+  <si>
+    <t>/project/well/reference-curve/new</t>
+  </si>
+  <si>
+    <t>/project/well/update-well-header</t>
+  </si>
+  <si>
+    <t>/project/well/well-top-update</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/delete</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/duplicate</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/edit</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/info</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/list</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/new</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/zone/delete</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/zone/edit</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/zone/info</t>
+  </si>
+  <si>
+    <t>/project/well/zone-set/zone/new</t>
+  </si>
+  <si>
+    <t>/reset-parameter/all</t>
+  </si>
+  <si>
+    <t>/reset-parameter/family</t>
+  </si>
+  <si>
+    <t>/reset-parameter/marker-template</t>
+  </si>
+  <si>
+    <t>/reset-parameter/overlay-line</t>
+  </si>
+  <si>
+    <t>/reset-parameter/task-spec</t>
+  </si>
+  <si>
+    <t>/reset-parameter/workflow-spec</t>
+  </si>
+  <si>
+    <t>/reset-parameter/zone-template</t>
+  </si>
+  <si>
+    <t>/script/migrate/add-flow-default</t>
+  </si>
+  <si>
+    <t>/script/migrate/add-flow-to-existed-project</t>
+  </si>
+  <si>
+    <t>/script/migrate/add-ps-to-existed-project</t>
+  </si>
+  <si>
+    <t>/script/migrate/add-zone-template-to-existed-project</t>
+  </si>
+  <si>
+    <t>/script/migrate/clone-marker-set-template</t>
+  </si>
+  <si>
+    <t>/script/migrate/clone-zone-set-template</t>
+  </si>
+  <si>
+    <t>/script/migrate/task-spec</t>
+  </si>
+  <si>
+    <t>/script/migrate/update-marker-set</t>
+  </si>
+  <si>
+    <t>/script/migrate/update-zone-set</t>
+  </si>
+  <si>
+    <t>/script/update-curve-data</t>
+  </si>
+  <si>
+    <t>/task-spec/delete</t>
+  </si>
+  <si>
+    <t>/task-spec/edit</t>
+  </si>
+  <si>
+    <t>/task-spec/info</t>
+  </si>
+  <si>
+    <t>/task-spec/list</t>
+  </si>
+  <si>
+    <t>/task-spec/new</t>
+  </si>
+  <si>
+    <t>/test/apply-clone-project</t>
+  </si>
+  <si>
+    <t>/test/clone-project</t>
+  </si>
+  <si>
+    <t>/update</t>
+  </si>
+  <si>
+    <t>/utm-zones/</t>
+  </si>
+  <si>
+    <t>/workflow/delete</t>
+  </si>
+  <si>
+    <t>/workflow/edit</t>
+  </si>
+  <si>
+    <t>/workflow/info</t>
+  </si>
+  <si>
+    <t>/workflow/list</t>
+  </si>
+  <si>
+    <t>/workflow/new</t>
+  </si>
+  <si>
+    <t>/workflow-spec/delete</t>
+  </si>
+  <si>
+    <t>/workflow-spec/edit</t>
+  </si>
+  <si>
+    <t>/workflow-spec/info</t>
+  </si>
+  <si>
+    <t>/workflow-spec/list</t>
+  </si>
+  <si>
+    <t>/workflow-spec/new</t>
+  </si>
+  <si>
+    <t>/zone-set-template/delete</t>
+  </si>
+  <si>
+    <t>/zone-set-template/edit</t>
+  </si>
+  <si>
+    <t>/zone-set-template/info</t>
+  </si>
+  <si>
+    <t>/zone-set-template/list</t>
+  </si>
+  <si>
+    <t>/zone-set-template/new</t>
+  </si>
+  <si>
+    <t>/zone-set-template/zone-template/delete</t>
+  </si>
+  <si>
+    <t>/zone-set-template/zone-template/edit</t>
+  </si>
+  <si>
+    <t>/zone-set-template/zone-template/list</t>
+  </si>
+  <si>
+    <t>/zone-set-template/zone-template/new</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1543,8 @@
   <dimension ref="A1:M369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B357" sqref="B357"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P342" sqref="P342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1676,10 +1676,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1758,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1799,10 +1799,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1840,10 +1840,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1922,10 +1922,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1963,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2004,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2127,10 +2127,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2209,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2250,10 +2250,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2291,10 +2291,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2332,10 +2332,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2373,10 +2373,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2414,10 +2414,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2455,10 +2455,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -2496,10 +2496,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2578,10 +2578,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -2701,10 +2701,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -2742,10 +2742,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2824,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2865,10 +2865,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2906,10 +2906,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -2947,10 +2947,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2988,10 +2988,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -3070,10 +3070,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -3152,10 +3152,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -3193,10 +3193,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -3234,10 +3234,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -3316,10 +3316,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -3357,10 +3357,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -3398,10 +3398,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3439,10 +3439,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -3480,10 +3480,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -3521,10 +3521,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -3562,10 +3562,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -3603,10 +3603,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3644,10 +3644,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -3685,10 +3685,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3726,10 +3726,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3767,10 +3767,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -3808,10 +3808,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3849,10 +3849,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3890,10 +3890,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -3931,10 +3931,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -3972,10 +3972,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -4013,10 +4013,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -4054,10 +4054,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -4095,10 +4095,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -4300,10 +4300,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -4341,10 +4341,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -4382,10 +4382,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4464,10 +4464,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -4505,10 +4505,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4546,10 +4546,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -4587,10 +4587,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4628,10 +4628,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -4669,10 +4669,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4710,10 +4710,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -4751,10 +4751,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -4792,10 +4792,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -4833,10 +4833,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -4874,10 +4874,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4915,10 +4915,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -4956,10 +4956,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -4997,10 +4997,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -5038,10 +5038,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -5079,10 +5079,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -5120,10 +5120,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -5161,10 +5161,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -5202,10 +5202,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -5243,10 +5243,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -5284,10 +5284,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -5325,10 +5325,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -5407,10 +5407,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -5448,10 +5448,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -5489,10 +5489,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -5530,10 +5530,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -5571,10 +5571,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -5612,10 +5612,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -5694,10 +5694,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -5735,10 +5735,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -5776,10 +5776,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -5817,10 +5817,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -5858,10 +5858,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -5899,10 +5899,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -5940,10 +5940,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -5981,10 +5981,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -6022,10 +6022,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -6104,10 +6104,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -6145,10 +6145,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
@@ -6186,10 +6186,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -6227,10 +6227,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -6268,10 +6268,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -6309,10 +6309,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -6350,10 +6350,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -6391,10 +6391,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -6432,10 +6432,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -6473,10 +6473,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -6514,10 +6514,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -6555,10 +6555,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -6596,10 +6596,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -6678,10 +6678,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -6719,10 +6719,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -6801,10 +6801,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -6842,10 +6842,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -6924,10 +6924,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -6965,10 +6965,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -7006,10 +7006,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -7047,10 +7047,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -7088,10 +7088,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -7129,10 +7129,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -7170,10 +7170,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -7211,10 +7211,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -7252,10 +7252,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -7293,10 +7293,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -7334,10 +7334,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -7375,10 +7375,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
@@ -7416,10 +7416,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -7457,10 +7457,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -7498,10 +7498,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -7539,10 +7539,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -7580,10 +7580,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -7621,10 +7621,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
@@ -7662,10 +7662,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -7744,10 +7744,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -7785,10 +7785,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -7826,10 +7826,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
@@ -7867,10 +7867,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -7908,10 +7908,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -7949,10 +7949,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -7990,10 +7990,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
@@ -8031,10 +8031,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
@@ -8072,10 +8072,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -8113,10 +8113,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -8154,10 +8154,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -8195,10 +8195,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -8236,10 +8236,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
@@ -8277,10 +8277,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -8318,10 +8318,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -8359,10 +8359,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -8400,10 +8400,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
@@ -8441,10 +8441,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -8482,10 +8482,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -8523,10 +8523,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -8564,10 +8564,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -8605,10 +8605,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -8646,10 +8646,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -8687,10 +8687,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -8728,10 +8728,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -8769,10 +8769,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -8810,10 +8810,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -8851,10 +8851,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -8892,10 +8892,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -8933,10 +8933,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -8974,10 +8974,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -9015,10 +9015,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -9056,10 +9056,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -9097,10 +9097,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -9138,10 +9138,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -9179,10 +9179,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -9220,10 +9220,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
@@ -9261,10 +9261,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -9302,10 +9302,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -9343,10 +9343,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -9384,10 +9384,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -9425,10 +9425,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -9466,10 +9466,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -9507,10 +9507,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -9548,10 +9548,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -9589,10 +9589,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -9630,10 +9630,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -9671,10 +9671,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -9712,10 +9712,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -9753,10 +9753,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -9794,10 +9794,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -9835,10 +9835,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -9876,10 +9876,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -9917,10 +9917,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -9958,10 +9958,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -9999,10 +9999,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -10040,10 +10040,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -10081,10 +10081,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -10122,10 +10122,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -10163,10 +10163,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -10204,10 +10204,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -10245,10 +10245,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -10286,10 +10286,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -10327,10 +10327,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -10368,10 +10368,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -10409,10 +10409,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -10450,10 +10450,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -10491,10 +10491,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -10532,10 +10532,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -10573,10 +10573,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -10614,10 +10614,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -10655,10 +10655,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -10696,10 +10696,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -10737,10 +10737,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -10778,10 +10778,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -10819,10 +10819,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -10860,10 +10860,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -10901,10 +10901,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -10942,10 +10942,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -10983,10 +10983,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
@@ -11024,10 +11024,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -11065,10 +11065,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -11106,10 +11106,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -11147,10 +11147,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -11188,10 +11188,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -11229,10 +11229,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -11270,10 +11270,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -11311,10 +11311,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -11352,10 +11352,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -11393,10 +11393,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1">
         <v>1</v>
@@ -11434,10 +11434,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -11475,10 +11475,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -11516,10 +11516,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -11557,10 +11557,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D245" s="1">
         <v>1</v>
@@ -11598,10 +11598,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -11639,10 +11639,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -11680,10 +11680,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -11721,10 +11721,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
@@ -11762,10 +11762,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -11803,10 +11803,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -11844,10 +11844,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -11885,10 +11885,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -11926,10 +11926,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -11967,10 +11967,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
@@ -12008,10 +12008,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -12049,10 +12049,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -12090,10 +12090,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -12131,10 +12131,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -12172,10 +12172,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -12213,10 +12213,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -12254,10 +12254,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -12295,10 +12295,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D263" s="1">
         <v>1</v>
@@ -12336,10 +12336,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D264" s="1">
         <v>1</v>
@@ -12377,10 +12377,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -12418,10 +12418,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -12459,10 +12459,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -12500,10 +12500,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -12541,10 +12541,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D269" s="1">
         <v>1</v>
@@ -12582,10 +12582,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D270" s="1">
         <v>1</v>
@@ -12623,10 +12623,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D271" s="1">
         <v>1</v>
@@ -12664,10 +12664,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D272" s="1">
         <v>1</v>
@@ -12705,10 +12705,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D273" s="1">
         <v>1</v>
@@ -12746,10 +12746,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D274" s="1">
         <v>1</v>
@@ -12787,10 +12787,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D275" s="1">
         <v>1</v>
@@ -12828,10 +12828,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D276" s="1">
         <v>1</v>
@@ -12869,10 +12869,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -12910,10 +12910,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D278" s="1">
         <v>1</v>
@@ -12951,10 +12951,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D279" s="1">
         <v>1</v>
@@ -12992,10 +12992,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D280" s="1">
         <v>1</v>
@@ -13033,10 +13033,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -13074,10 +13074,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
@@ -13115,10 +13115,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
@@ -13156,10 +13156,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
@@ -13197,10 +13197,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
@@ -13238,10 +13238,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -13279,10 +13279,10 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
@@ -13320,10 +13320,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -13361,10 +13361,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D289" s="1">
         <v>1</v>
@@ -13402,10 +13402,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D290" s="1">
         <v>1</v>
@@ -13443,10 +13443,10 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D291" s="1">
         <v>1</v>
@@ -13484,10 +13484,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D292" s="1">
         <v>1</v>
@@ -13525,10 +13525,10 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D293" s="1">
         <v>1</v>
@@ -13566,10 +13566,10 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D294" s="1">
         <v>1</v>
@@ -13607,10 +13607,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
@@ -13648,10 +13648,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -13689,10 +13689,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D297" s="1">
         <v>1</v>
@@ -13730,10 +13730,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298" s="1">
         <v>1</v>
@@ -13771,10 +13771,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D299" s="1">
         <v>1</v>
@@ -13812,10 +13812,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D300" s="1">
         <v>1</v>
@@ -13853,10 +13853,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D301" s="1">
         <v>1</v>
@@ -13894,10 +13894,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D302" s="1">
         <v>1</v>
@@ -13935,10 +13935,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D303" s="1">
         <v>1</v>
@@ -13976,10 +13976,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D304" s="1">
         <v>1</v>
@@ -14017,10 +14017,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D305" s="1">
         <v>1</v>
@@ -14058,10 +14058,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D306" s="1">
         <v>1</v>
@@ -14099,10 +14099,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D307" s="1">
         <v>1</v>
@@ -14140,10 +14140,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -14181,10 +14181,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D309" s="1">
         <v>1</v>
@@ -14222,10 +14222,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -14263,10 +14263,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -14304,10 +14304,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -14345,10 +14345,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -14386,10 +14386,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -14427,10 +14427,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D315" s="1">
         <v>1</v>
@@ -14468,10 +14468,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D316" s="1">
         <v>1</v>
@@ -14509,10 +14509,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -14550,10 +14550,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
@@ -14591,10 +14591,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -14632,10 +14632,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D320" s="1">
         <v>1</v>
@@ -14673,10 +14673,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D321" s="1">
         <v>1</v>
@@ -14714,10 +14714,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D322" s="1">
         <v>1</v>
@@ -14755,10 +14755,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D323" s="1">
         <v>1</v>
@@ -14796,10 +14796,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D324" s="1">
         <v>1</v>
@@ -14837,10 +14837,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D325" s="1">
         <v>1</v>
@@ -14878,10 +14878,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -14919,10 +14919,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -14960,10 +14960,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D328" s="1">
         <v>1</v>
@@ -15001,10 +15001,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D329" s="1">
         <v>1</v>
@@ -15042,10 +15042,10 @@
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D330" s="1">
         <v>1</v>
@@ -15083,10 +15083,10 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D331" s="1">
         <v>1</v>
@@ -15124,10 +15124,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
@@ -15165,10 +15165,10 @@
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D333" s="1">
         <v>1</v>
@@ -15206,10 +15206,10 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D334" s="1">
         <v>1</v>
@@ -15247,10 +15247,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D335" s="1">
         <v>1</v>
@@ -15288,10 +15288,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D336" s="1">
         <v>1</v>
@@ -15329,10 +15329,10 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D337" s="1">
         <v>1</v>
@@ -15370,10 +15370,10 @@
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D338" s="1">
         <v>1</v>
@@ -15411,10 +15411,10 @@
         <v>337</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -15452,10 +15452,10 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D340" s="1">
         <v>1</v>
@@ -15493,10 +15493,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D341" s="1">
         <v>1</v>
@@ -15534,10 +15534,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D342" s="1">
         <v>1</v>
@@ -15575,10 +15575,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
@@ -15616,10 +15616,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>354</v>
+        <v>13</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
@@ -15657,10 +15657,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D345" s="1">
         <v>1</v>
@@ -15698,10 +15698,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D346" s="1">
         <v>0</v>
@@ -15739,10 +15739,10 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D347" s="1">
         <v>0</v>
@@ -15780,10 +15780,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D348" s="1">
         <v>1</v>
@@ -15821,10 +15821,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D349" s="1">
         <v>1</v>
@@ -15862,10 +15862,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D350" s="1">
         <v>0</v>
@@ -15903,10 +15903,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D351" s="1">
         <v>0</v>
@@ -15944,10 +15944,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D352" s="1">
         <v>0</v>
@@ -15985,10 +15985,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>364</v>
+        <v>23</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D353" s="1">
         <v>0</v>
@@ -16026,10 +16026,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D354" s="1">
         <v>0</v>
@@ -16067,10 +16067,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>366</v>
+        <v>25</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D355" s="1">
         <v>0</v>
@@ -16108,10 +16108,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D356" s="1">
         <v>0</v>
@@ -16149,10 +16149,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D357" s="1">
         <v>0</v>
@@ -16190,10 +16190,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D358" s="1">
         <v>0</v>
@@ -16231,10 +16231,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D359" s="1">
         <v>0</v>
@@ -16272,10 +16272,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D360" s="1">
         <v>0</v>
@@ -16313,10 +16313,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D361" s="1">
         <v>0</v>
@@ -16354,10 +16354,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D362" s="1">
         <v>0</v>
@@ -16395,10 +16395,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>371</v>
+        <v>30</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D363" s="1">
         <v>0</v>
@@ -16436,10 +16436,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D364" s="1">
         <v>0</v>
@@ -16477,10 +16477,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D365" s="1">
         <v>0</v>
@@ -16518,10 +16518,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>374</v>
+        <v>33</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D366" s="1">
         <v>0</v>
@@ -16559,10 +16559,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>375</v>
+        <v>34</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D367" s="1">
         <v>0</v>
@@ -16600,10 +16600,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D368" s="1">
         <v>0</v>
@@ -16641,10 +16641,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="383">
   <si>
     <t>route</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t>/zone-set-template/zone-template/new</t>
+  </si>
+  <si>
+    <t>/log-view/put-log</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,6 +1263,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,11 +1546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P342" sqref="P342"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16677,8 +16683,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D370" s="7">
+        <v>1</v>
+      </c>
+      <c r="E370" s="7">
+        <v>1</v>
+      </c>
+      <c r="F370" s="7">
+        <v>1</v>
+      </c>
+      <c r="G370" s="7">
+        <v>1</v>
+      </c>
+      <c r="H370" s="7">
+        <v>1</v>
+      </c>
+      <c r="I370" s="7">
+        <v>1</v>
+      </c>
+      <c r="J370" s="7">
+        <v>1</v>
+      </c>
+      <c r="K370" s="7">
+        <v>1</v>
+      </c>
+      <c r="L370" s="7">
+        <v>1</v>
+      </c>
+      <c r="M370" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:M359 D361:M369">
+  <conditionalFormatting sqref="D3:M359 D361:M370">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="384">
   <si>
     <t>route</t>
   </si>
@@ -1173,6 +1173,9 @@
   </si>
   <si>
     <t>/log-view/put-log</t>
+  </si>
+  <si>
+    <t>WI_FILE_PREVIEW</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,6 +1268,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,11 +1552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M370"/>
+  <dimension ref="A1:M371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B359" sqref="B359"/>
+      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16724,8 +16730,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>369</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="7">
+        <v>1</v>
+      </c>
+      <c r="E371" s="7">
+        <v>1</v>
+      </c>
+      <c r="F371" s="7">
+        <v>1</v>
+      </c>
+      <c r="G371" s="7">
+        <v>1</v>
+      </c>
+      <c r="H371" s="7">
+        <v>1</v>
+      </c>
+      <c r="I371" s="7">
+        <v>1</v>
+      </c>
+      <c r="J371" s="7">
+        <v>1</v>
+      </c>
+      <c r="K371" s="7">
+        <v>1</v>
+      </c>
+      <c r="L371" s="7">
+        <v>1</v>
+      </c>
+      <c r="M371" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:M359 D361:M370">
+  <conditionalFormatting sqref="D3:M359 D361:M371">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7450DE-1399-4927-A54A-DF3CF42758D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="392">
   <si>
     <t>route</t>
   </si>
@@ -1176,12 +1177,36 @@
   </si>
   <si>
     <t>WI_FILE_PREVIEW</t>
+  </si>
+  <si>
+    <t>/project/plot/tadpole-track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/tadpole-track/new</t>
+  </si>
+  <si>
+    <t>/project/plot/tadpole-track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/tadpole-track/delete</t>
+  </si>
+  <si>
+    <t>/project/plot/generic-object-track/info</t>
+  </si>
+  <si>
+    <t>/project/plot/generic-object-track/new</t>
+  </si>
+  <si>
+    <t>/project/plot/generic-object-track/edit</t>
+  </si>
+  <si>
+    <t>/project/plot/generic-object-track/delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1551,12 +1576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P380" sqref="P380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16771,8 +16796,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>370</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="7">
+        <v>1</v>
+      </c>
+      <c r="E372" s="7">
+        <v>1</v>
+      </c>
+      <c r="F372" s="7">
+        <v>1</v>
+      </c>
+      <c r="G372" s="7">
+        <v>1</v>
+      </c>
+      <c r="H372" s="7">
+        <v>1</v>
+      </c>
+      <c r="I372" s="7">
+        <v>1</v>
+      </c>
+      <c r="J372" s="7">
+        <v>1</v>
+      </c>
+      <c r="K372" s="7">
+        <v>1</v>
+      </c>
+      <c r="L372" s="7">
+        <v>1</v>
+      </c>
+      <c r="M372" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>371</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="7">
+        <v>1</v>
+      </c>
+      <c r="E373" s="7">
+        <v>1</v>
+      </c>
+      <c r="F373" s="7">
+        <v>1</v>
+      </c>
+      <c r="G373" s="7">
+        <v>1</v>
+      </c>
+      <c r="H373" s="7">
+        <v>1</v>
+      </c>
+      <c r="I373" s="7">
+        <v>1</v>
+      </c>
+      <c r="J373" s="7">
+        <v>1</v>
+      </c>
+      <c r="K373" s="7">
+        <v>1</v>
+      </c>
+      <c r="L373" s="7">
+        <v>1</v>
+      </c>
+      <c r="M373" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>372</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374" s="7">
+        <v>1</v>
+      </c>
+      <c r="E374" s="7">
+        <v>1</v>
+      </c>
+      <c r="F374" s="7">
+        <v>1</v>
+      </c>
+      <c r="G374" s="7">
+        <v>1</v>
+      </c>
+      <c r="H374" s="7">
+        <v>1</v>
+      </c>
+      <c r="I374" s="7">
+        <v>1</v>
+      </c>
+      <c r="J374" s="7">
+        <v>1</v>
+      </c>
+      <c r="K374" s="7">
+        <v>1</v>
+      </c>
+      <c r="L374" s="7">
+        <v>1</v>
+      </c>
+      <c r="M374" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>373</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" s="7">
+        <v>1</v>
+      </c>
+      <c r="E375" s="7">
+        <v>1</v>
+      </c>
+      <c r="F375" s="7">
+        <v>1</v>
+      </c>
+      <c r="G375" s="7">
+        <v>1</v>
+      </c>
+      <c r="H375" s="7">
+        <v>1</v>
+      </c>
+      <c r="I375" s="7">
+        <v>1</v>
+      </c>
+      <c r="J375" s="7">
+        <v>1</v>
+      </c>
+      <c r="K375" s="7">
+        <v>1</v>
+      </c>
+      <c r="L375" s="7">
+        <v>1</v>
+      </c>
+      <c r="M375" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>374</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376" s="7">
+        <v>1</v>
+      </c>
+      <c r="E376" s="7">
+        <v>1</v>
+      </c>
+      <c r="F376" s="7">
+        <v>1</v>
+      </c>
+      <c r="G376" s="7">
+        <v>1</v>
+      </c>
+      <c r="H376" s="7">
+        <v>1</v>
+      </c>
+      <c r="I376" s="7">
+        <v>1</v>
+      </c>
+      <c r="J376" s="7">
+        <v>1</v>
+      </c>
+      <c r="K376" s="7">
+        <v>1</v>
+      </c>
+      <c r="L376" s="7">
+        <v>1</v>
+      </c>
+      <c r="M376" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>375</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="7">
+        <v>1</v>
+      </c>
+      <c r="E377" s="7">
+        <v>1</v>
+      </c>
+      <c r="F377" s="7">
+        <v>1</v>
+      </c>
+      <c r="G377" s="7">
+        <v>1</v>
+      </c>
+      <c r="H377" s="7">
+        <v>1</v>
+      </c>
+      <c r="I377" s="7">
+        <v>1</v>
+      </c>
+      <c r="J377" s="7">
+        <v>1</v>
+      </c>
+      <c r="K377" s="7">
+        <v>1</v>
+      </c>
+      <c r="L377" s="7">
+        <v>1</v>
+      </c>
+      <c r="M377" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>376</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="7">
+        <v>1</v>
+      </c>
+      <c r="E378" s="7">
+        <v>1</v>
+      </c>
+      <c r="F378" s="7">
+        <v>1</v>
+      </c>
+      <c r="G378" s="7">
+        <v>1</v>
+      </c>
+      <c r="H378" s="7">
+        <v>1</v>
+      </c>
+      <c r="I378" s="7">
+        <v>1</v>
+      </c>
+      <c r="J378" s="7">
+        <v>1</v>
+      </c>
+      <c r="K378" s="7">
+        <v>1</v>
+      </c>
+      <c r="L378" s="7">
+        <v>1</v>
+      </c>
+      <c r="M378" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>377</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" s="7">
+        <v>1</v>
+      </c>
+      <c r="E379" s="7">
+        <v>1</v>
+      </c>
+      <c r="F379" s="7">
+        <v>1</v>
+      </c>
+      <c r="G379" s="7">
+        <v>1</v>
+      </c>
+      <c r="H379" s="7">
+        <v>1</v>
+      </c>
+      <c r="I379" s="7">
+        <v>1</v>
+      </c>
+      <c r="J379" s="7">
+        <v>1</v>
+      </c>
+      <c r="K379" s="7">
+        <v>1</v>
+      </c>
+      <c r="L379" s="7">
+        <v>1</v>
+      </c>
+      <c r="M379" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M359 D361:M371">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D372:M372">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D373:M373">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D374:M375">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D376:M376">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16782,7 +17195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7450DE-1399-4927-A54A-DF3CF42758D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55B4F8-B735-4C22-B0F3-111EC192DB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="397">
   <si>
     <t>route</t>
   </si>
@@ -1201,6 +1201,21 @@
   </si>
   <si>
     <t>/project/plot/generic-object-track/delete</t>
+  </si>
+  <si>
+    <t>/filter/delete</t>
+  </si>
+  <si>
+    <t>/filter/info</t>
+  </si>
+  <si>
+    <t>/filter/new</t>
+  </si>
+  <si>
+    <t>/filter/edit</t>
+  </si>
+  <si>
+    <t>/filter/list</t>
   </si>
 </sst>
 </file>
@@ -1577,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M379"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P380" sqref="P380"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G383" sqref="G383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17124,8 +17139,294 @@
         <v>1</v>
       </c>
     </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>378</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" s="7">
+        <v>1</v>
+      </c>
+      <c r="E380" s="7">
+        <v>1</v>
+      </c>
+      <c r="F380" s="7">
+        <v>1</v>
+      </c>
+      <c r="G380" s="7">
+        <v>1</v>
+      </c>
+      <c r="H380" s="7">
+        <v>1</v>
+      </c>
+      <c r="I380" s="7">
+        <v>1</v>
+      </c>
+      <c r="J380" s="7">
+        <v>1</v>
+      </c>
+      <c r="K380" s="7">
+        <v>1</v>
+      </c>
+      <c r="L380" s="7">
+        <v>1</v>
+      </c>
+      <c r="M380" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>379</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" s="7">
+        <v>1</v>
+      </c>
+      <c r="E381" s="7">
+        <v>1</v>
+      </c>
+      <c r="F381" s="7">
+        <v>1</v>
+      </c>
+      <c r="G381" s="7">
+        <v>1</v>
+      </c>
+      <c r="H381" s="7">
+        <v>1</v>
+      </c>
+      <c r="I381" s="7">
+        <v>1</v>
+      </c>
+      <c r="J381" s="7">
+        <v>1</v>
+      </c>
+      <c r="K381" s="7">
+        <v>1</v>
+      </c>
+      <c r="L381" s="7">
+        <v>1</v>
+      </c>
+      <c r="M381" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>380</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" s="7">
+        <v>1</v>
+      </c>
+      <c r="E382" s="7">
+        <v>1</v>
+      </c>
+      <c r="F382" s="7">
+        <v>1</v>
+      </c>
+      <c r="G382" s="7">
+        <v>1</v>
+      </c>
+      <c r="H382" s="7">
+        <v>1</v>
+      </c>
+      <c r="I382" s="7">
+        <v>1</v>
+      </c>
+      <c r="J382" s="7">
+        <v>1</v>
+      </c>
+      <c r="K382" s="7">
+        <v>1</v>
+      </c>
+      <c r="L382" s="7">
+        <v>1</v>
+      </c>
+      <c r="M382" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>381</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="7">
+        <v>1</v>
+      </c>
+      <c r="E383" s="7">
+        <v>1</v>
+      </c>
+      <c r="F383" s="7">
+        <v>1</v>
+      </c>
+      <c r="G383" s="7">
+        <v>1</v>
+      </c>
+      <c r="H383" s="7">
+        <v>1</v>
+      </c>
+      <c r="I383" s="7">
+        <v>1</v>
+      </c>
+      <c r="J383" s="7">
+        <v>1</v>
+      </c>
+      <c r="K383" s="7">
+        <v>1</v>
+      </c>
+      <c r="L383" s="7">
+        <v>1</v>
+      </c>
+      <c r="M383" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>382</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="7">
+        <v>1</v>
+      </c>
+      <c r="E384" s="7">
+        <v>1</v>
+      </c>
+      <c r="F384" s="7">
+        <v>1</v>
+      </c>
+      <c r="G384" s="7">
+        <v>1</v>
+      </c>
+      <c r="H384" s="7">
+        <v>1</v>
+      </c>
+      <c r="I384" s="7">
+        <v>1</v>
+      </c>
+      <c r="J384" s="7">
+        <v>1</v>
+      </c>
+      <c r="K384" s="7">
+        <v>1</v>
+      </c>
+      <c r="L384" s="7">
+        <v>1</v>
+      </c>
+      <c r="M384" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>382</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="7">
+        <v>1</v>
+      </c>
+      <c r="E385" s="7">
+        <v>1</v>
+      </c>
+      <c r="F385" s="7">
+        <v>1</v>
+      </c>
+      <c r="G385" s="7">
+        <v>1</v>
+      </c>
+      <c r="H385" s="7">
+        <v>1</v>
+      </c>
+      <c r="I385" s="7">
+        <v>1</v>
+      </c>
+      <c r="J385" s="7">
+        <v>1</v>
+      </c>
+      <c r="K385" s="7">
+        <v>1</v>
+      </c>
+      <c r="L385" s="7">
+        <v>1</v>
+      </c>
+      <c r="M385" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M359 D361:M371">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D372:M372">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D373:M373">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D374:M375">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17135,7 +17436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D376:M376">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17145,7 +17446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D372:M372">
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17155,7 +17456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D373:M373">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17165,7 +17466,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D374:M375">
+  <conditionalFormatting sqref="D380:M380">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D381:M381">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17175,7 +17486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:M376">
+  <conditionalFormatting sqref="D382:M382">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17185,7 +17496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D377:M377">
+  <conditionalFormatting sqref="D383:M384">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17195,7 +17506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D378:M379">
+  <conditionalFormatting sqref="D385:M385">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55B4F8-B735-4C22-B0F3-111EC192DB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8D58C-BCDE-4D2D-8470-C7A33341D466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,8 +1595,8 @@
   <dimension ref="A1:M385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G383" sqref="G383"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>396</v>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8D58C-BCDE-4D2D-8470-C7A33341D466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84128E4A-0106-4FEF-8CB1-A60B0E84C3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="397">
   <si>
     <t>route</t>
   </si>
@@ -1595,8 +1595,8 @@
   <dimension ref="A1:M385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T371" sqref="T371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17308,7 +17308,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>12</v>
@@ -17344,49 +17344,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
-        <v>383</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D385" s="7">
-        <v>1</v>
-      </c>
-      <c r="E385" s="7">
-        <v>1</v>
-      </c>
-      <c r="F385" s="7">
-        <v>1</v>
-      </c>
-      <c r="G385" s="7">
-        <v>1</v>
-      </c>
-      <c r="H385" s="7">
-        <v>1</v>
-      </c>
-      <c r="I385" s="7">
-        <v>1</v>
-      </c>
-      <c r="J385" s="7">
-        <v>1</v>
-      </c>
-      <c r="K385" s="7">
-        <v>1</v>
-      </c>
-      <c r="L385" s="7">
-        <v>1</v>
-      </c>
-      <c r="M385" s="7">
-        <v>1</v>
-      </c>
+    <row r="385" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B385" s="4"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="7"/>
+      <c r="E385" s="7"/>
+      <c r="F385" s="7"/>
+      <c r="G385" s="7"/>
+      <c r="H385" s="7"/>
+      <c r="I385" s="7"/>
+      <c r="J385" s="7"/>
+      <c r="K385" s="7"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M359 D361:M371">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17396,7 +17379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D372:M372">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17406,7 +17389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D372:M372">
+  <conditionalFormatting sqref="D373:M373">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17416,8 +17399,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D373:M373">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="D374:M375">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17426,7 +17409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D374:M375">
+  <conditionalFormatting sqref="D376:M376">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17436,7 +17419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:M376">
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17446,7 +17429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D377:M377">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17456,7 +17439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D378:M379">
+  <conditionalFormatting sqref="D380:M380">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17466,7 +17449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D380:M380">
+  <conditionalFormatting sqref="D381:M381">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17476,7 +17459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D381:M381">
+  <conditionalFormatting sqref="D382:M382">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17486,7 +17469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D382:M382">
+  <conditionalFormatting sqref="D383:M383">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17496,7 +17479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D383:M384">
+  <conditionalFormatting sqref="D385:M385">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17506,7 +17489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D385:M385">
+  <conditionalFormatting sqref="D384:M384">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84128E4A-0106-4FEF-8CB1-A60B0E84C3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -1221,7 +1220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1591,12 +1590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T371" sqref="T371"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17343,20 +17342,6 @@
       <c r="M384" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B385" s="4"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="7"/>
-      <c r="E385" s="7"/>
-      <c r="F385" s="7"/>
-      <c r="G385" s="7"/>
-      <c r="H385" s="7"/>
-      <c r="I385" s="7"/>
-      <c r="J385" s="7"/>
-      <c r="K385" s="7"/>
-      <c r="L385" s="7"/>
-      <c r="M385" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:M359 D361:M371">
@@ -17479,16 +17464,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D385:M385">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D384:M384">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Revotech\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B538339-72ED-4677-A9E0-DF546A1674EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feature_api!$A$2:$M$397</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="411">
   <si>
     <t>route</t>
   </si>
@@ -1215,17 +1219,59 @@
   </si>
   <si>
     <t>/filter/list</t>
+  </si>
+  <si>
+    <t>NewProjectButton</t>
+  </si>
+  <si>
+    <t>OpenProjectButton</t>
+  </si>
+  <si>
+    <t>CloseProjectButton</t>
+  </si>
+  <si>
+    <t>ShareProjectButton</t>
+  </si>
+  <si>
+    <t>ProjectStorageButton</t>
+  </si>
+  <si>
+    <t>AddNewButton</t>
+  </si>
+  <si>
+    <t>ProjectButton</t>
+  </si>
+  <si>
+    <t>PropertyGridButton</t>
+  </si>
+  <si>
+    <t>LogWindowButton</t>
+  </si>
+  <si>
+    <t>FlowsButton</t>
+  </si>
+  <si>
+    <t>CSVTransformerButton</t>
+  </si>
+  <si>
+    <t>BaseMapButton</t>
+  </si>
+  <si>
+    <t>WiPythonButton</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1289,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,9 +1353,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1590,22 +1633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M384"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
+      <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1640,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1722,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1763,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1804,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1845,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1886,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1927,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1968,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2009,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2050,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2091,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2132,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2173,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2214,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2255,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2296,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2337,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2378,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2419,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2460,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2501,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2542,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2583,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2624,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2665,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2706,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2747,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2788,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2829,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2870,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2911,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2952,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2993,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3034,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3075,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3116,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3157,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3198,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3239,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3280,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3321,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3362,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3403,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3444,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3485,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3526,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3567,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3608,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3649,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3690,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3731,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3772,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3813,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3854,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3895,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3936,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3977,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4018,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4059,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4100,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4141,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4182,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4223,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4264,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4305,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4346,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4387,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4428,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4469,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4510,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4551,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4592,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4633,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4674,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4715,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4756,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4797,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4838,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4879,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4920,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4961,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5002,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5043,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5084,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5125,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5166,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5207,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5248,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5289,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5330,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5371,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5412,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5453,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5494,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5535,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5576,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5617,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5658,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5699,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5740,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5781,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5822,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5863,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5904,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5945,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5986,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6027,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6068,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6109,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6150,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6191,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6232,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6273,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6314,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6355,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6396,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6437,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6478,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6519,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6560,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6601,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6642,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6683,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6724,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6765,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6806,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6847,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6888,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6929,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6970,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7011,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7052,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7093,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7134,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7175,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7216,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7257,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7298,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7339,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7380,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7421,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7462,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7503,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7544,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7585,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7626,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7667,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7708,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7749,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7790,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7831,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7872,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7913,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7954,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7995,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8036,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8077,7 +8120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8118,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8159,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8200,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8241,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8282,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8323,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8364,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8405,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8446,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8487,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8528,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8569,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8610,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8651,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8692,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8733,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8774,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8815,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8856,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8897,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8938,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8979,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9020,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9061,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9102,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9143,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9184,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9225,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9266,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9307,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9348,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9389,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9430,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9471,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9512,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9553,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9594,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9635,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9676,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9717,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9758,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9799,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9840,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9881,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9922,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9963,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10004,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10045,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10086,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10127,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10168,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10209,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10250,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10291,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10332,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10373,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10414,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10455,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10496,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10537,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10578,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10619,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10660,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10701,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10742,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10783,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10824,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10865,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10906,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10947,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10988,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11029,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11070,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11111,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11152,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11193,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11234,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11275,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11316,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11357,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11398,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11439,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11480,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11521,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11562,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -11603,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -11644,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -11685,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -11726,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -11767,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -11808,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -11849,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11890,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -11931,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -11972,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12013,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12054,7 +12097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12095,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12136,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12177,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12218,7 +12261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12259,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12300,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12341,7 +12384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12382,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12423,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12464,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12505,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12546,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12587,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12628,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12669,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12710,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12751,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12792,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12833,7 +12876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12874,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12915,7 +12958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12956,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12997,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13038,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13079,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13120,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13161,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13202,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13243,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13284,7 +13327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13325,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -13366,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -13407,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13448,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13489,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13530,7 +13573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -13571,7 +13614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -13612,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -13653,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -13694,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -13735,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -13776,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -13817,7 +13860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13858,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13899,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13940,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13981,7 +14024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14022,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14063,7 +14106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14104,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14145,7 +14188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14186,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14227,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14268,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14309,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -14350,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -14391,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -14432,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -14473,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -14514,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -14555,7 +14598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -14596,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -14637,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -14678,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -14719,7 +14762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -14760,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -14801,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -14842,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -14883,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -14924,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -14965,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15006,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15047,7 +15090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15088,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15129,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15170,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15211,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15252,7 +15295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15293,7 +15336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -15334,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -15375,7 +15418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -15416,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -15457,7 +15500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -15498,7 +15541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -15539,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -15580,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -15621,7 +15664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -15662,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -15703,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -15744,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -15785,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -15826,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -15867,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -15908,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -15949,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -15990,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16031,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16072,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16113,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16154,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16195,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16236,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16277,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16318,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16359,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16400,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16441,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16482,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16523,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16564,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16605,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16646,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16687,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16728,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16769,14 +16812,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D371" s="7">
@@ -16810,8 +16853,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
@@ -16851,8 +16894,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
@@ -16892,8 +16935,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
@@ -16933,8 +16976,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
@@ -16974,8 +17017,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
@@ -17015,8 +17058,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
@@ -17056,8 +17099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
@@ -17097,8 +17140,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
@@ -17138,8 +17181,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
@@ -17179,8 +17222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
@@ -17220,8 +17263,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
@@ -17261,8 +17304,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
@@ -17302,8 +17345,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
@@ -17343,7 +17386,541 @@
         <v>1</v>
       </c>
     </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D385" s="7">
+        <v>1</v>
+      </c>
+      <c r="E385" s="7">
+        <v>0</v>
+      </c>
+      <c r="F385" s="7">
+        <v>0</v>
+      </c>
+      <c r="G385" s="7">
+        <v>0</v>
+      </c>
+      <c r="H385" s="7">
+        <v>0</v>
+      </c>
+      <c r="I385" s="7">
+        <v>0</v>
+      </c>
+      <c r="J385" s="7">
+        <v>0</v>
+      </c>
+      <c r="K385" s="7">
+        <v>0</v>
+      </c>
+      <c r="L385" s="7">
+        <v>0</v>
+      </c>
+      <c r="M385" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D386" s="7">
+        <v>1</v>
+      </c>
+      <c r="E386" s="7">
+        <v>0</v>
+      </c>
+      <c r="F386" s="7">
+        <v>0</v>
+      </c>
+      <c r="G386" s="7">
+        <v>0</v>
+      </c>
+      <c r="H386" s="7">
+        <v>0</v>
+      </c>
+      <c r="I386" s="7">
+        <v>0</v>
+      </c>
+      <c r="J386" s="7">
+        <v>0</v>
+      </c>
+      <c r="K386" s="7">
+        <v>0</v>
+      </c>
+      <c r="L386" s="7">
+        <v>0</v>
+      </c>
+      <c r="M386" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D387" s="7">
+        <v>1</v>
+      </c>
+      <c r="E387" s="7">
+        <v>0</v>
+      </c>
+      <c r="F387" s="7">
+        <v>0</v>
+      </c>
+      <c r="G387" s="7">
+        <v>0</v>
+      </c>
+      <c r="H387" s="7">
+        <v>0</v>
+      </c>
+      <c r="I387" s="7">
+        <v>0</v>
+      </c>
+      <c r="J387" s="7">
+        <v>0</v>
+      </c>
+      <c r="K387" s="7">
+        <v>0</v>
+      </c>
+      <c r="L387" s="7">
+        <v>0</v>
+      </c>
+      <c r="M387" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D388" s="7">
+        <v>1</v>
+      </c>
+      <c r="E388" s="7">
+        <v>0</v>
+      </c>
+      <c r="F388" s="7">
+        <v>0</v>
+      </c>
+      <c r="G388" s="7">
+        <v>0</v>
+      </c>
+      <c r="H388" s="7">
+        <v>0</v>
+      </c>
+      <c r="I388" s="7">
+        <v>0</v>
+      </c>
+      <c r="J388" s="7">
+        <v>0</v>
+      </c>
+      <c r="K388" s="7">
+        <v>0</v>
+      </c>
+      <c r="L388" s="7">
+        <v>0</v>
+      </c>
+      <c r="M388" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D389" s="7">
+        <v>0</v>
+      </c>
+      <c r="E389" s="7">
+        <v>1</v>
+      </c>
+      <c r="F389" s="7">
+        <v>0</v>
+      </c>
+      <c r="G389" s="7">
+        <v>0</v>
+      </c>
+      <c r="H389" s="7">
+        <v>0</v>
+      </c>
+      <c r="I389" s="7">
+        <v>0</v>
+      </c>
+      <c r="J389" s="7">
+        <v>0</v>
+      </c>
+      <c r="K389" s="7">
+        <v>0</v>
+      </c>
+      <c r="L389" s="7">
+        <v>0</v>
+      </c>
+      <c r="M389" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D390" s="7">
+        <v>1</v>
+      </c>
+      <c r="E390" s="7">
+        <v>0</v>
+      </c>
+      <c r="F390" s="7">
+        <v>0</v>
+      </c>
+      <c r="G390" s="7">
+        <v>0</v>
+      </c>
+      <c r="H390" s="7">
+        <v>0</v>
+      </c>
+      <c r="I390" s="7">
+        <v>0</v>
+      </c>
+      <c r="J390" s="7">
+        <v>0</v>
+      </c>
+      <c r="K390" s="7">
+        <v>0</v>
+      </c>
+      <c r="L390" s="7">
+        <v>0</v>
+      </c>
+      <c r="M390" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D391" s="7">
+        <v>1</v>
+      </c>
+      <c r="E391" s="7">
+        <v>0</v>
+      </c>
+      <c r="F391" s="7">
+        <v>0</v>
+      </c>
+      <c r="G391" s="7">
+        <v>0</v>
+      </c>
+      <c r="H391" s="7">
+        <v>0</v>
+      </c>
+      <c r="I391" s="7">
+        <v>0</v>
+      </c>
+      <c r="J391" s="7">
+        <v>0</v>
+      </c>
+      <c r="K391" s="7">
+        <v>0</v>
+      </c>
+      <c r="L391" s="7">
+        <v>0</v>
+      </c>
+      <c r="M391" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D392" s="7">
+        <v>1</v>
+      </c>
+      <c r="E392" s="7">
+        <v>0</v>
+      </c>
+      <c r="F392" s="7">
+        <v>0</v>
+      </c>
+      <c r="G392" s="7">
+        <v>0</v>
+      </c>
+      <c r="H392" s="7">
+        <v>0</v>
+      </c>
+      <c r="I392" s="7">
+        <v>0</v>
+      </c>
+      <c r="J392" s="7">
+        <v>0</v>
+      </c>
+      <c r="K392" s="7">
+        <v>0</v>
+      </c>
+      <c r="L392" s="7">
+        <v>0</v>
+      </c>
+      <c r="M392" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D393" s="7">
+        <v>1</v>
+      </c>
+      <c r="E393" s="7">
+        <v>0</v>
+      </c>
+      <c r="F393" s="7">
+        <v>0</v>
+      </c>
+      <c r="G393" s="7">
+        <v>0</v>
+      </c>
+      <c r="H393" s="7">
+        <v>0</v>
+      </c>
+      <c r="I393" s="7">
+        <v>0</v>
+      </c>
+      <c r="J393" s="7">
+        <v>0</v>
+      </c>
+      <c r="K393" s="7">
+        <v>0</v>
+      </c>
+      <c r="L393" s="7">
+        <v>0</v>
+      </c>
+      <c r="M393" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D394" s="7">
+        <v>1</v>
+      </c>
+      <c r="E394" s="7">
+        <v>0</v>
+      </c>
+      <c r="F394" s="7">
+        <v>0</v>
+      </c>
+      <c r="G394" s="7">
+        <v>0</v>
+      </c>
+      <c r="H394" s="7">
+        <v>0</v>
+      </c>
+      <c r="I394" s="7">
+        <v>0</v>
+      </c>
+      <c r="J394" s="7">
+        <v>0</v>
+      </c>
+      <c r="K394" s="7">
+        <v>0</v>
+      </c>
+      <c r="L394" s="7">
+        <v>0</v>
+      </c>
+      <c r="M394" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D395" s="7">
+        <v>1</v>
+      </c>
+      <c r="E395" s="7">
+        <v>0</v>
+      </c>
+      <c r="F395" s="7">
+        <v>0</v>
+      </c>
+      <c r="G395" s="7">
+        <v>0</v>
+      </c>
+      <c r="H395" s="7">
+        <v>0</v>
+      </c>
+      <c r="I395" s="7">
+        <v>0</v>
+      </c>
+      <c r="J395" s="7">
+        <v>0</v>
+      </c>
+      <c r="K395" s="7">
+        <v>0</v>
+      </c>
+      <c r="L395" s="7">
+        <v>0</v>
+      </c>
+      <c r="M395" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D396" s="7">
+        <v>1</v>
+      </c>
+      <c r="E396" s="7">
+        <v>0</v>
+      </c>
+      <c r="F396" s="7">
+        <v>0</v>
+      </c>
+      <c r="G396" s="7">
+        <v>0</v>
+      </c>
+      <c r="H396" s="7">
+        <v>0</v>
+      </c>
+      <c r="I396" s="7">
+        <v>0</v>
+      </c>
+      <c r="J396" s="7">
+        <v>0</v>
+      </c>
+      <c r="K396" s="7">
+        <v>0</v>
+      </c>
+      <c r="L396" s="7">
+        <v>0</v>
+      </c>
+      <c r="M396" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D397" s="7">
+        <v>0</v>
+      </c>
+      <c r="E397" s="7">
+        <v>0</v>
+      </c>
+      <c r="F397" s="7">
+        <v>0</v>
+      </c>
+      <c r="G397" s="7">
+        <v>0</v>
+      </c>
+      <c r="H397" s="7">
+        <v>0</v>
+      </c>
+      <c r="I397" s="7">
+        <v>0</v>
+      </c>
+      <c r="J397" s="7">
+        <v>0</v>
+      </c>
+      <c r="K397" s="7">
+        <v>0</v>
+      </c>
+      <c r="L397" s="7">
+        <v>0</v>
+      </c>
+      <c r="M397" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
   <conditionalFormatting sqref="D3:M359 D361:M371">
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -17464,7 +18041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D384:M384">
+  <conditionalFormatting sqref="D384:M397">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Revotech\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B538339-72ED-4677-A9E0-DF546A1674EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBC91C-6151-4E32-86E2-6457A6F06B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feature_api!$A$2:$M$397</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="611">
   <si>
     <t>route</t>
   </si>
@@ -1261,6 +1267,606 @@
   </si>
   <si>
     <t>BUTTON</t>
+  </si>
+  <si>
+    <t>ImportDropdown</t>
+  </si>
+  <si>
+    <t>InventoryInspectionButton</t>
+  </si>
+  <si>
+    <t>ImportFromInventoryButton</t>
+  </si>
+  <si>
+    <t>ExportDropdown</t>
+  </si>
+  <si>
+    <t>ExportFromInventoryButton</t>
+  </si>
+  <si>
+    <t>ExportFromProjectButton</t>
+  </si>
+  <si>
+    <t>ParameterManagerButton</t>
+  </si>
+  <si>
+    <t>ZonesetManagerButton</t>
+  </si>
+  <si>
+    <t>MarkerManagerButton</t>
+  </si>
+  <si>
+    <t>ImageManagerButton</t>
+  </si>
+  <si>
+    <t>BlankLogplotButton</t>
+  </si>
+  <si>
+    <t>LogplotTemplateDropdown</t>
+  </si>
+  <si>
+    <t>TrippleComboButton</t>
+  </si>
+  <si>
+    <t>DensityNeutronButton</t>
+  </si>
+  <si>
+    <t>OpenTemplateButton</t>
+  </si>
+  <si>
+    <t>BlankCrossPlotButton</t>
+  </si>
+  <si>
+    <t>CrossPlotToolButton</t>
+  </si>
+  <si>
+    <t>BlankHistogramButton</t>
+  </si>
+  <si>
+    <t>HistogramToolButton</t>
+  </si>
+  <si>
+    <t>ResistivitySonicButton</t>
+  </si>
+  <si>
+    <t>LogPlotDesignerButton</t>
+  </si>
+  <si>
+    <t>AddCurveButton</t>
+  </si>
+  <si>
+    <t>DataEditorButton</t>
+  </si>
+  <si>
+    <t>CurveComparisonButton</t>
+  </si>
+  <si>
+    <t>ScalarOperationsDropdown</t>
+  </si>
+  <si>
+    <t>BasicOperationsButton</t>
+  </si>
+  <si>
+    <t>PowButton</t>
+  </si>
+  <si>
+    <t>RoundButton</t>
+  </si>
+  <si>
+    <t>LimitButton</t>
+  </si>
+  <si>
+    <t>BasicCombinationsButton</t>
+  </si>
+  <si>
+    <t>LinearCombinationsButton</t>
+  </si>
+  <si>
+    <t>MergedCurveButton</t>
+  </si>
+  <si>
+    <t>CurveInterpolationDropdown</t>
+  </si>
+  <si>
+    <t>CurveFillingButton</t>
+  </si>
+  <si>
+    <t>CurveResamplingButton</t>
+  </si>
+  <si>
+    <t>CurveTransformsDropdown</t>
+  </si>
+  <si>
+    <t>FunctionalTransformsButton</t>
+  </si>
+  <si>
+    <t>CurveDerivationButton</t>
+  </si>
+  <si>
+    <t>CurveRescalingButton</t>
+  </si>
+  <si>
+    <t>CurveFiltersDropdown</t>
+  </si>
+  <si>
+    <t>MedianFilterButton</t>
+  </si>
+  <si>
+    <t>SquareFilterButton</t>
+  </si>
+  <si>
+    <t>BellFilterButton</t>
+  </si>
+  <si>
+    <t>SavitskyGolayFilterButton</t>
+  </si>
+  <si>
+    <t>FFTFilterButton</t>
+  </si>
+  <si>
+    <t>CurveConvolutionButton</t>
+  </si>
+  <si>
+    <t>CurveDeconvolutionButton</t>
+  </si>
+  <si>
+    <t>CurveSpliceButton</t>
+  </si>
+  <si>
+    <t>TVDConversionButton</t>
+  </si>
+  <si>
+    <t>Multi-LinearRegressionButton</t>
+  </si>
+  <si>
+    <t>FormationTemperatureDropdown</t>
+  </si>
+  <si>
+    <t>GradientFTempButton</t>
+  </si>
+  <si>
+    <t>LogIntervalFTempButton</t>
+  </si>
+  <si>
+    <t>FormationPressureDropdown</t>
+  </si>
+  <si>
+    <t>GradientFPressButton</t>
+  </si>
+  <si>
+    <t>MudDensityFPressButton</t>
+  </si>
+  <si>
+    <t>QvFunctionDropdown</t>
+  </si>
+  <si>
+    <t>NormalizeQvButton</t>
+  </si>
+  <si>
+    <t>CECQvButton</t>
+  </si>
+  <si>
+    <t>WaterBearingShalySandsButton</t>
+  </si>
+  <si>
+    <t>Resistivity</t>
+  </si>
+  <si>
+    <t>MudSalinityandResistivityButton</t>
+  </si>
+  <si>
+    <t>PseudoMicroResistivityButton</t>
+  </si>
+  <si>
+    <t>FluidProperty-WaterDropdown</t>
+  </si>
+  <si>
+    <t>RWfromSALandFTempButton</t>
+  </si>
+  <si>
+    <t>SaturatedSalinityConcentrationfromFTempButton</t>
+  </si>
+  <si>
+    <t>UfromSalinityButton</t>
+  </si>
+  <si>
+    <t>BadHoleDropdown</t>
+  </si>
+  <si>
+    <t>BadHoleFromCaliperButton</t>
+  </si>
+  <si>
+    <t>BadHoleFromDRHOButton</t>
+  </si>
+  <si>
+    <t>PureMineralFlagDropdown</t>
+  </si>
+  <si>
+    <t>CoalFlagButton</t>
+  </si>
+  <si>
+    <t>CarbonateFlagButton</t>
+  </si>
+  <si>
+    <t>HaliteFlagButton</t>
+  </si>
+  <si>
+    <t>AnhydriteFlagButton</t>
+  </si>
+  <si>
+    <t>CustomFlagButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeDropdown</t>
+  </si>
+  <si>
+    <t>ShaleVolumeGammaRayButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeNeutron-DensityButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeNeutron-SonicButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeDensity-SonicButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeResistivityButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeSpontaneouspotentialButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeThermalNeutronButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumePotassiumButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeThoriumButton</t>
+  </si>
+  <si>
+    <t>ShaleVolumeFinalButton</t>
+  </si>
+  <si>
+    <t>PorosityDropdown</t>
+  </si>
+  <si>
+    <t>PorosityDensityButton</t>
+  </si>
+  <si>
+    <t>PorosityNeutronButton</t>
+  </si>
+  <si>
+    <t>PorositySonicButton</t>
+  </si>
+  <si>
+    <t>PorosityNeutron-DensityButton</t>
+  </si>
+  <si>
+    <t>PorosityNeutron-SonicButton</t>
+  </si>
+  <si>
+    <t>PorosityTotalFinalButton</t>
+  </si>
+  <si>
+    <t>PorosityEffectiveFinalButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationDropdown</t>
+  </si>
+  <si>
+    <t>WaterSaturationArchieButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationIndonesiaButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationModifiedIndonesiaButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationSimandouxButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationModifiedSimandouxButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationJuhaszButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationWaxman-SmitsButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationDualWaterButton</t>
+  </si>
+  <si>
+    <t>WaterSaturationEffectiveButton</t>
+  </si>
+  <si>
+    <t>CutoffandSummationButton</t>
+  </si>
+  <si>
+    <t>Multi-MineralSolverToolbar</t>
+  </si>
+  <si>
+    <t>Multi-MineralSolverButton</t>
+  </si>
+  <si>
+    <t>BasementDropdown</t>
+  </si>
+  <si>
+    <t>BlockvalueButton</t>
+  </si>
+  <si>
+    <t>FracturePorosityButton</t>
+  </si>
+  <si>
+    <t>FilteringFractureTypeandMicroMacroPorosityButton</t>
+  </si>
+  <si>
+    <t>FractureZoneEstimationButton</t>
+  </si>
+  <si>
+    <t>ResidualWaterSaturationButton</t>
+  </si>
+  <si>
+    <t>PermeabilityButton</t>
+  </si>
+  <si>
+    <t>BasementSummationButton</t>
+  </si>
+  <si>
+    <t>MSFlagformGRButton</t>
+  </si>
+  <si>
+    <t>StaticYoungModulusDropdown</t>
+  </si>
+  <si>
+    <t>SYMBradfordetal1998forSandButton</t>
+  </si>
+  <si>
+    <t>Horsrud2001forShaleButton</t>
+  </si>
+  <si>
+    <t>Lacy1997Button</t>
+  </si>
+  <si>
+    <t>StaticPoissonsRatioButton</t>
+  </si>
+  <si>
+    <t>Asadietal2016forSandButton</t>
+  </si>
+  <si>
+    <t>Bradfordetal1998forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal20063forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal20066forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal20067forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal20068forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal200611forSandButton</t>
+  </si>
+  <si>
+    <t>Freyburg1972forSandButton</t>
+  </si>
+  <si>
+    <t>Lacy1997forSandButton</t>
+  </si>
+  <si>
+    <t>McNally1987forSandButton</t>
+  </si>
+  <si>
+    <t>Moosetal1999forSandButton</t>
+  </si>
+  <si>
+    <t>Plumb1994forSandButton</t>
+  </si>
+  <si>
+    <t>Verniketal1993forSandButton</t>
+  </si>
+  <si>
+    <t>Changetal200613forShaleButton</t>
+  </si>
+  <si>
+    <t>Changetal200614forShaleButton</t>
+  </si>
+  <si>
+    <t>Changetal200615forShaleButton</t>
+  </si>
+  <si>
+    <t>Changetal200618forShaleButton</t>
+  </si>
+  <si>
+    <t>Changetal200621forShaleButton</t>
+  </si>
+  <si>
+    <t>Horsrud2001fromDTforShaleButton</t>
+  </si>
+  <si>
+    <t>Horsrud2001fromEsforShaleButton</t>
+  </si>
+  <si>
+    <t>Horsrud2001fromPHIforShaleButton</t>
+  </si>
+  <si>
+    <t>Khaksaretal2009forShaleButton</t>
+  </si>
+  <si>
+    <t>UCSLal1999forShaleButton</t>
+  </si>
+  <si>
+    <t>LashkaripourandDusseault1993forShaleButton</t>
+  </si>
+  <si>
+    <t>UCSCombinerButton</t>
+  </si>
+  <si>
+    <t>WeingartenandPerkins1995forSandButton</t>
+  </si>
+  <si>
+    <t>IFALal1999forShaleButton</t>
+  </si>
+  <si>
+    <t>IFACombinerButton</t>
+  </si>
+  <si>
+    <t>HydrostaticPressureButton</t>
+  </si>
+  <si>
+    <t>MinimumHorizontalStressDropdown</t>
+  </si>
+  <si>
+    <t>HubbertandWillis1957Button</t>
+  </si>
+  <si>
+    <t>Eaton1969Button</t>
+  </si>
+  <si>
+    <t>MinESRandTerzaghiEffectiveStressButton</t>
+  </si>
+  <si>
+    <t>MinESRandBiotCoefficientButton</t>
+  </si>
+  <si>
+    <t>PoroElasticUniaxialStrainModelButton</t>
+  </si>
+  <si>
+    <t>ToolboxDropdown</t>
+  </si>
+  <si>
+    <t>DynamicPropertiesButton</t>
+  </si>
+  <si>
+    <t>SYMCombinerButton</t>
+  </si>
+  <si>
+    <t>StaticModuliDropdown</t>
+  </si>
+  <si>
+    <t>StaticBulkandShearModulusButton</t>
+  </si>
+  <si>
+    <t>BiotCoefficientDropdown</t>
+  </si>
+  <si>
+    <t>MeproAlphaModelButton</t>
+  </si>
+  <si>
+    <t>AlphacombinerButton</t>
+  </si>
+  <si>
+    <t>UnconfinedCompressiveStrengthDropdown</t>
+  </si>
+  <si>
+    <t>InternalFrictionAngleDropdown</t>
+  </si>
+  <si>
+    <t>CohensionfromUCS&amp;IFAButton</t>
+  </si>
+  <si>
+    <t>TensileStrengthfromUCSButton</t>
+  </si>
+  <si>
+    <t>PorePressureDropdown</t>
+  </si>
+  <si>
+    <t>PorePressureButton</t>
+  </si>
+  <si>
+    <t>DensityGeomachenicDropdown</t>
+  </si>
+  <si>
+    <t>ExtrapolationButton</t>
+  </si>
+  <si>
+    <t>GardnerButton</t>
+  </si>
+  <si>
+    <t>BellottiforConsolidatedSoilButton</t>
+  </si>
+  <si>
+    <t>BellottiforUnconsolidatedSoilButton</t>
+  </si>
+  <si>
+    <t>LindsethButton</t>
+  </si>
+  <si>
+    <t>LinearButton</t>
+  </si>
+  <si>
+    <t>PowerLawButton</t>
+  </si>
+  <si>
+    <t>DensityCombinerButton</t>
+  </si>
+  <si>
+    <t>OverburdenStressButton</t>
+  </si>
+  <si>
+    <t>MaximumHorizontalStressDropdown</t>
+  </si>
+  <si>
+    <t>FunctionofSHminButton</t>
+  </si>
+  <si>
+    <t>ESRandTerzaghiEffectiveStressButton</t>
+  </si>
+  <si>
+    <t>ESRandBiotCoefficientButton</t>
+  </si>
+  <si>
+    <t>WellboreStabilityModelButton</t>
+  </si>
+  <si>
+    <t>HfuAnalysisButton</t>
+  </si>
+  <si>
+    <t>FpaAnalysisButton</t>
+  </si>
+  <si>
+    <t>StressCorrectionButton</t>
+  </si>
+  <si>
+    <t>ClayBoundCorrectionButton</t>
+  </si>
+  <si>
+    <t>PoreSizeDistributionButton</t>
+  </si>
+  <si>
+    <t>DataTransformationButton</t>
+  </si>
+  <si>
+    <t>BuildPcModelButton</t>
+  </si>
+  <si>
+    <t>SaturationHeightFunctionButton</t>
+  </si>
+  <si>
+    <t>MachineLearningButton</t>
+  </si>
+  <si>
+    <t>RegressiontoolkitButton</t>
+  </si>
+  <si>
+    <t>ClassificationtoolkitButton</t>
+  </si>
+  <si>
+    <t>UnitBreakdownButton</t>
+  </si>
+  <si>
+    <t>ClExpertRulesButton</t>
+  </si>
+  <si>
+    <t>DataCorrectionDropdown</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,6 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,18 +2241,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M397"/>
+  <dimension ref="A1:M599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B398" sqref="B398"/>
+      <pane ySplit="2" topLeftCell="A565" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H588" sqref="H588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -17919,9 +18526,8301 @@
         <v>1</v>
       </c>
     </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D398" s="7">
+        <v>1</v>
+      </c>
+      <c r="E398" s="7">
+        <v>0</v>
+      </c>
+      <c r="F398" s="7">
+        <v>0</v>
+      </c>
+      <c r="G398" s="7">
+        <v>0</v>
+      </c>
+      <c r="H398" s="7">
+        <v>0</v>
+      </c>
+      <c r="I398" s="7">
+        <v>0</v>
+      </c>
+      <c r="J398" s="7">
+        <v>0</v>
+      </c>
+      <c r="K398" s="7">
+        <v>0</v>
+      </c>
+      <c r="L398" s="7">
+        <v>0</v>
+      </c>
+      <c r="M398" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D399" s="7">
+        <v>1</v>
+      </c>
+      <c r="E399" s="7">
+        <v>0</v>
+      </c>
+      <c r="F399" s="7">
+        <v>0</v>
+      </c>
+      <c r="G399" s="7">
+        <v>0</v>
+      </c>
+      <c r="H399" s="7">
+        <v>0</v>
+      </c>
+      <c r="I399" s="7">
+        <v>0</v>
+      </c>
+      <c r="J399" s="7">
+        <v>0</v>
+      </c>
+      <c r="K399" s="7">
+        <v>0</v>
+      </c>
+      <c r="L399" s="7">
+        <v>0</v>
+      </c>
+      <c r="M399" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D400" s="7">
+        <v>1</v>
+      </c>
+      <c r="E400" s="7">
+        <v>0</v>
+      </c>
+      <c r="F400" s="7">
+        <v>0</v>
+      </c>
+      <c r="G400" s="7">
+        <v>0</v>
+      </c>
+      <c r="H400" s="7">
+        <v>0</v>
+      </c>
+      <c r="I400" s="7">
+        <v>0</v>
+      </c>
+      <c r="J400" s="7">
+        <v>0</v>
+      </c>
+      <c r="K400" s="7">
+        <v>0</v>
+      </c>
+      <c r="L400" s="7">
+        <v>0</v>
+      </c>
+      <c r="M400" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D401" s="7">
+        <v>1</v>
+      </c>
+      <c r="E401" s="7">
+        <v>0</v>
+      </c>
+      <c r="F401" s="7">
+        <v>0</v>
+      </c>
+      <c r="G401" s="7">
+        <v>0</v>
+      </c>
+      <c r="H401" s="7">
+        <v>0</v>
+      </c>
+      <c r="I401" s="7">
+        <v>0</v>
+      </c>
+      <c r="J401" s="7">
+        <v>0</v>
+      </c>
+      <c r="K401" s="7">
+        <v>0</v>
+      </c>
+      <c r="L401" s="7">
+        <v>0</v>
+      </c>
+      <c r="M401" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D402" s="7">
+        <v>1</v>
+      </c>
+      <c r="E402" s="7">
+        <v>0</v>
+      </c>
+      <c r="F402" s="7">
+        <v>0</v>
+      </c>
+      <c r="G402" s="7">
+        <v>0</v>
+      </c>
+      <c r="H402" s="7">
+        <v>0</v>
+      </c>
+      <c r="I402" s="7">
+        <v>0</v>
+      </c>
+      <c r="J402" s="7">
+        <v>0</v>
+      </c>
+      <c r="K402" s="7">
+        <v>0</v>
+      </c>
+      <c r="L402" s="7">
+        <v>0</v>
+      </c>
+      <c r="M402" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D403" s="7">
+        <v>1</v>
+      </c>
+      <c r="E403" s="7">
+        <v>0</v>
+      </c>
+      <c r="F403" s="7">
+        <v>0</v>
+      </c>
+      <c r="G403" s="7">
+        <v>0</v>
+      </c>
+      <c r="H403" s="7">
+        <v>0</v>
+      </c>
+      <c r="I403" s="7">
+        <v>0</v>
+      </c>
+      <c r="J403" s="7">
+        <v>0</v>
+      </c>
+      <c r="K403" s="7">
+        <v>0</v>
+      </c>
+      <c r="L403" s="7">
+        <v>0</v>
+      </c>
+      <c r="M403" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D404" s="7">
+        <v>1</v>
+      </c>
+      <c r="E404" s="7">
+        <v>0</v>
+      </c>
+      <c r="F404" s="7">
+        <v>0</v>
+      </c>
+      <c r="G404" s="7">
+        <v>0</v>
+      </c>
+      <c r="H404" s="7">
+        <v>0</v>
+      </c>
+      <c r="I404" s="7">
+        <v>0</v>
+      </c>
+      <c r="J404" s="7">
+        <v>0</v>
+      </c>
+      <c r="K404" s="7">
+        <v>0</v>
+      </c>
+      <c r="L404" s="7">
+        <v>0</v>
+      </c>
+      <c r="M404" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D405" s="7">
+        <v>1</v>
+      </c>
+      <c r="E405" s="7">
+        <v>0</v>
+      </c>
+      <c r="F405" s="7">
+        <v>0</v>
+      </c>
+      <c r="G405" s="7">
+        <v>0</v>
+      </c>
+      <c r="H405" s="7">
+        <v>0</v>
+      </c>
+      <c r="I405" s="7">
+        <v>0</v>
+      </c>
+      <c r="J405" s="7">
+        <v>0</v>
+      </c>
+      <c r="K405" s="7">
+        <v>0</v>
+      </c>
+      <c r="L405" s="7">
+        <v>0</v>
+      </c>
+      <c r="M405" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D406" s="7">
+        <v>1</v>
+      </c>
+      <c r="E406" s="7">
+        <v>0</v>
+      </c>
+      <c r="F406" s="7">
+        <v>0</v>
+      </c>
+      <c r="G406" s="7">
+        <v>0</v>
+      </c>
+      <c r="H406" s="7">
+        <v>0</v>
+      </c>
+      <c r="I406" s="7">
+        <v>0</v>
+      </c>
+      <c r="J406" s="7">
+        <v>0</v>
+      </c>
+      <c r="K406" s="7">
+        <v>0</v>
+      </c>
+      <c r="L406" s="7">
+        <v>0</v>
+      </c>
+      <c r="M406" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D407" s="7">
+        <v>1</v>
+      </c>
+      <c r="E407" s="7">
+        <v>0</v>
+      </c>
+      <c r="F407" s="7">
+        <v>0</v>
+      </c>
+      <c r="G407" s="7">
+        <v>0</v>
+      </c>
+      <c r="H407" s="7">
+        <v>0</v>
+      </c>
+      <c r="I407" s="7">
+        <v>0</v>
+      </c>
+      <c r="J407" s="7">
+        <v>0</v>
+      </c>
+      <c r="K407" s="7">
+        <v>0</v>
+      </c>
+      <c r="L407" s="7">
+        <v>0</v>
+      </c>
+      <c r="M407" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D408" s="7">
+        <v>1</v>
+      </c>
+      <c r="E408" s="7">
+        <v>0</v>
+      </c>
+      <c r="F408" s="7">
+        <v>0</v>
+      </c>
+      <c r="G408" s="7">
+        <v>0</v>
+      </c>
+      <c r="H408" s="7">
+        <v>0</v>
+      </c>
+      <c r="I408" s="7">
+        <v>0</v>
+      </c>
+      <c r="J408" s="7">
+        <v>0</v>
+      </c>
+      <c r="K408" s="7">
+        <v>0</v>
+      </c>
+      <c r="L408" s="7">
+        <v>0</v>
+      </c>
+      <c r="M408" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D409" s="7">
+        <v>1</v>
+      </c>
+      <c r="E409" s="7">
+        <v>0</v>
+      </c>
+      <c r="F409" s="7">
+        <v>0</v>
+      </c>
+      <c r="G409" s="7">
+        <v>0</v>
+      </c>
+      <c r="H409" s="7">
+        <v>0</v>
+      </c>
+      <c r="I409" s="7">
+        <v>0</v>
+      </c>
+      <c r="J409" s="7">
+        <v>0</v>
+      </c>
+      <c r="K409" s="7">
+        <v>0</v>
+      </c>
+      <c r="L409" s="7">
+        <v>0</v>
+      </c>
+      <c r="M409" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D410" s="7">
+        <v>1</v>
+      </c>
+      <c r="E410" s="7">
+        <v>0</v>
+      </c>
+      <c r="F410" s="7">
+        <v>0</v>
+      </c>
+      <c r="G410" s="7">
+        <v>0</v>
+      </c>
+      <c r="H410" s="7">
+        <v>0</v>
+      </c>
+      <c r="I410" s="7">
+        <v>0</v>
+      </c>
+      <c r="J410" s="7">
+        <v>0</v>
+      </c>
+      <c r="K410" s="7">
+        <v>0</v>
+      </c>
+      <c r="L410" s="7">
+        <v>0</v>
+      </c>
+      <c r="M410" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D411" s="7">
+        <v>1</v>
+      </c>
+      <c r="E411" s="7">
+        <v>0</v>
+      </c>
+      <c r="F411" s="7">
+        <v>0</v>
+      </c>
+      <c r="G411" s="7">
+        <v>0</v>
+      </c>
+      <c r="H411" s="7">
+        <v>0</v>
+      </c>
+      <c r="I411" s="7">
+        <v>0</v>
+      </c>
+      <c r="J411" s="7">
+        <v>0</v>
+      </c>
+      <c r="K411" s="7">
+        <v>0</v>
+      </c>
+      <c r="L411" s="7">
+        <v>0</v>
+      </c>
+      <c r="M411" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D412" s="7">
+        <v>1</v>
+      </c>
+      <c r="E412" s="7">
+        <v>0</v>
+      </c>
+      <c r="F412" s="7">
+        <v>0</v>
+      </c>
+      <c r="G412" s="7">
+        <v>0</v>
+      </c>
+      <c r="H412" s="7">
+        <v>0</v>
+      </c>
+      <c r="I412" s="7">
+        <v>0</v>
+      </c>
+      <c r="J412" s="7">
+        <v>0</v>
+      </c>
+      <c r="K412" s="7">
+        <v>0</v>
+      </c>
+      <c r="L412" s="7">
+        <v>0</v>
+      </c>
+      <c r="M412" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D413" s="7">
+        <v>1</v>
+      </c>
+      <c r="E413" s="7">
+        <v>0</v>
+      </c>
+      <c r="F413" s="7">
+        <v>0</v>
+      </c>
+      <c r="G413" s="7">
+        <v>0</v>
+      </c>
+      <c r="H413" s="7">
+        <v>0</v>
+      </c>
+      <c r="I413" s="7">
+        <v>0</v>
+      </c>
+      <c r="J413" s="7">
+        <v>0</v>
+      </c>
+      <c r="K413" s="7">
+        <v>0</v>
+      </c>
+      <c r="L413" s="7">
+        <v>0</v>
+      </c>
+      <c r="M413" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D414" s="7">
+        <v>1</v>
+      </c>
+      <c r="E414" s="7">
+        <v>0</v>
+      </c>
+      <c r="F414" s="7">
+        <v>0</v>
+      </c>
+      <c r="G414" s="7">
+        <v>0</v>
+      </c>
+      <c r="H414" s="7">
+        <v>0</v>
+      </c>
+      <c r="I414" s="7">
+        <v>0</v>
+      </c>
+      <c r="J414" s="7">
+        <v>0</v>
+      </c>
+      <c r="K414" s="7">
+        <v>0</v>
+      </c>
+      <c r="L414" s="7">
+        <v>0</v>
+      </c>
+      <c r="M414" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D415" s="7">
+        <v>1</v>
+      </c>
+      <c r="E415" s="7">
+        <v>0</v>
+      </c>
+      <c r="F415" s="7">
+        <v>0</v>
+      </c>
+      <c r="G415" s="7">
+        <v>0</v>
+      </c>
+      <c r="H415" s="7">
+        <v>0</v>
+      </c>
+      <c r="I415" s="7">
+        <v>0</v>
+      </c>
+      <c r="J415" s="7">
+        <v>0</v>
+      </c>
+      <c r="K415" s="7">
+        <v>0</v>
+      </c>
+      <c r="L415" s="7">
+        <v>0</v>
+      </c>
+      <c r="M415" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D416" s="7">
+        <v>1</v>
+      </c>
+      <c r="E416" s="7">
+        <v>0</v>
+      </c>
+      <c r="F416" s="7">
+        <v>0</v>
+      </c>
+      <c r="G416" s="7">
+        <v>0</v>
+      </c>
+      <c r="H416" s="7">
+        <v>0</v>
+      </c>
+      <c r="I416" s="7">
+        <v>0</v>
+      </c>
+      <c r="J416" s="7">
+        <v>0</v>
+      </c>
+      <c r="K416" s="7">
+        <v>0</v>
+      </c>
+      <c r="L416" s="7">
+        <v>0</v>
+      </c>
+      <c r="M416" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D417" s="7">
+        <v>1</v>
+      </c>
+      <c r="E417" s="7">
+        <v>0</v>
+      </c>
+      <c r="F417" s="7">
+        <v>0</v>
+      </c>
+      <c r="G417" s="7">
+        <v>0</v>
+      </c>
+      <c r="H417" s="7">
+        <v>0</v>
+      </c>
+      <c r="I417" s="7">
+        <v>0</v>
+      </c>
+      <c r="J417" s="7">
+        <v>0</v>
+      </c>
+      <c r="K417" s="7">
+        <v>0</v>
+      </c>
+      <c r="L417" s="7">
+        <v>0</v>
+      </c>
+      <c r="M417" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D418" s="7">
+        <v>1</v>
+      </c>
+      <c r="E418" s="7">
+        <v>0</v>
+      </c>
+      <c r="F418" s="7">
+        <v>0</v>
+      </c>
+      <c r="G418" s="7">
+        <v>0</v>
+      </c>
+      <c r="H418" s="7">
+        <v>0</v>
+      </c>
+      <c r="I418" s="7">
+        <v>0</v>
+      </c>
+      <c r="J418" s="7">
+        <v>0</v>
+      </c>
+      <c r="K418" s="7">
+        <v>0</v>
+      </c>
+      <c r="L418" s="7">
+        <v>0</v>
+      </c>
+      <c r="M418" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D419" s="7">
+        <v>1</v>
+      </c>
+      <c r="E419" s="7">
+        <v>0</v>
+      </c>
+      <c r="F419" s="7">
+        <v>0</v>
+      </c>
+      <c r="G419" s="7">
+        <v>0</v>
+      </c>
+      <c r="H419" s="7">
+        <v>0</v>
+      </c>
+      <c r="I419" s="7">
+        <v>0</v>
+      </c>
+      <c r="J419" s="7">
+        <v>0</v>
+      </c>
+      <c r="K419" s="7">
+        <v>0</v>
+      </c>
+      <c r="L419" s="7">
+        <v>0</v>
+      </c>
+      <c r="M419" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D420" s="7">
+        <v>1</v>
+      </c>
+      <c r="E420" s="7">
+        <v>0</v>
+      </c>
+      <c r="F420" s="7">
+        <v>0</v>
+      </c>
+      <c r="G420" s="7">
+        <v>0</v>
+      </c>
+      <c r="H420" s="7">
+        <v>0</v>
+      </c>
+      <c r="I420" s="7">
+        <v>0</v>
+      </c>
+      <c r="J420" s="7">
+        <v>0</v>
+      </c>
+      <c r="K420" s="7">
+        <v>0</v>
+      </c>
+      <c r="L420" s="7">
+        <v>0</v>
+      </c>
+      <c r="M420" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D421" s="7">
+        <v>1</v>
+      </c>
+      <c r="E421" s="7">
+        <v>0</v>
+      </c>
+      <c r="F421" s="7">
+        <v>0</v>
+      </c>
+      <c r="G421" s="7">
+        <v>0</v>
+      </c>
+      <c r="H421" s="7">
+        <v>0</v>
+      </c>
+      <c r="I421" s="7">
+        <v>0</v>
+      </c>
+      <c r="J421" s="7">
+        <v>0</v>
+      </c>
+      <c r="K421" s="7">
+        <v>0</v>
+      </c>
+      <c r="L421" s="7">
+        <v>0</v>
+      </c>
+      <c r="M421" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D422" s="7">
+        <v>1</v>
+      </c>
+      <c r="E422" s="7">
+        <v>0</v>
+      </c>
+      <c r="F422" s="7">
+        <v>0</v>
+      </c>
+      <c r="G422" s="7">
+        <v>0</v>
+      </c>
+      <c r="H422" s="7">
+        <v>0</v>
+      </c>
+      <c r="I422" s="7">
+        <v>0</v>
+      </c>
+      <c r="J422" s="7">
+        <v>0</v>
+      </c>
+      <c r="K422" s="7">
+        <v>0</v>
+      </c>
+      <c r="L422" s="7">
+        <v>0</v>
+      </c>
+      <c r="M422" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D423" s="7">
+        <v>1</v>
+      </c>
+      <c r="E423" s="7">
+        <v>0</v>
+      </c>
+      <c r="F423" s="7">
+        <v>0</v>
+      </c>
+      <c r="G423" s="7">
+        <v>0</v>
+      </c>
+      <c r="H423" s="7">
+        <v>0</v>
+      </c>
+      <c r="I423" s="7">
+        <v>0</v>
+      </c>
+      <c r="J423" s="7">
+        <v>0</v>
+      </c>
+      <c r="K423" s="7">
+        <v>0</v>
+      </c>
+      <c r="L423" s="7">
+        <v>0</v>
+      </c>
+      <c r="M423" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D424" s="7">
+        <v>1</v>
+      </c>
+      <c r="E424" s="7">
+        <v>0</v>
+      </c>
+      <c r="F424" s="7">
+        <v>0</v>
+      </c>
+      <c r="G424" s="7">
+        <v>0</v>
+      </c>
+      <c r="H424" s="7">
+        <v>0</v>
+      </c>
+      <c r="I424" s="7">
+        <v>0</v>
+      </c>
+      <c r="J424" s="7">
+        <v>0</v>
+      </c>
+      <c r="K424" s="7">
+        <v>0</v>
+      </c>
+      <c r="L424" s="7">
+        <v>0</v>
+      </c>
+      <c r="M424" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D425" s="7">
+        <v>1</v>
+      </c>
+      <c r="E425" s="7">
+        <v>0</v>
+      </c>
+      <c r="F425" s="7">
+        <v>0</v>
+      </c>
+      <c r="G425" s="7">
+        <v>0</v>
+      </c>
+      <c r="H425" s="7">
+        <v>0</v>
+      </c>
+      <c r="I425" s="7">
+        <v>0</v>
+      </c>
+      <c r="J425" s="7">
+        <v>0</v>
+      </c>
+      <c r="K425" s="7">
+        <v>0</v>
+      </c>
+      <c r="L425" s="7">
+        <v>0</v>
+      </c>
+      <c r="M425" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D426" s="7">
+        <v>1</v>
+      </c>
+      <c r="E426" s="7">
+        <v>0</v>
+      </c>
+      <c r="F426" s="7">
+        <v>0</v>
+      </c>
+      <c r="G426" s="7">
+        <v>0</v>
+      </c>
+      <c r="H426" s="7">
+        <v>0</v>
+      </c>
+      <c r="I426" s="7">
+        <v>0</v>
+      </c>
+      <c r="J426" s="7">
+        <v>0</v>
+      </c>
+      <c r="K426" s="7">
+        <v>0</v>
+      </c>
+      <c r="L426" s="7">
+        <v>0</v>
+      </c>
+      <c r="M426" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D427" s="7">
+        <v>1</v>
+      </c>
+      <c r="E427" s="7">
+        <v>0</v>
+      </c>
+      <c r="F427" s="7">
+        <v>0</v>
+      </c>
+      <c r="G427" s="7">
+        <v>0</v>
+      </c>
+      <c r="H427" s="7">
+        <v>0</v>
+      </c>
+      <c r="I427" s="7">
+        <v>0</v>
+      </c>
+      <c r="J427" s="7">
+        <v>0</v>
+      </c>
+      <c r="K427" s="7">
+        <v>0</v>
+      </c>
+      <c r="L427" s="7">
+        <v>0</v>
+      </c>
+      <c r="M427" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D428" s="7">
+        <v>1</v>
+      </c>
+      <c r="E428" s="7">
+        <v>0</v>
+      </c>
+      <c r="F428" s="7">
+        <v>0</v>
+      </c>
+      <c r="G428" s="7">
+        <v>0</v>
+      </c>
+      <c r="H428" s="7">
+        <v>0</v>
+      </c>
+      <c r="I428" s="7">
+        <v>0</v>
+      </c>
+      <c r="J428" s="7">
+        <v>0</v>
+      </c>
+      <c r="K428" s="7">
+        <v>0</v>
+      </c>
+      <c r="L428" s="7">
+        <v>0</v>
+      </c>
+      <c r="M428" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D429" s="7">
+        <v>1</v>
+      </c>
+      <c r="E429" s="7">
+        <v>0</v>
+      </c>
+      <c r="F429" s="7">
+        <v>0</v>
+      </c>
+      <c r="G429" s="7">
+        <v>0</v>
+      </c>
+      <c r="H429" s="7">
+        <v>0</v>
+      </c>
+      <c r="I429" s="7">
+        <v>0</v>
+      </c>
+      <c r="J429" s="7">
+        <v>0</v>
+      </c>
+      <c r="K429" s="7">
+        <v>0</v>
+      </c>
+      <c r="L429" s="7">
+        <v>0</v>
+      </c>
+      <c r="M429" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D430" s="7">
+        <v>1</v>
+      </c>
+      <c r="E430" s="7">
+        <v>0</v>
+      </c>
+      <c r="F430" s="7">
+        <v>0</v>
+      </c>
+      <c r="G430" s="7">
+        <v>0</v>
+      </c>
+      <c r="H430" s="7">
+        <v>0</v>
+      </c>
+      <c r="I430" s="7">
+        <v>0</v>
+      </c>
+      <c r="J430" s="7">
+        <v>0</v>
+      </c>
+      <c r="K430" s="7">
+        <v>0</v>
+      </c>
+      <c r="L430" s="7">
+        <v>0</v>
+      </c>
+      <c r="M430" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D431" s="7">
+        <v>1</v>
+      </c>
+      <c r="E431" s="7">
+        <v>0</v>
+      </c>
+      <c r="F431" s="7">
+        <v>0</v>
+      </c>
+      <c r="G431" s="7">
+        <v>0</v>
+      </c>
+      <c r="H431" s="7">
+        <v>0</v>
+      </c>
+      <c r="I431" s="7">
+        <v>0</v>
+      </c>
+      <c r="J431" s="7">
+        <v>0</v>
+      </c>
+      <c r="K431" s="7">
+        <v>0</v>
+      </c>
+      <c r="L431" s="7">
+        <v>0</v>
+      </c>
+      <c r="M431" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D432" s="7">
+        <v>1</v>
+      </c>
+      <c r="E432" s="7">
+        <v>0</v>
+      </c>
+      <c r="F432" s="7">
+        <v>0</v>
+      </c>
+      <c r="G432" s="7">
+        <v>0</v>
+      </c>
+      <c r="H432" s="7">
+        <v>0</v>
+      </c>
+      <c r="I432" s="7">
+        <v>0</v>
+      </c>
+      <c r="J432" s="7">
+        <v>0</v>
+      </c>
+      <c r="K432" s="7">
+        <v>0</v>
+      </c>
+      <c r="L432" s="7">
+        <v>0</v>
+      </c>
+      <c r="M432" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D433" s="7">
+        <v>1</v>
+      </c>
+      <c r="E433" s="7">
+        <v>0</v>
+      </c>
+      <c r="F433" s="7">
+        <v>0</v>
+      </c>
+      <c r="G433" s="7">
+        <v>0</v>
+      </c>
+      <c r="H433" s="7">
+        <v>0</v>
+      </c>
+      <c r="I433" s="7">
+        <v>0</v>
+      </c>
+      <c r="J433" s="7">
+        <v>0</v>
+      </c>
+      <c r="K433" s="7">
+        <v>0</v>
+      </c>
+      <c r="L433" s="7">
+        <v>0</v>
+      </c>
+      <c r="M433" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D434" s="7">
+        <v>1</v>
+      </c>
+      <c r="E434" s="7">
+        <v>0</v>
+      </c>
+      <c r="F434" s="7">
+        <v>0</v>
+      </c>
+      <c r="G434" s="7">
+        <v>0</v>
+      </c>
+      <c r="H434" s="7">
+        <v>0</v>
+      </c>
+      <c r="I434" s="7">
+        <v>0</v>
+      </c>
+      <c r="J434" s="7">
+        <v>0</v>
+      </c>
+      <c r="K434" s="7">
+        <v>0</v>
+      </c>
+      <c r="L434" s="7">
+        <v>0</v>
+      </c>
+      <c r="M434" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D435" s="7">
+        <v>1</v>
+      </c>
+      <c r="E435" s="7">
+        <v>0</v>
+      </c>
+      <c r="F435" s="7">
+        <v>0</v>
+      </c>
+      <c r="G435" s="7">
+        <v>0</v>
+      </c>
+      <c r="H435" s="7">
+        <v>0</v>
+      </c>
+      <c r="I435" s="7">
+        <v>0</v>
+      </c>
+      <c r="J435" s="7">
+        <v>0</v>
+      </c>
+      <c r="K435" s="7">
+        <v>0</v>
+      </c>
+      <c r="L435" s="7">
+        <v>0</v>
+      </c>
+      <c r="M435" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D436" s="7">
+        <v>1</v>
+      </c>
+      <c r="E436" s="7">
+        <v>0</v>
+      </c>
+      <c r="F436" s="7">
+        <v>0</v>
+      </c>
+      <c r="G436" s="7">
+        <v>0</v>
+      </c>
+      <c r="H436" s="7">
+        <v>0</v>
+      </c>
+      <c r="I436" s="7">
+        <v>0</v>
+      </c>
+      <c r="J436" s="7">
+        <v>0</v>
+      </c>
+      <c r="K436" s="7">
+        <v>0</v>
+      </c>
+      <c r="L436" s="7">
+        <v>0</v>
+      </c>
+      <c r="M436" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D437" s="7">
+        <v>1</v>
+      </c>
+      <c r="E437" s="7">
+        <v>0</v>
+      </c>
+      <c r="F437" s="7">
+        <v>0</v>
+      </c>
+      <c r="G437" s="7">
+        <v>0</v>
+      </c>
+      <c r="H437" s="7">
+        <v>0</v>
+      </c>
+      <c r="I437" s="7">
+        <v>0</v>
+      </c>
+      <c r="J437" s="7">
+        <v>0</v>
+      </c>
+      <c r="K437" s="7">
+        <v>0</v>
+      </c>
+      <c r="L437" s="7">
+        <v>0</v>
+      </c>
+      <c r="M437" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D438" s="7">
+        <v>1</v>
+      </c>
+      <c r="E438" s="7">
+        <v>0</v>
+      </c>
+      <c r="F438" s="7">
+        <v>0</v>
+      </c>
+      <c r="G438" s="7">
+        <v>0</v>
+      </c>
+      <c r="H438" s="7">
+        <v>0</v>
+      </c>
+      <c r="I438" s="7">
+        <v>0</v>
+      </c>
+      <c r="J438" s="7">
+        <v>0</v>
+      </c>
+      <c r="K438" s="7">
+        <v>0</v>
+      </c>
+      <c r="L438" s="7">
+        <v>0</v>
+      </c>
+      <c r="M438" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D439" s="7">
+        <v>1</v>
+      </c>
+      <c r="E439" s="7">
+        <v>0</v>
+      </c>
+      <c r="F439" s="7">
+        <v>0</v>
+      </c>
+      <c r="G439" s="7">
+        <v>0</v>
+      </c>
+      <c r="H439" s="7">
+        <v>0</v>
+      </c>
+      <c r="I439" s="7">
+        <v>0</v>
+      </c>
+      <c r="J439" s="7">
+        <v>0</v>
+      </c>
+      <c r="K439" s="7">
+        <v>0</v>
+      </c>
+      <c r="L439" s="7">
+        <v>0</v>
+      </c>
+      <c r="M439" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D440" s="7">
+        <v>1</v>
+      </c>
+      <c r="E440" s="7">
+        <v>0</v>
+      </c>
+      <c r="F440" s="7">
+        <v>0</v>
+      </c>
+      <c r="G440" s="7">
+        <v>0</v>
+      </c>
+      <c r="H440" s="7">
+        <v>0</v>
+      </c>
+      <c r="I440" s="7">
+        <v>0</v>
+      </c>
+      <c r="J440" s="7">
+        <v>0</v>
+      </c>
+      <c r="K440" s="7">
+        <v>0</v>
+      </c>
+      <c r="L440" s="7">
+        <v>0</v>
+      </c>
+      <c r="M440" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D441" s="7">
+        <v>1</v>
+      </c>
+      <c r="E441" s="7">
+        <v>0</v>
+      </c>
+      <c r="F441" s="7">
+        <v>0</v>
+      </c>
+      <c r="G441" s="7">
+        <v>0</v>
+      </c>
+      <c r="H441" s="7">
+        <v>0</v>
+      </c>
+      <c r="I441" s="7">
+        <v>0</v>
+      </c>
+      <c r="J441" s="7">
+        <v>0</v>
+      </c>
+      <c r="K441" s="7">
+        <v>0</v>
+      </c>
+      <c r="L441" s="7">
+        <v>0</v>
+      </c>
+      <c r="M441" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D442" s="7">
+        <v>1</v>
+      </c>
+      <c r="E442" s="7">
+        <v>0</v>
+      </c>
+      <c r="F442" s="7">
+        <v>0</v>
+      </c>
+      <c r="G442" s="7">
+        <v>0</v>
+      </c>
+      <c r="H442" s="7">
+        <v>0</v>
+      </c>
+      <c r="I442" s="7">
+        <v>0</v>
+      </c>
+      <c r="J442" s="7">
+        <v>0</v>
+      </c>
+      <c r="K442" s="7">
+        <v>0</v>
+      </c>
+      <c r="L442" s="7">
+        <v>0</v>
+      </c>
+      <c r="M442" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D443" s="7">
+        <v>1</v>
+      </c>
+      <c r="E443" s="7">
+        <v>0</v>
+      </c>
+      <c r="F443" s="7">
+        <v>0</v>
+      </c>
+      <c r="G443" s="7">
+        <v>0</v>
+      </c>
+      <c r="H443" s="7">
+        <v>0</v>
+      </c>
+      <c r="I443" s="7">
+        <v>0</v>
+      </c>
+      <c r="J443" s="7">
+        <v>0</v>
+      </c>
+      <c r="K443" s="7">
+        <v>0</v>
+      </c>
+      <c r="L443" s="7">
+        <v>0</v>
+      </c>
+      <c r="M443" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D444" s="7">
+        <v>1</v>
+      </c>
+      <c r="E444" s="7">
+        <v>0</v>
+      </c>
+      <c r="F444" s="7">
+        <v>0</v>
+      </c>
+      <c r="G444" s="7">
+        <v>0</v>
+      </c>
+      <c r="H444" s="7">
+        <v>0</v>
+      </c>
+      <c r="I444" s="7">
+        <v>0</v>
+      </c>
+      <c r="J444" s="7">
+        <v>0</v>
+      </c>
+      <c r="K444" s="7">
+        <v>0</v>
+      </c>
+      <c r="L444" s="7">
+        <v>0</v>
+      </c>
+      <c r="M444" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D445" s="7">
+        <v>1</v>
+      </c>
+      <c r="E445" s="7">
+        <v>0</v>
+      </c>
+      <c r="F445" s="7">
+        <v>0</v>
+      </c>
+      <c r="G445" s="7">
+        <v>0</v>
+      </c>
+      <c r="H445" s="7">
+        <v>0</v>
+      </c>
+      <c r="I445" s="7">
+        <v>0</v>
+      </c>
+      <c r="J445" s="7">
+        <v>0</v>
+      </c>
+      <c r="K445" s="7">
+        <v>0</v>
+      </c>
+      <c r="L445" s="7">
+        <v>0</v>
+      </c>
+      <c r="M445" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D446" s="7">
+        <v>1</v>
+      </c>
+      <c r="E446" s="7">
+        <v>0</v>
+      </c>
+      <c r="F446" s="7">
+        <v>0</v>
+      </c>
+      <c r="G446" s="7">
+        <v>0</v>
+      </c>
+      <c r="H446" s="7">
+        <v>0</v>
+      </c>
+      <c r="I446" s="7">
+        <v>0</v>
+      </c>
+      <c r="J446" s="7">
+        <v>0</v>
+      </c>
+      <c r="K446" s="7">
+        <v>0</v>
+      </c>
+      <c r="L446" s="7">
+        <v>0</v>
+      </c>
+      <c r="M446" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D447" s="7">
+        <v>1</v>
+      </c>
+      <c r="E447" s="7">
+        <v>0</v>
+      </c>
+      <c r="F447" s="7">
+        <v>0</v>
+      </c>
+      <c r="G447" s="7">
+        <v>0</v>
+      </c>
+      <c r="H447" s="7">
+        <v>0</v>
+      </c>
+      <c r="I447" s="7">
+        <v>0</v>
+      </c>
+      <c r="J447" s="7">
+        <v>0</v>
+      </c>
+      <c r="K447" s="7">
+        <v>0</v>
+      </c>
+      <c r="L447" s="7">
+        <v>0</v>
+      </c>
+      <c r="M447" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D448" s="7">
+        <v>1</v>
+      </c>
+      <c r="E448" s="7">
+        <v>0</v>
+      </c>
+      <c r="F448" s="7">
+        <v>0</v>
+      </c>
+      <c r="G448" s="7">
+        <v>0</v>
+      </c>
+      <c r="H448" s="7">
+        <v>0</v>
+      </c>
+      <c r="I448" s="7">
+        <v>0</v>
+      </c>
+      <c r="J448" s="7">
+        <v>0</v>
+      </c>
+      <c r="K448" s="7">
+        <v>0</v>
+      </c>
+      <c r="L448" s="7">
+        <v>0</v>
+      </c>
+      <c r="M448" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D449" s="7">
+        <v>1</v>
+      </c>
+      <c r="E449" s="7">
+        <v>0</v>
+      </c>
+      <c r="F449" s="7">
+        <v>0</v>
+      </c>
+      <c r="G449" s="7">
+        <v>0</v>
+      </c>
+      <c r="H449" s="7">
+        <v>0</v>
+      </c>
+      <c r="I449" s="7">
+        <v>0</v>
+      </c>
+      <c r="J449" s="7">
+        <v>0</v>
+      </c>
+      <c r="K449" s="7">
+        <v>0</v>
+      </c>
+      <c r="L449" s="7">
+        <v>0</v>
+      </c>
+      <c r="M449" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D450" s="7">
+        <v>1</v>
+      </c>
+      <c r="E450" s="7">
+        <v>0</v>
+      </c>
+      <c r="F450" s="7">
+        <v>0</v>
+      </c>
+      <c r="G450" s="7">
+        <v>0</v>
+      </c>
+      <c r="H450" s="7">
+        <v>0</v>
+      </c>
+      <c r="I450" s="7">
+        <v>0</v>
+      </c>
+      <c r="J450" s="7">
+        <v>0</v>
+      </c>
+      <c r="K450" s="7">
+        <v>0</v>
+      </c>
+      <c r="L450" s="7">
+        <v>0</v>
+      </c>
+      <c r="M450" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D451" s="7">
+        <v>1</v>
+      </c>
+      <c r="E451" s="7">
+        <v>0</v>
+      </c>
+      <c r="F451" s="7">
+        <v>0</v>
+      </c>
+      <c r="G451" s="7">
+        <v>0</v>
+      </c>
+      <c r="H451" s="7">
+        <v>0</v>
+      </c>
+      <c r="I451" s="7">
+        <v>0</v>
+      </c>
+      <c r="J451" s="7">
+        <v>0</v>
+      </c>
+      <c r="K451" s="7">
+        <v>0</v>
+      </c>
+      <c r="L451" s="7">
+        <v>0</v>
+      </c>
+      <c r="M451" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D452" s="7">
+        <v>1</v>
+      </c>
+      <c r="E452" s="7">
+        <v>0</v>
+      </c>
+      <c r="F452" s="7">
+        <v>0</v>
+      </c>
+      <c r="G452" s="7">
+        <v>0</v>
+      </c>
+      <c r="H452" s="7">
+        <v>0</v>
+      </c>
+      <c r="I452" s="7">
+        <v>0</v>
+      </c>
+      <c r="J452" s="7">
+        <v>0</v>
+      </c>
+      <c r="K452" s="7">
+        <v>0</v>
+      </c>
+      <c r="L452" s="7">
+        <v>0</v>
+      </c>
+      <c r="M452" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D453" s="7">
+        <v>1</v>
+      </c>
+      <c r="E453" s="7">
+        <v>0</v>
+      </c>
+      <c r="F453" s="7">
+        <v>0</v>
+      </c>
+      <c r="G453" s="7">
+        <v>0</v>
+      </c>
+      <c r="H453" s="7">
+        <v>0</v>
+      </c>
+      <c r="I453" s="7">
+        <v>0</v>
+      </c>
+      <c r="J453" s="7">
+        <v>0</v>
+      </c>
+      <c r="K453" s="7">
+        <v>0</v>
+      </c>
+      <c r="L453" s="7">
+        <v>0</v>
+      </c>
+      <c r="M453" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D454" s="7">
+        <v>1</v>
+      </c>
+      <c r="E454" s="7">
+        <v>0</v>
+      </c>
+      <c r="F454" s="7">
+        <v>0</v>
+      </c>
+      <c r="G454" s="7">
+        <v>0</v>
+      </c>
+      <c r="H454" s="7">
+        <v>0</v>
+      </c>
+      <c r="I454" s="7">
+        <v>0</v>
+      </c>
+      <c r="J454" s="7">
+        <v>0</v>
+      </c>
+      <c r="K454" s="7">
+        <v>0</v>
+      </c>
+      <c r="L454" s="7">
+        <v>0</v>
+      </c>
+      <c r="M454" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D455" s="7">
+        <v>1</v>
+      </c>
+      <c r="E455" s="7">
+        <v>0</v>
+      </c>
+      <c r="F455" s="7">
+        <v>0</v>
+      </c>
+      <c r="G455" s="7">
+        <v>0</v>
+      </c>
+      <c r="H455" s="7">
+        <v>0</v>
+      </c>
+      <c r="I455" s="7">
+        <v>0</v>
+      </c>
+      <c r="J455" s="7">
+        <v>0</v>
+      </c>
+      <c r="K455" s="7">
+        <v>0</v>
+      </c>
+      <c r="L455" s="7">
+        <v>0</v>
+      </c>
+      <c r="M455" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D456" s="7">
+        <v>1</v>
+      </c>
+      <c r="E456" s="7">
+        <v>0</v>
+      </c>
+      <c r="F456" s="7">
+        <v>0</v>
+      </c>
+      <c r="G456" s="7">
+        <v>0</v>
+      </c>
+      <c r="H456" s="7">
+        <v>0</v>
+      </c>
+      <c r="I456" s="7">
+        <v>0</v>
+      </c>
+      <c r="J456" s="7">
+        <v>0</v>
+      </c>
+      <c r="K456" s="7">
+        <v>0</v>
+      </c>
+      <c r="L456" s="7">
+        <v>0</v>
+      </c>
+      <c r="M456" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D457" s="7">
+        <v>1</v>
+      </c>
+      <c r="E457" s="7">
+        <v>0</v>
+      </c>
+      <c r="F457" s="7">
+        <v>0</v>
+      </c>
+      <c r="G457" s="7">
+        <v>0</v>
+      </c>
+      <c r="H457" s="7">
+        <v>0</v>
+      </c>
+      <c r="I457" s="7">
+        <v>0</v>
+      </c>
+      <c r="J457" s="7">
+        <v>0</v>
+      </c>
+      <c r="K457" s="7">
+        <v>0</v>
+      </c>
+      <c r="L457" s="7">
+        <v>0</v>
+      </c>
+      <c r="M457" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D458" s="7">
+        <v>1</v>
+      </c>
+      <c r="E458" s="7">
+        <v>0</v>
+      </c>
+      <c r="F458" s="7">
+        <v>0</v>
+      </c>
+      <c r="G458" s="7">
+        <v>0</v>
+      </c>
+      <c r="H458" s="7">
+        <v>0</v>
+      </c>
+      <c r="I458" s="7">
+        <v>0</v>
+      </c>
+      <c r="J458" s="7">
+        <v>0</v>
+      </c>
+      <c r="K458" s="7">
+        <v>0</v>
+      </c>
+      <c r="L458" s="7">
+        <v>0</v>
+      </c>
+      <c r="M458" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D459" s="7">
+        <v>1</v>
+      </c>
+      <c r="E459" s="7">
+        <v>0</v>
+      </c>
+      <c r="F459" s="7">
+        <v>0</v>
+      </c>
+      <c r="G459" s="7">
+        <v>0</v>
+      </c>
+      <c r="H459" s="7">
+        <v>0</v>
+      </c>
+      <c r="I459" s="7">
+        <v>0</v>
+      </c>
+      <c r="J459" s="7">
+        <v>0</v>
+      </c>
+      <c r="K459" s="7">
+        <v>0</v>
+      </c>
+      <c r="L459" s="7">
+        <v>0</v>
+      </c>
+      <c r="M459" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D460" s="7">
+        <v>1</v>
+      </c>
+      <c r="E460" s="7">
+        <v>0</v>
+      </c>
+      <c r="F460" s="7">
+        <v>0</v>
+      </c>
+      <c r="G460" s="7">
+        <v>0</v>
+      </c>
+      <c r="H460" s="7">
+        <v>0</v>
+      </c>
+      <c r="I460" s="7">
+        <v>0</v>
+      </c>
+      <c r="J460" s="7">
+        <v>0</v>
+      </c>
+      <c r="K460" s="7">
+        <v>0</v>
+      </c>
+      <c r="L460" s="7">
+        <v>0</v>
+      </c>
+      <c r="M460" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D461" s="7">
+        <v>1</v>
+      </c>
+      <c r="E461" s="7">
+        <v>0</v>
+      </c>
+      <c r="F461" s="7">
+        <v>0</v>
+      </c>
+      <c r="G461" s="7">
+        <v>0</v>
+      </c>
+      <c r="H461" s="7">
+        <v>0</v>
+      </c>
+      <c r="I461" s="7">
+        <v>0</v>
+      </c>
+      <c r="J461" s="7">
+        <v>0</v>
+      </c>
+      <c r="K461" s="7">
+        <v>0</v>
+      </c>
+      <c r="L461" s="7">
+        <v>0</v>
+      </c>
+      <c r="M461" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D462" s="7">
+        <v>1</v>
+      </c>
+      <c r="E462" s="7">
+        <v>0</v>
+      </c>
+      <c r="F462" s="7">
+        <v>0</v>
+      </c>
+      <c r="G462" s="7">
+        <v>0</v>
+      </c>
+      <c r="H462" s="7">
+        <v>0</v>
+      </c>
+      <c r="I462" s="7">
+        <v>0</v>
+      </c>
+      <c r="J462" s="7">
+        <v>0</v>
+      </c>
+      <c r="K462" s="7">
+        <v>0</v>
+      </c>
+      <c r="L462" s="7">
+        <v>0</v>
+      </c>
+      <c r="M462" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D463" s="7">
+        <v>1</v>
+      </c>
+      <c r="E463" s="7">
+        <v>0</v>
+      </c>
+      <c r="F463" s="7">
+        <v>0</v>
+      </c>
+      <c r="G463" s="7">
+        <v>0</v>
+      </c>
+      <c r="H463" s="7">
+        <v>0</v>
+      </c>
+      <c r="I463" s="7">
+        <v>0</v>
+      </c>
+      <c r="J463" s="7">
+        <v>0</v>
+      </c>
+      <c r="K463" s="7">
+        <v>0</v>
+      </c>
+      <c r="L463" s="7">
+        <v>0</v>
+      </c>
+      <c r="M463" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D464" s="7">
+        <v>1</v>
+      </c>
+      <c r="E464" s="7">
+        <v>0</v>
+      </c>
+      <c r="F464" s="7">
+        <v>0</v>
+      </c>
+      <c r="G464" s="7">
+        <v>0</v>
+      </c>
+      <c r="H464" s="7">
+        <v>0</v>
+      </c>
+      <c r="I464" s="7">
+        <v>0</v>
+      </c>
+      <c r="J464" s="7">
+        <v>0</v>
+      </c>
+      <c r="K464" s="7">
+        <v>0</v>
+      </c>
+      <c r="L464" s="7">
+        <v>0</v>
+      </c>
+      <c r="M464" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D465" s="7">
+        <v>1</v>
+      </c>
+      <c r="E465" s="7">
+        <v>0</v>
+      </c>
+      <c r="F465" s="7">
+        <v>0</v>
+      </c>
+      <c r="G465" s="7">
+        <v>0</v>
+      </c>
+      <c r="H465" s="7">
+        <v>0</v>
+      </c>
+      <c r="I465" s="7">
+        <v>0</v>
+      </c>
+      <c r="J465" s="7">
+        <v>0</v>
+      </c>
+      <c r="K465" s="7">
+        <v>0</v>
+      </c>
+      <c r="L465" s="7">
+        <v>0</v>
+      </c>
+      <c r="M465" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D466" s="7">
+        <v>1</v>
+      </c>
+      <c r="E466" s="7">
+        <v>0</v>
+      </c>
+      <c r="F466" s="7">
+        <v>0</v>
+      </c>
+      <c r="G466" s="7">
+        <v>0</v>
+      </c>
+      <c r="H466" s="7">
+        <v>0</v>
+      </c>
+      <c r="I466" s="7">
+        <v>0</v>
+      </c>
+      <c r="J466" s="7">
+        <v>0</v>
+      </c>
+      <c r="K466" s="7">
+        <v>0</v>
+      </c>
+      <c r="L466" s="7">
+        <v>0</v>
+      </c>
+      <c r="M466" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D467" s="7">
+        <v>1</v>
+      </c>
+      <c r="E467" s="7">
+        <v>0</v>
+      </c>
+      <c r="F467" s="7">
+        <v>0</v>
+      </c>
+      <c r="G467" s="7">
+        <v>0</v>
+      </c>
+      <c r="H467" s="7">
+        <v>0</v>
+      </c>
+      <c r="I467" s="7">
+        <v>0</v>
+      </c>
+      <c r="J467" s="7">
+        <v>0</v>
+      </c>
+      <c r="K467" s="7">
+        <v>0</v>
+      </c>
+      <c r="L467" s="7">
+        <v>0</v>
+      </c>
+      <c r="M467" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D468" s="7">
+        <v>1</v>
+      </c>
+      <c r="E468" s="7">
+        <v>0</v>
+      </c>
+      <c r="F468" s="7">
+        <v>0</v>
+      </c>
+      <c r="G468" s="7">
+        <v>0</v>
+      </c>
+      <c r="H468" s="7">
+        <v>0</v>
+      </c>
+      <c r="I468" s="7">
+        <v>0</v>
+      </c>
+      <c r="J468" s="7">
+        <v>0</v>
+      </c>
+      <c r="K468" s="7">
+        <v>0</v>
+      </c>
+      <c r="L468" s="7">
+        <v>0</v>
+      </c>
+      <c r="M468" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D469" s="7">
+        <v>1</v>
+      </c>
+      <c r="E469" s="7">
+        <v>0</v>
+      </c>
+      <c r="F469" s="7">
+        <v>0</v>
+      </c>
+      <c r="G469" s="7">
+        <v>0</v>
+      </c>
+      <c r="H469" s="7">
+        <v>0</v>
+      </c>
+      <c r="I469" s="7">
+        <v>0</v>
+      </c>
+      <c r="J469" s="7">
+        <v>0</v>
+      </c>
+      <c r="K469" s="7">
+        <v>0</v>
+      </c>
+      <c r="L469" s="7">
+        <v>0</v>
+      </c>
+      <c r="M469" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D470" s="7">
+        <v>1</v>
+      </c>
+      <c r="E470" s="7">
+        <v>0</v>
+      </c>
+      <c r="F470" s="7">
+        <v>0</v>
+      </c>
+      <c r="G470" s="7">
+        <v>0</v>
+      </c>
+      <c r="H470" s="7">
+        <v>0</v>
+      </c>
+      <c r="I470" s="7">
+        <v>0</v>
+      </c>
+      <c r="J470" s="7">
+        <v>0</v>
+      </c>
+      <c r="K470" s="7">
+        <v>0</v>
+      </c>
+      <c r="L470" s="7">
+        <v>0</v>
+      </c>
+      <c r="M470" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D471" s="7">
+        <v>1</v>
+      </c>
+      <c r="E471" s="7">
+        <v>0</v>
+      </c>
+      <c r="F471" s="7">
+        <v>0</v>
+      </c>
+      <c r="G471" s="7">
+        <v>0</v>
+      </c>
+      <c r="H471" s="7">
+        <v>0</v>
+      </c>
+      <c r="I471" s="7">
+        <v>0</v>
+      </c>
+      <c r="J471" s="7">
+        <v>0</v>
+      </c>
+      <c r="K471" s="7">
+        <v>0</v>
+      </c>
+      <c r="L471" s="7">
+        <v>0</v>
+      </c>
+      <c r="M471" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D472" s="7">
+        <v>1</v>
+      </c>
+      <c r="E472" s="7">
+        <v>0</v>
+      </c>
+      <c r="F472" s="7">
+        <v>0</v>
+      </c>
+      <c r="G472" s="7">
+        <v>0</v>
+      </c>
+      <c r="H472" s="7">
+        <v>0</v>
+      </c>
+      <c r="I472" s="7">
+        <v>0</v>
+      </c>
+      <c r="J472" s="7">
+        <v>0</v>
+      </c>
+      <c r="K472" s="7">
+        <v>0</v>
+      </c>
+      <c r="L472" s="7">
+        <v>0</v>
+      </c>
+      <c r="M472" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D473" s="7">
+        <v>1</v>
+      </c>
+      <c r="E473" s="7">
+        <v>0</v>
+      </c>
+      <c r="F473" s="7">
+        <v>0</v>
+      </c>
+      <c r="G473" s="7">
+        <v>0</v>
+      </c>
+      <c r="H473" s="7">
+        <v>0</v>
+      </c>
+      <c r="I473" s="7">
+        <v>0</v>
+      </c>
+      <c r="J473" s="7">
+        <v>0</v>
+      </c>
+      <c r="K473" s="7">
+        <v>0</v>
+      </c>
+      <c r="L473" s="7">
+        <v>0</v>
+      </c>
+      <c r="M473" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D474" s="7">
+        <v>0</v>
+      </c>
+      <c r="E474" s="7">
+        <v>0</v>
+      </c>
+      <c r="F474" s="7">
+        <v>0</v>
+      </c>
+      <c r="G474" s="7">
+        <v>1</v>
+      </c>
+      <c r="H474" s="7">
+        <v>0</v>
+      </c>
+      <c r="I474" s="7">
+        <v>0</v>
+      </c>
+      <c r="J474" s="7">
+        <v>0</v>
+      </c>
+      <c r="K474" s="7">
+        <v>0</v>
+      </c>
+      <c r="L474" s="7">
+        <v>0</v>
+      </c>
+      <c r="M474" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D475" s="7">
+        <v>0</v>
+      </c>
+      <c r="E475" s="7">
+        <v>0</v>
+      </c>
+      <c r="F475" s="7">
+        <v>0</v>
+      </c>
+      <c r="G475" s="7">
+        <v>1</v>
+      </c>
+      <c r="H475" s="7">
+        <v>0</v>
+      </c>
+      <c r="I475" s="7">
+        <v>0</v>
+      </c>
+      <c r="J475" s="7">
+        <v>0</v>
+      </c>
+      <c r="K475" s="7">
+        <v>0</v>
+      </c>
+      <c r="L475" s="7">
+        <v>0</v>
+      </c>
+      <c r="M475" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D476" s="7">
+        <v>0</v>
+      </c>
+      <c r="E476" s="7">
+        <v>0</v>
+      </c>
+      <c r="F476" s="7">
+        <v>0</v>
+      </c>
+      <c r="G476" s="7">
+        <v>1</v>
+      </c>
+      <c r="H476" s="7">
+        <v>0</v>
+      </c>
+      <c r="I476" s="7">
+        <v>0</v>
+      </c>
+      <c r="J476" s="7">
+        <v>0</v>
+      </c>
+      <c r="K476" s="7">
+        <v>0</v>
+      </c>
+      <c r="L476" s="7">
+        <v>0</v>
+      </c>
+      <c r="M476" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D477" s="7">
+        <v>0</v>
+      </c>
+      <c r="E477" s="7">
+        <v>0</v>
+      </c>
+      <c r="F477" s="7">
+        <v>0</v>
+      </c>
+      <c r="G477" s="7">
+        <v>1</v>
+      </c>
+      <c r="H477" s="7">
+        <v>0</v>
+      </c>
+      <c r="I477" s="7">
+        <v>0</v>
+      </c>
+      <c r="J477" s="7">
+        <v>0</v>
+      </c>
+      <c r="K477" s="7">
+        <v>0</v>
+      </c>
+      <c r="L477" s="7">
+        <v>0</v>
+      </c>
+      <c r="M477" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D478" s="7">
+        <v>0</v>
+      </c>
+      <c r="E478" s="7">
+        <v>0</v>
+      </c>
+      <c r="F478" s="7">
+        <v>0</v>
+      </c>
+      <c r="G478" s="7">
+        <v>1</v>
+      </c>
+      <c r="H478" s="7">
+        <v>0</v>
+      </c>
+      <c r="I478" s="7">
+        <v>0</v>
+      </c>
+      <c r="J478" s="7">
+        <v>0</v>
+      </c>
+      <c r="K478" s="7">
+        <v>0</v>
+      </c>
+      <c r="L478" s="7">
+        <v>0</v>
+      </c>
+      <c r="M478" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D479" s="7">
+        <v>0</v>
+      </c>
+      <c r="E479" s="7">
+        <v>0</v>
+      </c>
+      <c r="F479" s="7">
+        <v>0</v>
+      </c>
+      <c r="G479" s="7">
+        <v>1</v>
+      </c>
+      <c r="H479" s="7">
+        <v>0</v>
+      </c>
+      <c r="I479" s="7">
+        <v>0</v>
+      </c>
+      <c r="J479" s="7">
+        <v>0</v>
+      </c>
+      <c r="K479" s="7">
+        <v>0</v>
+      </c>
+      <c r="L479" s="7">
+        <v>0</v>
+      </c>
+      <c r="M479" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D480" s="7">
+        <v>0</v>
+      </c>
+      <c r="E480" s="7">
+        <v>0</v>
+      </c>
+      <c r="F480" s="7">
+        <v>0</v>
+      </c>
+      <c r="G480" s="7">
+        <v>1</v>
+      </c>
+      <c r="H480" s="7">
+        <v>0</v>
+      </c>
+      <c r="I480" s="7">
+        <v>0</v>
+      </c>
+      <c r="J480" s="7">
+        <v>0</v>
+      </c>
+      <c r="K480" s="7">
+        <v>0</v>
+      </c>
+      <c r="L480" s="7">
+        <v>0</v>
+      </c>
+      <c r="M480" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D481" s="7">
+        <v>0</v>
+      </c>
+      <c r="E481" s="7">
+        <v>0</v>
+      </c>
+      <c r="F481" s="7">
+        <v>0</v>
+      </c>
+      <c r="G481" s="7">
+        <v>1</v>
+      </c>
+      <c r="H481" s="7">
+        <v>0</v>
+      </c>
+      <c r="I481" s="7">
+        <v>0</v>
+      </c>
+      <c r="J481" s="7">
+        <v>0</v>
+      </c>
+      <c r="K481" s="7">
+        <v>0</v>
+      </c>
+      <c r="L481" s="7">
+        <v>0</v>
+      </c>
+      <c r="M481" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D482" s="7">
+        <v>0</v>
+      </c>
+      <c r="E482" s="7">
+        <v>0</v>
+      </c>
+      <c r="F482" s="7">
+        <v>0</v>
+      </c>
+      <c r="G482" s="7">
+        <v>1</v>
+      </c>
+      <c r="H482" s="7">
+        <v>0</v>
+      </c>
+      <c r="I482" s="7">
+        <v>0</v>
+      </c>
+      <c r="J482" s="7">
+        <v>0</v>
+      </c>
+      <c r="K482" s="7">
+        <v>0</v>
+      </c>
+      <c r="L482" s="7">
+        <v>0</v>
+      </c>
+      <c r="M482" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D483" s="7">
+        <v>0</v>
+      </c>
+      <c r="E483" s="7">
+        <v>0</v>
+      </c>
+      <c r="F483" s="7">
+        <v>0</v>
+      </c>
+      <c r="G483" s="7">
+        <v>1</v>
+      </c>
+      <c r="H483" s="7">
+        <v>0</v>
+      </c>
+      <c r="I483" s="7">
+        <v>0</v>
+      </c>
+      <c r="J483" s="7">
+        <v>0</v>
+      </c>
+      <c r="K483" s="7">
+        <v>0</v>
+      </c>
+      <c r="L483" s="7">
+        <v>0</v>
+      </c>
+      <c r="M483" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D484" s="7">
+        <v>0</v>
+      </c>
+      <c r="E484" s="7">
+        <v>0</v>
+      </c>
+      <c r="F484" s="7">
+        <v>0</v>
+      </c>
+      <c r="G484" s="7">
+        <v>1</v>
+      </c>
+      <c r="H484" s="7">
+        <v>0</v>
+      </c>
+      <c r="I484" s="7">
+        <v>0</v>
+      </c>
+      <c r="J484" s="7">
+        <v>0</v>
+      </c>
+      <c r="K484" s="7">
+        <v>0</v>
+      </c>
+      <c r="L484" s="7">
+        <v>0</v>
+      </c>
+      <c r="M484" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D485" s="7">
+        <v>0</v>
+      </c>
+      <c r="E485" s="7">
+        <v>0</v>
+      </c>
+      <c r="F485" s="7">
+        <v>0</v>
+      </c>
+      <c r="G485" s="7">
+        <v>1</v>
+      </c>
+      <c r="H485" s="7">
+        <v>0</v>
+      </c>
+      <c r="I485" s="7">
+        <v>0</v>
+      </c>
+      <c r="J485" s="7">
+        <v>0</v>
+      </c>
+      <c r="K485" s="7">
+        <v>0</v>
+      </c>
+      <c r="L485" s="7">
+        <v>0</v>
+      </c>
+      <c r="M485" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D486" s="7">
+        <v>0</v>
+      </c>
+      <c r="E486" s="7">
+        <v>0</v>
+      </c>
+      <c r="F486" s="7">
+        <v>0</v>
+      </c>
+      <c r="G486" s="7">
+        <v>1</v>
+      </c>
+      <c r="H486" s="7">
+        <v>0</v>
+      </c>
+      <c r="I486" s="7">
+        <v>0</v>
+      </c>
+      <c r="J486" s="7">
+        <v>0</v>
+      </c>
+      <c r="K486" s="7">
+        <v>0</v>
+      </c>
+      <c r="L486" s="7">
+        <v>0</v>
+      </c>
+      <c r="M486" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D487" s="7">
+        <v>0</v>
+      </c>
+      <c r="E487" s="7">
+        <v>0</v>
+      </c>
+      <c r="F487" s="7">
+        <v>0</v>
+      </c>
+      <c r="G487" s="7">
+        <v>1</v>
+      </c>
+      <c r="H487" s="7">
+        <v>0</v>
+      </c>
+      <c r="I487" s="7">
+        <v>0</v>
+      </c>
+      <c r="J487" s="7">
+        <v>0</v>
+      </c>
+      <c r="K487" s="7">
+        <v>0</v>
+      </c>
+      <c r="L487" s="7">
+        <v>0</v>
+      </c>
+      <c r="M487" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D488" s="7">
+        <v>0</v>
+      </c>
+      <c r="E488" s="7">
+        <v>0</v>
+      </c>
+      <c r="F488" s="7">
+        <v>0</v>
+      </c>
+      <c r="G488" s="7">
+        <v>1</v>
+      </c>
+      <c r="H488" s="7">
+        <v>0</v>
+      </c>
+      <c r="I488" s="7">
+        <v>0</v>
+      </c>
+      <c r="J488" s="7">
+        <v>0</v>
+      </c>
+      <c r="K488" s="7">
+        <v>0</v>
+      </c>
+      <c r="L488" s="7">
+        <v>0</v>
+      </c>
+      <c r="M488" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D489" s="7">
+        <v>0</v>
+      </c>
+      <c r="E489" s="7">
+        <v>0</v>
+      </c>
+      <c r="F489" s="7">
+        <v>0</v>
+      </c>
+      <c r="G489" s="7">
+        <v>1</v>
+      </c>
+      <c r="H489" s="7">
+        <v>0</v>
+      </c>
+      <c r="I489" s="7">
+        <v>0</v>
+      </c>
+      <c r="J489" s="7">
+        <v>0</v>
+      </c>
+      <c r="K489" s="7">
+        <v>0</v>
+      </c>
+      <c r="L489" s="7">
+        <v>0</v>
+      </c>
+      <c r="M489" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D490" s="7">
+        <v>0</v>
+      </c>
+      <c r="E490" s="7">
+        <v>0</v>
+      </c>
+      <c r="F490" s="7">
+        <v>0</v>
+      </c>
+      <c r="G490" s="7">
+        <v>1</v>
+      </c>
+      <c r="H490" s="7">
+        <v>0</v>
+      </c>
+      <c r="I490" s="7">
+        <v>0</v>
+      </c>
+      <c r="J490" s="7">
+        <v>0</v>
+      </c>
+      <c r="K490" s="7">
+        <v>0</v>
+      </c>
+      <c r="L490" s="7">
+        <v>0</v>
+      </c>
+      <c r="M490" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D491" s="7">
+        <v>0</v>
+      </c>
+      <c r="E491" s="7">
+        <v>0</v>
+      </c>
+      <c r="F491" s="7">
+        <v>0</v>
+      </c>
+      <c r="G491" s="7">
+        <v>1</v>
+      </c>
+      <c r="H491" s="7">
+        <v>0</v>
+      </c>
+      <c r="I491" s="7">
+        <v>0</v>
+      </c>
+      <c r="J491" s="7">
+        <v>0</v>
+      </c>
+      <c r="K491" s="7">
+        <v>0</v>
+      </c>
+      <c r="L491" s="7">
+        <v>0</v>
+      </c>
+      <c r="M491" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D492" s="7">
+        <v>0</v>
+      </c>
+      <c r="E492" s="7">
+        <v>0</v>
+      </c>
+      <c r="F492" s="7">
+        <v>0</v>
+      </c>
+      <c r="G492" s="7">
+        <v>1</v>
+      </c>
+      <c r="H492" s="7">
+        <v>0</v>
+      </c>
+      <c r="I492" s="7">
+        <v>0</v>
+      </c>
+      <c r="J492" s="7">
+        <v>0</v>
+      </c>
+      <c r="K492" s="7">
+        <v>0</v>
+      </c>
+      <c r="L492" s="7">
+        <v>0</v>
+      </c>
+      <c r="M492" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D493" s="7">
+        <v>0</v>
+      </c>
+      <c r="E493" s="7">
+        <v>0</v>
+      </c>
+      <c r="F493" s="7">
+        <v>0</v>
+      </c>
+      <c r="G493" s="7">
+        <v>1</v>
+      </c>
+      <c r="H493" s="7">
+        <v>0</v>
+      </c>
+      <c r="I493" s="7">
+        <v>0</v>
+      </c>
+      <c r="J493" s="7">
+        <v>0</v>
+      </c>
+      <c r="K493" s="7">
+        <v>0</v>
+      </c>
+      <c r="L493" s="7">
+        <v>0</v>
+      </c>
+      <c r="M493" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D494" s="7">
+        <v>0</v>
+      </c>
+      <c r="E494" s="7">
+        <v>0</v>
+      </c>
+      <c r="F494" s="7">
+        <v>0</v>
+      </c>
+      <c r="G494" s="7">
+        <v>1</v>
+      </c>
+      <c r="H494" s="7">
+        <v>0</v>
+      </c>
+      <c r="I494" s="7">
+        <v>0</v>
+      </c>
+      <c r="J494" s="7">
+        <v>0</v>
+      </c>
+      <c r="K494" s="7">
+        <v>0</v>
+      </c>
+      <c r="L494" s="7">
+        <v>0</v>
+      </c>
+      <c r="M494" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D495" s="7">
+        <v>0</v>
+      </c>
+      <c r="E495" s="7">
+        <v>0</v>
+      </c>
+      <c r="F495" s="7">
+        <v>0</v>
+      </c>
+      <c r="G495" s="7">
+        <v>1</v>
+      </c>
+      <c r="H495" s="7">
+        <v>0</v>
+      </c>
+      <c r="I495" s="7">
+        <v>0</v>
+      </c>
+      <c r="J495" s="7">
+        <v>0</v>
+      </c>
+      <c r="K495" s="7">
+        <v>0</v>
+      </c>
+      <c r="L495" s="7">
+        <v>0</v>
+      </c>
+      <c r="M495" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D496" s="7">
+        <v>0</v>
+      </c>
+      <c r="E496" s="7">
+        <v>0</v>
+      </c>
+      <c r="F496" s="7">
+        <v>0</v>
+      </c>
+      <c r="G496" s="7">
+        <v>1</v>
+      </c>
+      <c r="H496" s="7">
+        <v>0</v>
+      </c>
+      <c r="I496" s="7">
+        <v>0</v>
+      </c>
+      <c r="J496" s="7">
+        <v>0</v>
+      </c>
+      <c r="K496" s="7">
+        <v>0</v>
+      </c>
+      <c r="L496" s="7">
+        <v>0</v>
+      </c>
+      <c r="M496" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D497" s="7">
+        <v>0</v>
+      </c>
+      <c r="E497" s="7">
+        <v>0</v>
+      </c>
+      <c r="F497" s="7">
+        <v>0</v>
+      </c>
+      <c r="G497" s="7">
+        <v>1</v>
+      </c>
+      <c r="H497" s="7">
+        <v>0</v>
+      </c>
+      <c r="I497" s="7">
+        <v>0</v>
+      </c>
+      <c r="J497" s="7">
+        <v>0</v>
+      </c>
+      <c r="K497" s="7">
+        <v>0</v>
+      </c>
+      <c r="L497" s="7">
+        <v>0</v>
+      </c>
+      <c r="M497" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D498" s="7">
+        <v>0</v>
+      </c>
+      <c r="E498" s="7">
+        <v>0</v>
+      </c>
+      <c r="F498" s="7">
+        <v>0</v>
+      </c>
+      <c r="G498" s="7">
+        <v>1</v>
+      </c>
+      <c r="H498" s="7">
+        <v>0</v>
+      </c>
+      <c r="I498" s="7">
+        <v>0</v>
+      </c>
+      <c r="J498" s="7">
+        <v>0</v>
+      </c>
+      <c r="K498" s="7">
+        <v>0</v>
+      </c>
+      <c r="L498" s="7">
+        <v>0</v>
+      </c>
+      <c r="M498" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D499" s="7">
+        <v>0</v>
+      </c>
+      <c r="E499" s="7">
+        <v>0</v>
+      </c>
+      <c r="F499" s="7">
+        <v>0</v>
+      </c>
+      <c r="G499" s="7">
+        <v>1</v>
+      </c>
+      <c r="H499" s="7">
+        <v>0</v>
+      </c>
+      <c r="I499" s="7">
+        <v>0</v>
+      </c>
+      <c r="J499" s="7">
+        <v>0</v>
+      </c>
+      <c r="K499" s="7">
+        <v>0</v>
+      </c>
+      <c r="L499" s="7">
+        <v>0</v>
+      </c>
+      <c r="M499" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D500" s="7">
+        <v>0</v>
+      </c>
+      <c r="E500" s="7">
+        <v>0</v>
+      </c>
+      <c r="F500" s="7">
+        <v>0</v>
+      </c>
+      <c r="G500" s="7">
+        <v>1</v>
+      </c>
+      <c r="H500" s="7">
+        <v>0</v>
+      </c>
+      <c r="I500" s="7">
+        <v>0</v>
+      </c>
+      <c r="J500" s="7">
+        <v>0</v>
+      </c>
+      <c r="K500" s="7">
+        <v>0</v>
+      </c>
+      <c r="L500" s="7">
+        <v>0</v>
+      </c>
+      <c r="M500" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D501" s="7">
+        <v>0</v>
+      </c>
+      <c r="E501" s="7">
+        <v>0</v>
+      </c>
+      <c r="F501" s="7">
+        <v>0</v>
+      </c>
+      <c r="G501" s="7">
+        <v>1</v>
+      </c>
+      <c r="H501" s="7">
+        <v>0</v>
+      </c>
+      <c r="I501" s="7">
+        <v>0</v>
+      </c>
+      <c r="J501" s="7">
+        <v>0</v>
+      </c>
+      <c r="K501" s="7">
+        <v>0</v>
+      </c>
+      <c r="L501" s="7">
+        <v>0</v>
+      </c>
+      <c r="M501" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D502" s="7">
+        <v>0</v>
+      </c>
+      <c r="E502" s="7">
+        <v>0</v>
+      </c>
+      <c r="F502" s="7">
+        <v>0</v>
+      </c>
+      <c r="G502" s="7">
+        <v>1</v>
+      </c>
+      <c r="H502" s="7">
+        <v>0</v>
+      </c>
+      <c r="I502" s="7">
+        <v>0</v>
+      </c>
+      <c r="J502" s="7">
+        <v>0</v>
+      </c>
+      <c r="K502" s="7">
+        <v>0</v>
+      </c>
+      <c r="L502" s="7">
+        <v>0</v>
+      </c>
+      <c r="M502" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D503" s="7">
+        <v>0</v>
+      </c>
+      <c r="E503" s="7">
+        <v>0</v>
+      </c>
+      <c r="F503" s="7">
+        <v>0</v>
+      </c>
+      <c r="G503" s="7">
+        <v>1</v>
+      </c>
+      <c r="H503" s="7">
+        <v>0</v>
+      </c>
+      <c r="I503" s="7">
+        <v>0</v>
+      </c>
+      <c r="J503" s="7">
+        <v>0</v>
+      </c>
+      <c r="K503" s="7">
+        <v>0</v>
+      </c>
+      <c r="L503" s="7">
+        <v>0</v>
+      </c>
+      <c r="M503" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D504" s="7">
+        <v>0</v>
+      </c>
+      <c r="E504" s="7">
+        <v>0</v>
+      </c>
+      <c r="F504" s="7">
+        <v>0</v>
+      </c>
+      <c r="G504" s="7">
+        <v>1</v>
+      </c>
+      <c r="H504" s="7">
+        <v>0</v>
+      </c>
+      <c r="I504" s="7">
+        <v>0</v>
+      </c>
+      <c r="J504" s="7">
+        <v>0</v>
+      </c>
+      <c r="K504" s="7">
+        <v>0</v>
+      </c>
+      <c r="L504" s="7">
+        <v>0</v>
+      </c>
+      <c r="M504" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D505" s="7">
+        <v>0</v>
+      </c>
+      <c r="E505" s="7">
+        <v>0</v>
+      </c>
+      <c r="F505" s="7">
+        <v>0</v>
+      </c>
+      <c r="G505" s="7">
+        <v>1</v>
+      </c>
+      <c r="H505" s="7">
+        <v>0</v>
+      </c>
+      <c r="I505" s="7">
+        <v>0</v>
+      </c>
+      <c r="J505" s="7">
+        <v>0</v>
+      </c>
+      <c r="K505" s="7">
+        <v>0</v>
+      </c>
+      <c r="L505" s="7">
+        <v>0</v>
+      </c>
+      <c r="M505" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D506" s="7">
+        <v>0</v>
+      </c>
+      <c r="E506" s="7">
+        <v>0</v>
+      </c>
+      <c r="F506" s="7">
+        <v>1</v>
+      </c>
+      <c r="G506" s="7">
+        <v>0</v>
+      </c>
+      <c r="H506" s="7">
+        <v>0</v>
+      </c>
+      <c r="I506" s="7">
+        <v>0</v>
+      </c>
+      <c r="J506" s="7">
+        <v>0</v>
+      </c>
+      <c r="K506" s="7">
+        <v>0</v>
+      </c>
+      <c r="L506" s="7">
+        <v>0</v>
+      </c>
+      <c r="M506" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D507" s="7">
+        <v>0</v>
+      </c>
+      <c r="E507" s="7">
+        <v>0</v>
+      </c>
+      <c r="F507" s="7">
+        <v>1</v>
+      </c>
+      <c r="G507" s="7">
+        <v>0</v>
+      </c>
+      <c r="H507" s="7">
+        <v>0</v>
+      </c>
+      <c r="I507" s="7">
+        <v>0</v>
+      </c>
+      <c r="J507" s="7">
+        <v>0</v>
+      </c>
+      <c r="K507" s="7">
+        <v>0</v>
+      </c>
+      <c r="L507" s="7">
+        <v>0</v>
+      </c>
+      <c r="M507" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D508" s="7">
+        <v>0</v>
+      </c>
+      <c r="E508" s="7">
+        <v>0</v>
+      </c>
+      <c r="F508" s="7">
+        <v>1</v>
+      </c>
+      <c r="G508" s="7">
+        <v>0</v>
+      </c>
+      <c r="H508" s="7">
+        <v>0</v>
+      </c>
+      <c r="I508" s="7">
+        <v>0</v>
+      </c>
+      <c r="J508" s="7">
+        <v>0</v>
+      </c>
+      <c r="K508" s="7">
+        <v>0</v>
+      </c>
+      <c r="L508" s="7">
+        <v>0</v>
+      </c>
+      <c r="M508" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D509" s="7">
+        <v>0</v>
+      </c>
+      <c r="E509" s="7">
+        <v>0</v>
+      </c>
+      <c r="F509" s="7">
+        <v>1</v>
+      </c>
+      <c r="G509" s="7">
+        <v>0</v>
+      </c>
+      <c r="H509" s="7">
+        <v>0</v>
+      </c>
+      <c r="I509" s="7">
+        <v>0</v>
+      </c>
+      <c r="J509" s="7">
+        <v>0</v>
+      </c>
+      <c r="K509" s="7">
+        <v>0</v>
+      </c>
+      <c r="L509" s="7">
+        <v>0</v>
+      </c>
+      <c r="M509" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D510" s="7">
+        <v>0</v>
+      </c>
+      <c r="E510" s="7">
+        <v>0</v>
+      </c>
+      <c r="F510" s="7">
+        <v>1</v>
+      </c>
+      <c r="G510" s="7">
+        <v>0</v>
+      </c>
+      <c r="H510" s="7">
+        <v>0</v>
+      </c>
+      <c r="I510" s="7">
+        <v>0</v>
+      </c>
+      <c r="J510" s="7">
+        <v>0</v>
+      </c>
+      <c r="K510" s="7">
+        <v>0</v>
+      </c>
+      <c r="L510" s="7">
+        <v>0</v>
+      </c>
+      <c r="M510" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D511" s="7">
+        <v>0</v>
+      </c>
+      <c r="E511" s="7">
+        <v>0</v>
+      </c>
+      <c r="F511" s="7">
+        <v>1</v>
+      </c>
+      <c r="G511" s="7">
+        <v>0</v>
+      </c>
+      <c r="H511" s="7">
+        <v>0</v>
+      </c>
+      <c r="I511" s="7">
+        <v>0</v>
+      </c>
+      <c r="J511" s="7">
+        <v>0</v>
+      </c>
+      <c r="K511" s="7">
+        <v>0</v>
+      </c>
+      <c r="L511" s="7">
+        <v>0</v>
+      </c>
+      <c r="M511" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D512" s="7">
+        <v>0</v>
+      </c>
+      <c r="E512" s="7">
+        <v>0</v>
+      </c>
+      <c r="F512" s="7">
+        <v>1</v>
+      </c>
+      <c r="G512" s="7">
+        <v>0</v>
+      </c>
+      <c r="H512" s="7">
+        <v>0</v>
+      </c>
+      <c r="I512" s="7">
+        <v>0</v>
+      </c>
+      <c r="J512" s="7">
+        <v>0</v>
+      </c>
+      <c r="K512" s="7">
+        <v>0</v>
+      </c>
+      <c r="L512" s="7">
+        <v>0</v>
+      </c>
+      <c r="M512" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D513" s="7">
+        <v>0</v>
+      </c>
+      <c r="E513" s="7">
+        <v>0</v>
+      </c>
+      <c r="F513" s="7">
+        <v>1</v>
+      </c>
+      <c r="G513" s="7">
+        <v>0</v>
+      </c>
+      <c r="H513" s="7">
+        <v>0</v>
+      </c>
+      <c r="I513" s="7">
+        <v>0</v>
+      </c>
+      <c r="J513" s="7">
+        <v>0</v>
+      </c>
+      <c r="K513" s="7">
+        <v>0</v>
+      </c>
+      <c r="L513" s="7">
+        <v>0</v>
+      </c>
+      <c r="M513" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D514" s="7">
+        <v>0</v>
+      </c>
+      <c r="E514" s="7">
+        <v>0</v>
+      </c>
+      <c r="F514" s="7">
+        <v>1</v>
+      </c>
+      <c r="G514" s="7">
+        <v>0</v>
+      </c>
+      <c r="H514" s="7">
+        <v>0</v>
+      </c>
+      <c r="I514" s="7">
+        <v>0</v>
+      </c>
+      <c r="J514" s="7">
+        <v>0</v>
+      </c>
+      <c r="K514" s="7">
+        <v>0</v>
+      </c>
+      <c r="L514" s="7">
+        <v>0</v>
+      </c>
+      <c r="M514" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D515" s="7">
+        <v>0</v>
+      </c>
+      <c r="E515" s="7">
+        <v>0</v>
+      </c>
+      <c r="F515" s="7">
+        <v>1</v>
+      </c>
+      <c r="G515" s="7">
+        <v>0</v>
+      </c>
+      <c r="H515" s="7">
+        <v>0</v>
+      </c>
+      <c r="I515" s="7">
+        <v>0</v>
+      </c>
+      <c r="J515" s="7">
+        <v>0</v>
+      </c>
+      <c r="K515" s="7">
+        <v>0</v>
+      </c>
+      <c r="L515" s="7">
+        <v>0</v>
+      </c>
+      <c r="M515" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D516" s="7">
+        <v>0</v>
+      </c>
+      <c r="E516" s="7">
+        <v>0</v>
+      </c>
+      <c r="F516" s="7">
+        <v>0</v>
+      </c>
+      <c r="G516" s="7">
+        <v>0</v>
+      </c>
+      <c r="H516" s="7">
+        <v>0</v>
+      </c>
+      <c r="I516" s="7">
+        <v>0</v>
+      </c>
+      <c r="J516" s="7">
+        <v>0</v>
+      </c>
+      <c r="K516" s="7">
+        <v>0</v>
+      </c>
+      <c r="L516" s="7">
+        <v>1</v>
+      </c>
+      <c r="M516" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D517" s="7">
+        <v>0</v>
+      </c>
+      <c r="E517" s="7">
+        <v>0</v>
+      </c>
+      <c r="F517" s="7">
+        <v>0</v>
+      </c>
+      <c r="G517" s="7">
+        <v>0</v>
+      </c>
+      <c r="H517" s="7">
+        <v>0</v>
+      </c>
+      <c r="I517" s="7">
+        <v>0</v>
+      </c>
+      <c r="J517" s="7">
+        <v>0</v>
+      </c>
+      <c r="K517" s="7">
+        <v>0</v>
+      </c>
+      <c r="L517" s="7">
+        <v>1</v>
+      </c>
+      <c r="M517" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D518" s="7">
+        <v>0</v>
+      </c>
+      <c r="E518" s="7">
+        <v>0</v>
+      </c>
+      <c r="F518" s="7">
+        <v>0</v>
+      </c>
+      <c r="G518" s="7">
+        <v>0</v>
+      </c>
+      <c r="H518" s="7">
+        <v>0</v>
+      </c>
+      <c r="I518" s="7">
+        <v>0</v>
+      </c>
+      <c r="J518" s="7">
+        <v>0</v>
+      </c>
+      <c r="K518" s="7">
+        <v>0</v>
+      </c>
+      <c r="L518" s="7">
+        <v>1</v>
+      </c>
+      <c r="M518" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D519" s="7">
+        <v>0</v>
+      </c>
+      <c r="E519" s="7">
+        <v>0</v>
+      </c>
+      <c r="F519" s="7">
+        <v>0</v>
+      </c>
+      <c r="G519" s="7">
+        <v>0</v>
+      </c>
+      <c r="H519" s="7">
+        <v>0</v>
+      </c>
+      <c r="I519" s="7">
+        <v>0</v>
+      </c>
+      <c r="J519" s="7">
+        <v>0</v>
+      </c>
+      <c r="K519" s="7">
+        <v>0</v>
+      </c>
+      <c r="L519" s="7">
+        <v>1</v>
+      </c>
+      <c r="M519" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D520" s="7">
+        <v>0</v>
+      </c>
+      <c r="E520" s="7">
+        <v>0</v>
+      </c>
+      <c r="F520" s="7">
+        <v>0</v>
+      </c>
+      <c r="G520" s="7">
+        <v>0</v>
+      </c>
+      <c r="H520" s="7">
+        <v>0</v>
+      </c>
+      <c r="I520" s="7">
+        <v>0</v>
+      </c>
+      <c r="J520" s="7">
+        <v>0</v>
+      </c>
+      <c r="K520" s="7">
+        <v>0</v>
+      </c>
+      <c r="L520" s="7">
+        <v>1</v>
+      </c>
+      <c r="M520" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D521" s="7">
+        <v>0</v>
+      </c>
+      <c r="E521" s="7">
+        <v>0</v>
+      </c>
+      <c r="F521" s="7">
+        <v>0</v>
+      </c>
+      <c r="G521" s="7">
+        <v>0</v>
+      </c>
+      <c r="H521" s="7">
+        <v>0</v>
+      </c>
+      <c r="I521" s="7">
+        <v>0</v>
+      </c>
+      <c r="J521" s="7">
+        <v>0</v>
+      </c>
+      <c r="K521" s="7">
+        <v>0</v>
+      </c>
+      <c r="L521" s="7">
+        <v>1</v>
+      </c>
+      <c r="M521" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D522" s="7">
+        <v>0</v>
+      </c>
+      <c r="E522" s="7">
+        <v>0</v>
+      </c>
+      <c r="F522" s="7">
+        <v>0</v>
+      </c>
+      <c r="G522" s="7">
+        <v>0</v>
+      </c>
+      <c r="H522" s="7">
+        <v>0</v>
+      </c>
+      <c r="I522" s="7">
+        <v>0</v>
+      </c>
+      <c r="J522" s="7">
+        <v>0</v>
+      </c>
+      <c r="K522" s="7">
+        <v>0</v>
+      </c>
+      <c r="L522" s="7">
+        <v>1</v>
+      </c>
+      <c r="M522" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D523" s="7">
+        <v>0</v>
+      </c>
+      <c r="E523" s="7">
+        <v>0</v>
+      </c>
+      <c r="F523" s="7">
+        <v>0</v>
+      </c>
+      <c r="G523" s="7">
+        <v>0</v>
+      </c>
+      <c r="H523" s="7">
+        <v>0</v>
+      </c>
+      <c r="I523" s="7">
+        <v>0</v>
+      </c>
+      <c r="J523" s="7">
+        <v>0</v>
+      </c>
+      <c r="K523" s="7">
+        <v>0</v>
+      </c>
+      <c r="L523" s="7">
+        <v>1</v>
+      </c>
+      <c r="M523" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D524" s="7">
+        <v>0</v>
+      </c>
+      <c r="E524" s="7">
+        <v>0</v>
+      </c>
+      <c r="F524" s="7">
+        <v>0</v>
+      </c>
+      <c r="G524" s="7">
+        <v>0</v>
+      </c>
+      <c r="H524" s="7">
+        <v>0</v>
+      </c>
+      <c r="I524" s="7">
+        <v>0</v>
+      </c>
+      <c r="J524" s="7">
+        <v>0</v>
+      </c>
+      <c r="K524" s="7">
+        <v>0</v>
+      </c>
+      <c r="L524" s="7">
+        <v>1</v>
+      </c>
+      <c r="M524" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D525" s="7">
+        <v>0</v>
+      </c>
+      <c r="E525" s="7">
+        <v>0</v>
+      </c>
+      <c r="F525" s="7">
+        <v>0</v>
+      </c>
+      <c r="G525" s="7">
+        <v>0</v>
+      </c>
+      <c r="H525" s="7">
+        <v>0</v>
+      </c>
+      <c r="I525" s="7">
+        <v>0</v>
+      </c>
+      <c r="J525" s="7">
+        <v>0</v>
+      </c>
+      <c r="K525" s="7">
+        <v>0</v>
+      </c>
+      <c r="L525" s="7">
+        <v>1</v>
+      </c>
+      <c r="M525" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D526" s="7">
+        <v>0</v>
+      </c>
+      <c r="E526" s="7">
+        <v>0</v>
+      </c>
+      <c r="F526" s="7">
+        <v>0</v>
+      </c>
+      <c r="G526" s="7">
+        <v>0</v>
+      </c>
+      <c r="H526" s="7">
+        <v>0</v>
+      </c>
+      <c r="I526" s="7">
+        <v>0</v>
+      </c>
+      <c r="J526" s="7">
+        <v>0</v>
+      </c>
+      <c r="K526" s="7">
+        <v>0</v>
+      </c>
+      <c r="L526" s="7">
+        <v>1</v>
+      </c>
+      <c r="M526" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D527" s="7">
+        <v>0</v>
+      </c>
+      <c r="E527" s="7">
+        <v>0</v>
+      </c>
+      <c r="F527" s="7">
+        <v>0</v>
+      </c>
+      <c r="G527" s="7">
+        <v>0</v>
+      </c>
+      <c r="H527" s="7">
+        <v>0</v>
+      </c>
+      <c r="I527" s="7">
+        <v>0</v>
+      </c>
+      <c r="J527" s="7">
+        <v>0</v>
+      </c>
+      <c r="K527" s="7">
+        <v>0</v>
+      </c>
+      <c r="L527" s="7">
+        <v>1</v>
+      </c>
+      <c r="M527" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D528" s="7">
+        <v>0</v>
+      </c>
+      <c r="E528" s="7">
+        <v>0</v>
+      </c>
+      <c r="F528" s="7">
+        <v>0</v>
+      </c>
+      <c r="G528" s="7">
+        <v>0</v>
+      </c>
+      <c r="H528" s="7">
+        <v>0</v>
+      </c>
+      <c r="I528" s="7">
+        <v>0</v>
+      </c>
+      <c r="J528" s="7">
+        <v>0</v>
+      </c>
+      <c r="K528" s="7">
+        <v>0</v>
+      </c>
+      <c r="L528" s="7">
+        <v>1</v>
+      </c>
+      <c r="M528" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D529" s="7">
+        <v>0</v>
+      </c>
+      <c r="E529" s="7">
+        <v>0</v>
+      </c>
+      <c r="F529" s="7">
+        <v>0</v>
+      </c>
+      <c r="G529" s="7">
+        <v>0</v>
+      </c>
+      <c r="H529" s="7">
+        <v>0</v>
+      </c>
+      <c r="I529" s="7">
+        <v>0</v>
+      </c>
+      <c r="J529" s="7">
+        <v>0</v>
+      </c>
+      <c r="K529" s="7">
+        <v>0</v>
+      </c>
+      <c r="L529" s="7">
+        <v>1</v>
+      </c>
+      <c r="M529" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D530" s="7">
+        <v>0</v>
+      </c>
+      <c r="E530" s="7">
+        <v>0</v>
+      </c>
+      <c r="F530" s="7">
+        <v>0</v>
+      </c>
+      <c r="G530" s="7">
+        <v>0</v>
+      </c>
+      <c r="H530" s="7">
+        <v>0</v>
+      </c>
+      <c r="I530" s="7">
+        <v>0</v>
+      </c>
+      <c r="J530" s="7">
+        <v>0</v>
+      </c>
+      <c r="K530" s="7">
+        <v>0</v>
+      </c>
+      <c r="L530" s="7">
+        <v>1</v>
+      </c>
+      <c r="M530" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D531" s="7">
+        <v>0</v>
+      </c>
+      <c r="E531" s="7">
+        <v>0</v>
+      </c>
+      <c r="F531" s="7">
+        <v>0</v>
+      </c>
+      <c r="G531" s="7">
+        <v>0</v>
+      </c>
+      <c r="H531" s="7">
+        <v>0</v>
+      </c>
+      <c r="I531" s="7">
+        <v>0</v>
+      </c>
+      <c r="J531" s="7">
+        <v>0</v>
+      </c>
+      <c r="K531" s="7">
+        <v>0</v>
+      </c>
+      <c r="L531" s="7">
+        <v>1</v>
+      </c>
+      <c r="M531" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D532" s="7">
+        <v>0</v>
+      </c>
+      <c r="E532" s="7">
+        <v>0</v>
+      </c>
+      <c r="F532" s="7">
+        <v>0</v>
+      </c>
+      <c r="G532" s="7">
+        <v>0</v>
+      </c>
+      <c r="H532" s="7">
+        <v>0</v>
+      </c>
+      <c r="I532" s="7">
+        <v>0</v>
+      </c>
+      <c r="J532" s="7">
+        <v>0</v>
+      </c>
+      <c r="K532" s="7">
+        <v>0</v>
+      </c>
+      <c r="L532" s="7">
+        <v>1</v>
+      </c>
+      <c r="M532" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D533" s="7">
+        <v>0</v>
+      </c>
+      <c r="E533" s="7">
+        <v>0</v>
+      </c>
+      <c r="F533" s="7">
+        <v>0</v>
+      </c>
+      <c r="G533" s="7">
+        <v>0</v>
+      </c>
+      <c r="H533" s="7">
+        <v>0</v>
+      </c>
+      <c r="I533" s="7">
+        <v>0</v>
+      </c>
+      <c r="J533" s="7">
+        <v>0</v>
+      </c>
+      <c r="K533" s="7">
+        <v>0</v>
+      </c>
+      <c r="L533" s="7">
+        <v>1</v>
+      </c>
+      <c r="M533" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D534" s="7">
+        <v>0</v>
+      </c>
+      <c r="E534" s="7">
+        <v>0</v>
+      </c>
+      <c r="F534" s="7">
+        <v>0</v>
+      </c>
+      <c r="G534" s="7">
+        <v>0</v>
+      </c>
+      <c r="H534" s="7">
+        <v>0</v>
+      </c>
+      <c r="I534" s="7">
+        <v>0</v>
+      </c>
+      <c r="J534" s="7">
+        <v>0</v>
+      </c>
+      <c r="K534" s="7">
+        <v>0</v>
+      </c>
+      <c r="L534" s="7">
+        <v>1</v>
+      </c>
+      <c r="M534" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D535" s="7">
+        <v>0</v>
+      </c>
+      <c r="E535" s="7">
+        <v>0</v>
+      </c>
+      <c r="F535" s="7">
+        <v>0</v>
+      </c>
+      <c r="G535" s="7">
+        <v>0</v>
+      </c>
+      <c r="H535" s="7">
+        <v>0</v>
+      </c>
+      <c r="I535" s="7">
+        <v>0</v>
+      </c>
+      <c r="J535" s="7">
+        <v>0</v>
+      </c>
+      <c r="K535" s="7">
+        <v>0</v>
+      </c>
+      <c r="L535" s="7">
+        <v>1</v>
+      </c>
+      <c r="M535" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D536" s="7">
+        <v>0</v>
+      </c>
+      <c r="E536" s="7">
+        <v>0</v>
+      </c>
+      <c r="F536" s="7">
+        <v>0</v>
+      </c>
+      <c r="G536" s="7">
+        <v>0</v>
+      </c>
+      <c r="H536" s="7">
+        <v>0</v>
+      </c>
+      <c r="I536" s="7">
+        <v>0</v>
+      </c>
+      <c r="J536" s="7">
+        <v>0</v>
+      </c>
+      <c r="K536" s="7">
+        <v>0</v>
+      </c>
+      <c r="L536" s="7">
+        <v>1</v>
+      </c>
+      <c r="M536" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D537" s="7">
+        <v>0</v>
+      </c>
+      <c r="E537" s="7">
+        <v>0</v>
+      </c>
+      <c r="F537" s="7">
+        <v>0</v>
+      </c>
+      <c r="G537" s="7">
+        <v>0</v>
+      </c>
+      <c r="H537" s="7">
+        <v>0</v>
+      </c>
+      <c r="I537" s="7">
+        <v>0</v>
+      </c>
+      <c r="J537" s="7">
+        <v>0</v>
+      </c>
+      <c r="K537" s="7">
+        <v>0</v>
+      </c>
+      <c r="L537" s="7">
+        <v>1</v>
+      </c>
+      <c r="M537" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D538" s="7">
+        <v>0</v>
+      </c>
+      <c r="E538" s="7">
+        <v>0</v>
+      </c>
+      <c r="F538" s="7">
+        <v>0</v>
+      </c>
+      <c r="G538" s="7">
+        <v>0</v>
+      </c>
+      <c r="H538" s="7">
+        <v>0</v>
+      </c>
+      <c r="I538" s="7">
+        <v>0</v>
+      </c>
+      <c r="J538" s="7">
+        <v>0</v>
+      </c>
+      <c r="K538" s="7">
+        <v>0</v>
+      </c>
+      <c r="L538" s="7">
+        <v>1</v>
+      </c>
+      <c r="M538" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D539" s="7">
+        <v>0</v>
+      </c>
+      <c r="E539" s="7">
+        <v>0</v>
+      </c>
+      <c r="F539" s="7">
+        <v>0</v>
+      </c>
+      <c r="G539" s="7">
+        <v>0</v>
+      </c>
+      <c r="H539" s="7">
+        <v>0</v>
+      </c>
+      <c r="I539" s="7">
+        <v>0</v>
+      </c>
+      <c r="J539" s="7">
+        <v>0</v>
+      </c>
+      <c r="K539" s="7">
+        <v>0</v>
+      </c>
+      <c r="L539" s="7">
+        <v>1</v>
+      </c>
+      <c r="M539" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D540" s="7">
+        <v>0</v>
+      </c>
+      <c r="E540" s="7">
+        <v>0</v>
+      </c>
+      <c r="F540" s="7">
+        <v>0</v>
+      </c>
+      <c r="G540" s="7">
+        <v>0</v>
+      </c>
+      <c r="H540" s="7">
+        <v>0</v>
+      </c>
+      <c r="I540" s="7">
+        <v>0</v>
+      </c>
+      <c r="J540" s="7">
+        <v>0</v>
+      </c>
+      <c r="K540" s="7">
+        <v>0</v>
+      </c>
+      <c r="L540" s="7">
+        <v>1</v>
+      </c>
+      <c r="M540" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D541" s="7">
+        <v>0</v>
+      </c>
+      <c r="E541" s="7">
+        <v>0</v>
+      </c>
+      <c r="F541" s="7">
+        <v>0</v>
+      </c>
+      <c r="G541" s="7">
+        <v>0</v>
+      </c>
+      <c r="H541" s="7">
+        <v>0</v>
+      </c>
+      <c r="I541" s="7">
+        <v>0</v>
+      </c>
+      <c r="J541" s="7">
+        <v>0</v>
+      </c>
+      <c r="K541" s="7">
+        <v>0</v>
+      </c>
+      <c r="L541" s="7">
+        <v>1</v>
+      </c>
+      <c r="M541" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D542" s="7">
+        <v>0</v>
+      </c>
+      <c r="E542" s="7">
+        <v>0</v>
+      </c>
+      <c r="F542" s="7">
+        <v>0</v>
+      </c>
+      <c r="G542" s="7">
+        <v>0</v>
+      </c>
+      <c r="H542" s="7">
+        <v>0</v>
+      </c>
+      <c r="I542" s="7">
+        <v>0</v>
+      </c>
+      <c r="J542" s="7">
+        <v>0</v>
+      </c>
+      <c r="K542" s="7">
+        <v>0</v>
+      </c>
+      <c r="L542" s="7">
+        <v>1</v>
+      </c>
+      <c r="M542" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D543" s="7">
+        <v>0</v>
+      </c>
+      <c r="E543" s="7">
+        <v>0</v>
+      </c>
+      <c r="F543" s="7">
+        <v>0</v>
+      </c>
+      <c r="G543" s="7">
+        <v>0</v>
+      </c>
+      <c r="H543" s="7">
+        <v>0</v>
+      </c>
+      <c r="I543" s="7">
+        <v>0</v>
+      </c>
+      <c r="J543" s="7">
+        <v>0</v>
+      </c>
+      <c r="K543" s="7">
+        <v>0</v>
+      </c>
+      <c r="L543" s="7">
+        <v>1</v>
+      </c>
+      <c r="M543" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D544" s="7">
+        <v>0</v>
+      </c>
+      <c r="E544" s="7">
+        <v>0</v>
+      </c>
+      <c r="F544" s="7">
+        <v>0</v>
+      </c>
+      <c r="G544" s="7">
+        <v>0</v>
+      </c>
+      <c r="H544" s="7">
+        <v>0</v>
+      </c>
+      <c r="I544" s="7">
+        <v>0</v>
+      </c>
+      <c r="J544" s="7">
+        <v>0</v>
+      </c>
+      <c r="K544" s="7">
+        <v>0</v>
+      </c>
+      <c r="L544" s="7">
+        <v>1</v>
+      </c>
+      <c r="M544" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D545" s="7">
+        <v>0</v>
+      </c>
+      <c r="E545" s="7">
+        <v>0</v>
+      </c>
+      <c r="F545" s="7">
+        <v>0</v>
+      </c>
+      <c r="G545" s="7">
+        <v>0</v>
+      </c>
+      <c r="H545" s="7">
+        <v>0</v>
+      </c>
+      <c r="I545" s="7">
+        <v>0</v>
+      </c>
+      <c r="J545" s="7">
+        <v>0</v>
+      </c>
+      <c r="K545" s="7">
+        <v>0</v>
+      </c>
+      <c r="L545" s="7">
+        <v>1</v>
+      </c>
+      <c r="M545" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D546" s="7">
+        <v>0</v>
+      </c>
+      <c r="E546" s="7">
+        <v>0</v>
+      </c>
+      <c r="F546" s="7">
+        <v>0</v>
+      </c>
+      <c r="G546" s="7">
+        <v>0</v>
+      </c>
+      <c r="H546" s="7">
+        <v>0</v>
+      </c>
+      <c r="I546" s="7">
+        <v>0</v>
+      </c>
+      <c r="J546" s="7">
+        <v>0</v>
+      </c>
+      <c r="K546" s="7">
+        <v>0</v>
+      </c>
+      <c r="L546" s="7">
+        <v>1</v>
+      </c>
+      <c r="M546" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D547" s="7">
+        <v>0</v>
+      </c>
+      <c r="E547" s="7">
+        <v>0</v>
+      </c>
+      <c r="F547" s="7">
+        <v>0</v>
+      </c>
+      <c r="G547" s="7">
+        <v>0</v>
+      </c>
+      <c r="H547" s="7">
+        <v>0</v>
+      </c>
+      <c r="I547" s="7">
+        <v>0</v>
+      </c>
+      <c r="J547" s="7">
+        <v>0</v>
+      </c>
+      <c r="K547" s="7">
+        <v>0</v>
+      </c>
+      <c r="L547" s="7">
+        <v>1</v>
+      </c>
+      <c r="M547" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D548" s="7">
+        <v>0</v>
+      </c>
+      <c r="E548" s="7">
+        <v>0</v>
+      </c>
+      <c r="F548" s="7">
+        <v>0</v>
+      </c>
+      <c r="G548" s="7">
+        <v>0</v>
+      </c>
+      <c r="H548" s="7">
+        <v>0</v>
+      </c>
+      <c r="I548" s="7">
+        <v>0</v>
+      </c>
+      <c r="J548" s="7">
+        <v>0</v>
+      </c>
+      <c r="K548" s="7">
+        <v>0</v>
+      </c>
+      <c r="L548" s="7">
+        <v>1</v>
+      </c>
+      <c r="M548" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D549" s="7">
+        <v>0</v>
+      </c>
+      <c r="E549" s="7">
+        <v>0</v>
+      </c>
+      <c r="F549" s="7">
+        <v>0</v>
+      </c>
+      <c r="G549" s="7">
+        <v>0</v>
+      </c>
+      <c r="H549" s="7">
+        <v>0</v>
+      </c>
+      <c r="I549" s="7">
+        <v>0</v>
+      </c>
+      <c r="J549" s="7">
+        <v>0</v>
+      </c>
+      <c r="K549" s="7">
+        <v>0</v>
+      </c>
+      <c r="L549" s="7">
+        <v>1</v>
+      </c>
+      <c r="M549" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D550" s="7">
+        <v>0</v>
+      </c>
+      <c r="E550" s="7">
+        <v>0</v>
+      </c>
+      <c r="F550" s="7">
+        <v>0</v>
+      </c>
+      <c r="G550" s="7">
+        <v>0</v>
+      </c>
+      <c r="H550" s="7">
+        <v>0</v>
+      </c>
+      <c r="I550" s="7">
+        <v>0</v>
+      </c>
+      <c r="J550" s="7">
+        <v>0</v>
+      </c>
+      <c r="K550" s="7">
+        <v>0</v>
+      </c>
+      <c r="L550" s="7">
+        <v>1</v>
+      </c>
+      <c r="M550" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D551" s="7">
+        <v>0</v>
+      </c>
+      <c r="E551" s="7">
+        <v>0</v>
+      </c>
+      <c r="F551" s="7">
+        <v>0</v>
+      </c>
+      <c r="G551" s="7">
+        <v>0</v>
+      </c>
+      <c r="H551" s="7">
+        <v>0</v>
+      </c>
+      <c r="I551" s="7">
+        <v>0</v>
+      </c>
+      <c r="J551" s="7">
+        <v>0</v>
+      </c>
+      <c r="K551" s="7">
+        <v>0</v>
+      </c>
+      <c r="L551" s="7">
+        <v>1</v>
+      </c>
+      <c r="M551" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D552" s="7">
+        <v>0</v>
+      </c>
+      <c r="E552" s="7">
+        <v>0</v>
+      </c>
+      <c r="F552" s="7">
+        <v>0</v>
+      </c>
+      <c r="G552" s="7">
+        <v>0</v>
+      </c>
+      <c r="H552" s="7">
+        <v>0</v>
+      </c>
+      <c r="I552" s="7">
+        <v>0</v>
+      </c>
+      <c r="J552" s="7">
+        <v>0</v>
+      </c>
+      <c r="K552" s="7">
+        <v>0</v>
+      </c>
+      <c r="L552" s="7">
+        <v>1</v>
+      </c>
+      <c r="M552" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D553" s="7">
+        <v>0</v>
+      </c>
+      <c r="E553" s="7">
+        <v>0</v>
+      </c>
+      <c r="F553" s="7">
+        <v>0</v>
+      </c>
+      <c r="G553" s="7">
+        <v>0</v>
+      </c>
+      <c r="H553" s="7">
+        <v>0</v>
+      </c>
+      <c r="I553" s="7">
+        <v>0</v>
+      </c>
+      <c r="J553" s="7">
+        <v>0</v>
+      </c>
+      <c r="K553" s="7">
+        <v>0</v>
+      </c>
+      <c r="L553" s="7">
+        <v>1</v>
+      </c>
+      <c r="M553" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D554" s="7">
+        <v>0</v>
+      </c>
+      <c r="E554" s="7">
+        <v>0</v>
+      </c>
+      <c r="F554" s="7">
+        <v>0</v>
+      </c>
+      <c r="G554" s="7">
+        <v>0</v>
+      </c>
+      <c r="H554" s="7">
+        <v>0</v>
+      </c>
+      <c r="I554" s="7">
+        <v>0</v>
+      </c>
+      <c r="J554" s="7">
+        <v>0</v>
+      </c>
+      <c r="K554" s="7">
+        <v>0</v>
+      </c>
+      <c r="L554" s="7">
+        <v>1</v>
+      </c>
+      <c r="M554" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D555" s="7">
+        <v>0</v>
+      </c>
+      <c r="E555" s="7">
+        <v>0</v>
+      </c>
+      <c r="F555" s="7">
+        <v>0</v>
+      </c>
+      <c r="G555" s="7">
+        <v>0</v>
+      </c>
+      <c r="H555" s="7">
+        <v>0</v>
+      </c>
+      <c r="I555" s="7">
+        <v>0</v>
+      </c>
+      <c r="J555" s="7">
+        <v>0</v>
+      </c>
+      <c r="K555" s="7">
+        <v>0</v>
+      </c>
+      <c r="L555" s="7">
+        <v>1</v>
+      </c>
+      <c r="M555" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D556" s="7">
+        <v>0</v>
+      </c>
+      <c r="E556" s="7">
+        <v>0</v>
+      </c>
+      <c r="F556" s="7">
+        <v>0</v>
+      </c>
+      <c r="G556" s="7">
+        <v>0</v>
+      </c>
+      <c r="H556" s="7">
+        <v>0</v>
+      </c>
+      <c r="I556" s="7">
+        <v>0</v>
+      </c>
+      <c r="J556" s="7">
+        <v>0</v>
+      </c>
+      <c r="K556" s="7">
+        <v>0</v>
+      </c>
+      <c r="L556" s="7">
+        <v>1</v>
+      </c>
+      <c r="M556" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D557" s="7">
+        <v>0</v>
+      </c>
+      <c r="E557" s="7">
+        <v>0</v>
+      </c>
+      <c r="F557" s="7">
+        <v>0</v>
+      </c>
+      <c r="G557" s="7">
+        <v>0</v>
+      </c>
+      <c r="H557" s="7">
+        <v>0</v>
+      </c>
+      <c r="I557" s="7">
+        <v>0</v>
+      </c>
+      <c r="J557" s="7">
+        <v>0</v>
+      </c>
+      <c r="K557" s="7">
+        <v>0</v>
+      </c>
+      <c r="L557" s="7">
+        <v>1</v>
+      </c>
+      <c r="M557" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D558" s="7">
+        <v>0</v>
+      </c>
+      <c r="E558" s="7">
+        <v>0</v>
+      </c>
+      <c r="F558" s="7">
+        <v>0</v>
+      </c>
+      <c r="G558" s="7">
+        <v>0</v>
+      </c>
+      <c r="H558" s="7">
+        <v>0</v>
+      </c>
+      <c r="I558" s="7">
+        <v>0</v>
+      </c>
+      <c r="J558" s="7">
+        <v>0</v>
+      </c>
+      <c r="K558" s="7">
+        <v>0</v>
+      </c>
+      <c r="L558" s="7">
+        <v>1</v>
+      </c>
+      <c r="M558" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D559" s="7">
+        <v>0</v>
+      </c>
+      <c r="E559" s="7">
+        <v>0</v>
+      </c>
+      <c r="F559" s="7">
+        <v>0</v>
+      </c>
+      <c r="G559" s="7">
+        <v>0</v>
+      </c>
+      <c r="H559" s="7">
+        <v>0</v>
+      </c>
+      <c r="I559" s="7">
+        <v>0</v>
+      </c>
+      <c r="J559" s="7">
+        <v>0</v>
+      </c>
+      <c r="K559" s="7">
+        <v>0</v>
+      </c>
+      <c r="L559" s="7">
+        <v>1</v>
+      </c>
+      <c r="M559" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D560" s="7">
+        <v>0</v>
+      </c>
+      <c r="E560" s="7">
+        <v>0</v>
+      </c>
+      <c r="F560" s="7">
+        <v>0</v>
+      </c>
+      <c r="G560" s="7">
+        <v>0</v>
+      </c>
+      <c r="H560" s="7">
+        <v>0</v>
+      </c>
+      <c r="I560" s="7">
+        <v>0</v>
+      </c>
+      <c r="J560" s="7">
+        <v>0</v>
+      </c>
+      <c r="K560" s="7">
+        <v>0</v>
+      </c>
+      <c r="L560" s="7">
+        <v>1</v>
+      </c>
+      <c r="M560" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D561" s="7">
+        <v>0</v>
+      </c>
+      <c r="E561" s="7">
+        <v>0</v>
+      </c>
+      <c r="F561" s="7">
+        <v>0</v>
+      </c>
+      <c r="G561" s="7">
+        <v>0</v>
+      </c>
+      <c r="H561" s="7">
+        <v>0</v>
+      </c>
+      <c r="I561" s="7">
+        <v>0</v>
+      </c>
+      <c r="J561" s="7">
+        <v>0</v>
+      </c>
+      <c r="K561" s="7">
+        <v>0</v>
+      </c>
+      <c r="L561" s="7">
+        <v>1</v>
+      </c>
+      <c r="M561" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D562" s="7">
+        <v>0</v>
+      </c>
+      <c r="E562" s="7">
+        <v>0</v>
+      </c>
+      <c r="F562" s="7">
+        <v>0</v>
+      </c>
+      <c r="G562" s="7">
+        <v>0</v>
+      </c>
+      <c r="H562" s="7">
+        <v>0</v>
+      </c>
+      <c r="I562" s="7">
+        <v>0</v>
+      </c>
+      <c r="J562" s="7">
+        <v>0</v>
+      </c>
+      <c r="K562" s="7">
+        <v>0</v>
+      </c>
+      <c r="L562" s="7">
+        <v>1</v>
+      </c>
+      <c r="M562" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D563" s="7">
+        <v>0</v>
+      </c>
+      <c r="E563" s="7">
+        <v>0</v>
+      </c>
+      <c r="F563" s="7">
+        <v>0</v>
+      </c>
+      <c r="G563" s="7">
+        <v>0</v>
+      </c>
+      <c r="H563" s="7">
+        <v>0</v>
+      </c>
+      <c r="I563" s="7">
+        <v>0</v>
+      </c>
+      <c r="J563" s="7">
+        <v>0</v>
+      </c>
+      <c r="K563" s="7">
+        <v>0</v>
+      </c>
+      <c r="L563" s="7">
+        <v>1</v>
+      </c>
+      <c r="M563" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D564" s="7">
+        <v>0</v>
+      </c>
+      <c r="E564" s="7">
+        <v>0</v>
+      </c>
+      <c r="F564" s="7">
+        <v>0</v>
+      </c>
+      <c r="G564" s="7">
+        <v>0</v>
+      </c>
+      <c r="H564" s="7">
+        <v>0</v>
+      </c>
+      <c r="I564" s="7">
+        <v>0</v>
+      </c>
+      <c r="J564" s="7">
+        <v>0</v>
+      </c>
+      <c r="K564" s="7">
+        <v>0</v>
+      </c>
+      <c r="L564" s="7">
+        <v>1</v>
+      </c>
+      <c r="M564" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D565" s="7">
+        <v>0</v>
+      </c>
+      <c r="E565" s="7">
+        <v>0</v>
+      </c>
+      <c r="F565" s="7">
+        <v>0</v>
+      </c>
+      <c r="G565" s="7">
+        <v>0</v>
+      </c>
+      <c r="H565" s="7">
+        <v>0</v>
+      </c>
+      <c r="I565" s="7">
+        <v>0</v>
+      </c>
+      <c r="J565" s="7">
+        <v>0</v>
+      </c>
+      <c r="K565" s="7">
+        <v>0</v>
+      </c>
+      <c r="L565" s="7">
+        <v>1</v>
+      </c>
+      <c r="M565" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D566" s="7">
+        <v>0</v>
+      </c>
+      <c r="E566" s="7">
+        <v>0</v>
+      </c>
+      <c r="F566" s="7">
+        <v>0</v>
+      </c>
+      <c r="G566" s="7">
+        <v>0</v>
+      </c>
+      <c r="H566" s="7">
+        <v>0</v>
+      </c>
+      <c r="I566" s="7">
+        <v>0</v>
+      </c>
+      <c r="J566" s="7">
+        <v>0</v>
+      </c>
+      <c r="K566" s="7">
+        <v>0</v>
+      </c>
+      <c r="L566" s="7">
+        <v>1</v>
+      </c>
+      <c r="M566" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D567" s="7">
+        <v>0</v>
+      </c>
+      <c r="E567" s="7">
+        <v>0</v>
+      </c>
+      <c r="F567" s="7">
+        <v>0</v>
+      </c>
+      <c r="G567" s="7">
+        <v>0</v>
+      </c>
+      <c r="H567" s="7">
+        <v>0</v>
+      </c>
+      <c r="I567" s="7">
+        <v>0</v>
+      </c>
+      <c r="J567" s="7">
+        <v>0</v>
+      </c>
+      <c r="K567" s="7">
+        <v>0</v>
+      </c>
+      <c r="L567" s="7">
+        <v>1</v>
+      </c>
+      <c r="M567" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D568" s="7">
+        <v>0</v>
+      </c>
+      <c r="E568" s="7">
+        <v>0</v>
+      </c>
+      <c r="F568" s="7">
+        <v>0</v>
+      </c>
+      <c r="G568" s="7">
+        <v>0</v>
+      </c>
+      <c r="H568" s="7">
+        <v>0</v>
+      </c>
+      <c r="I568" s="7">
+        <v>0</v>
+      </c>
+      <c r="J568" s="7">
+        <v>0</v>
+      </c>
+      <c r="K568" s="7">
+        <v>0</v>
+      </c>
+      <c r="L568" s="7">
+        <v>1</v>
+      </c>
+      <c r="M568" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D569" s="7">
+        <v>0</v>
+      </c>
+      <c r="E569" s="7">
+        <v>0</v>
+      </c>
+      <c r="F569" s="7">
+        <v>0</v>
+      </c>
+      <c r="G569" s="7">
+        <v>0</v>
+      </c>
+      <c r="H569" s="7">
+        <v>0</v>
+      </c>
+      <c r="I569" s="7">
+        <v>0</v>
+      </c>
+      <c r="J569" s="7">
+        <v>0</v>
+      </c>
+      <c r="K569" s="7">
+        <v>0</v>
+      </c>
+      <c r="L569" s="7">
+        <v>1</v>
+      </c>
+      <c r="M569" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D570" s="7">
+        <v>0</v>
+      </c>
+      <c r="E570" s="7">
+        <v>0</v>
+      </c>
+      <c r="F570" s="7">
+        <v>0</v>
+      </c>
+      <c r="G570" s="7">
+        <v>0</v>
+      </c>
+      <c r="H570" s="7">
+        <v>0</v>
+      </c>
+      <c r="I570" s="7">
+        <v>0</v>
+      </c>
+      <c r="J570" s="7">
+        <v>0</v>
+      </c>
+      <c r="K570" s="7">
+        <v>0</v>
+      </c>
+      <c r="L570" s="7">
+        <v>1</v>
+      </c>
+      <c r="M570" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D571" s="7">
+        <v>0</v>
+      </c>
+      <c r="E571" s="7">
+        <v>0</v>
+      </c>
+      <c r="F571" s="7">
+        <v>0</v>
+      </c>
+      <c r="G571" s="7">
+        <v>0</v>
+      </c>
+      <c r="H571" s="7">
+        <v>0</v>
+      </c>
+      <c r="I571" s="7">
+        <v>0</v>
+      </c>
+      <c r="J571" s="7">
+        <v>0</v>
+      </c>
+      <c r="K571" s="7">
+        <v>0</v>
+      </c>
+      <c r="L571" s="7">
+        <v>1</v>
+      </c>
+      <c r="M571" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D572" s="7">
+        <v>0</v>
+      </c>
+      <c r="E572" s="7">
+        <v>0</v>
+      </c>
+      <c r="F572" s="7">
+        <v>0</v>
+      </c>
+      <c r="G572" s="7">
+        <v>0</v>
+      </c>
+      <c r="H572" s="7">
+        <v>0</v>
+      </c>
+      <c r="I572" s="7">
+        <v>0</v>
+      </c>
+      <c r="J572" s="7">
+        <v>0</v>
+      </c>
+      <c r="K572" s="7">
+        <v>0</v>
+      </c>
+      <c r="L572" s="7">
+        <v>1</v>
+      </c>
+      <c r="M572" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D573" s="7">
+        <v>0</v>
+      </c>
+      <c r="E573" s="7">
+        <v>0</v>
+      </c>
+      <c r="F573" s="7">
+        <v>0</v>
+      </c>
+      <c r="G573" s="7">
+        <v>0</v>
+      </c>
+      <c r="H573" s="7">
+        <v>0</v>
+      </c>
+      <c r="I573" s="7">
+        <v>0</v>
+      </c>
+      <c r="J573" s="7">
+        <v>0</v>
+      </c>
+      <c r="K573" s="7">
+        <v>0</v>
+      </c>
+      <c r="L573" s="7">
+        <v>1</v>
+      </c>
+      <c r="M573" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D574" s="7">
+        <v>0</v>
+      </c>
+      <c r="E574" s="7">
+        <v>0</v>
+      </c>
+      <c r="F574" s="7">
+        <v>0</v>
+      </c>
+      <c r="G574" s="7">
+        <v>0</v>
+      </c>
+      <c r="H574" s="7">
+        <v>0</v>
+      </c>
+      <c r="I574" s="7">
+        <v>0</v>
+      </c>
+      <c r="J574" s="7">
+        <v>0</v>
+      </c>
+      <c r="K574" s="7">
+        <v>0</v>
+      </c>
+      <c r="L574" s="7">
+        <v>1</v>
+      </c>
+      <c r="M574" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D575" s="7">
+        <v>0</v>
+      </c>
+      <c r="E575" s="7">
+        <v>0</v>
+      </c>
+      <c r="F575" s="7">
+        <v>0</v>
+      </c>
+      <c r="G575" s="7">
+        <v>0</v>
+      </c>
+      <c r="H575" s="7">
+        <v>0</v>
+      </c>
+      <c r="I575" s="7">
+        <v>0</v>
+      </c>
+      <c r="J575" s="7">
+        <v>0</v>
+      </c>
+      <c r="K575" s="7">
+        <v>0</v>
+      </c>
+      <c r="L575" s="7">
+        <v>1</v>
+      </c>
+      <c r="M575" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D576" s="7">
+        <v>0</v>
+      </c>
+      <c r="E576" s="7">
+        <v>0</v>
+      </c>
+      <c r="F576" s="7">
+        <v>0</v>
+      </c>
+      <c r="G576" s="7">
+        <v>0</v>
+      </c>
+      <c r="H576" s="7">
+        <v>0</v>
+      </c>
+      <c r="I576" s="7">
+        <v>0</v>
+      </c>
+      <c r="J576" s="7">
+        <v>0</v>
+      </c>
+      <c r="K576" s="7">
+        <v>0</v>
+      </c>
+      <c r="L576" s="7">
+        <v>1</v>
+      </c>
+      <c r="M576" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D577" s="7">
+        <v>0</v>
+      </c>
+      <c r="E577" s="7">
+        <v>0</v>
+      </c>
+      <c r="F577" s="7">
+        <v>0</v>
+      </c>
+      <c r="G577" s="7">
+        <v>0</v>
+      </c>
+      <c r="H577" s="7">
+        <v>0</v>
+      </c>
+      <c r="I577" s="7">
+        <v>0</v>
+      </c>
+      <c r="J577" s="7">
+        <v>0</v>
+      </c>
+      <c r="K577" s="7">
+        <v>0</v>
+      </c>
+      <c r="L577" s="7">
+        <v>1</v>
+      </c>
+      <c r="M577" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D578" s="7">
+        <v>0</v>
+      </c>
+      <c r="E578" s="7">
+        <v>0</v>
+      </c>
+      <c r="F578" s="7">
+        <v>0</v>
+      </c>
+      <c r="G578" s="7">
+        <v>0</v>
+      </c>
+      <c r="H578" s="7">
+        <v>0</v>
+      </c>
+      <c r="I578" s="7">
+        <v>0</v>
+      </c>
+      <c r="J578" s="7">
+        <v>0</v>
+      </c>
+      <c r="K578" s="7">
+        <v>0</v>
+      </c>
+      <c r="L578" s="7">
+        <v>1</v>
+      </c>
+      <c r="M578" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D579" s="7">
+        <v>0</v>
+      </c>
+      <c r="E579" s="7">
+        <v>0</v>
+      </c>
+      <c r="F579" s="7">
+        <v>0</v>
+      </c>
+      <c r="G579" s="7">
+        <v>0</v>
+      </c>
+      <c r="H579" s="7">
+        <v>0</v>
+      </c>
+      <c r="I579" s="7">
+        <v>0</v>
+      </c>
+      <c r="J579" s="7">
+        <v>0</v>
+      </c>
+      <c r="K579" s="7">
+        <v>0</v>
+      </c>
+      <c r="L579" s="7">
+        <v>1</v>
+      </c>
+      <c r="M579" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D580" s="7">
+        <v>0</v>
+      </c>
+      <c r="E580" s="7">
+        <v>0</v>
+      </c>
+      <c r="F580" s="7">
+        <v>0</v>
+      </c>
+      <c r="G580" s="7">
+        <v>0</v>
+      </c>
+      <c r="H580" s="7">
+        <v>0</v>
+      </c>
+      <c r="I580" s="7">
+        <v>0</v>
+      </c>
+      <c r="J580" s="7">
+        <v>0</v>
+      </c>
+      <c r="K580" s="7">
+        <v>0</v>
+      </c>
+      <c r="L580" s="7">
+        <v>1</v>
+      </c>
+      <c r="M580" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D581" s="7">
+        <v>0</v>
+      </c>
+      <c r="E581" s="7">
+        <v>0</v>
+      </c>
+      <c r="F581" s="7">
+        <v>0</v>
+      </c>
+      <c r="G581" s="7">
+        <v>0</v>
+      </c>
+      <c r="H581" s="7">
+        <v>0</v>
+      </c>
+      <c r="I581" s="7">
+        <v>0</v>
+      </c>
+      <c r="J581" s="7">
+        <v>0</v>
+      </c>
+      <c r="K581" s="7">
+        <v>0</v>
+      </c>
+      <c r="L581" s="7">
+        <v>1</v>
+      </c>
+      <c r="M581" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D582" s="7">
+        <v>0</v>
+      </c>
+      <c r="E582" s="7">
+        <v>0</v>
+      </c>
+      <c r="F582" s="7">
+        <v>0</v>
+      </c>
+      <c r="G582" s="7">
+        <v>0</v>
+      </c>
+      <c r="H582" s="7">
+        <v>0</v>
+      </c>
+      <c r="I582" s="7">
+        <v>0</v>
+      </c>
+      <c r="J582" s="7">
+        <v>0</v>
+      </c>
+      <c r="K582" s="7">
+        <v>0</v>
+      </c>
+      <c r="L582" s="7">
+        <v>1</v>
+      </c>
+      <c r="M582" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D583" s="7">
+        <v>0</v>
+      </c>
+      <c r="E583" s="7">
+        <v>0</v>
+      </c>
+      <c r="F583" s="7">
+        <v>0</v>
+      </c>
+      <c r="G583" s="7">
+        <v>0</v>
+      </c>
+      <c r="H583" s="7">
+        <v>0</v>
+      </c>
+      <c r="I583" s="7">
+        <v>0</v>
+      </c>
+      <c r="J583" s="7">
+        <v>0</v>
+      </c>
+      <c r="K583" s="7">
+        <v>0</v>
+      </c>
+      <c r="L583" s="7">
+        <v>1</v>
+      </c>
+      <c r="M583" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D584" s="7">
+        <v>0</v>
+      </c>
+      <c r="E584" s="7">
+        <v>0</v>
+      </c>
+      <c r="F584" s="7">
+        <v>0</v>
+      </c>
+      <c r="G584" s="7">
+        <v>0</v>
+      </c>
+      <c r="H584" s="7">
+        <v>0</v>
+      </c>
+      <c r="I584" s="7">
+        <v>0</v>
+      </c>
+      <c r="J584" s="7">
+        <v>0</v>
+      </c>
+      <c r="K584" s="7">
+        <v>0</v>
+      </c>
+      <c r="L584" s="7">
+        <v>1</v>
+      </c>
+      <c r="M584" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D585" s="7">
+        <v>0</v>
+      </c>
+      <c r="E585" s="7">
+        <v>0</v>
+      </c>
+      <c r="F585" s="7">
+        <v>0</v>
+      </c>
+      <c r="G585" s="7">
+        <v>0</v>
+      </c>
+      <c r="H585" s="7">
+        <v>0</v>
+      </c>
+      <c r="I585" s="7">
+        <v>0</v>
+      </c>
+      <c r="J585" s="7">
+        <v>0</v>
+      </c>
+      <c r="K585" s="7">
+        <v>0</v>
+      </c>
+      <c r="L585" s="7">
+        <v>1</v>
+      </c>
+      <c r="M585" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D586" s="7">
+        <v>0</v>
+      </c>
+      <c r="E586" s="7">
+        <v>0</v>
+      </c>
+      <c r="F586" s="7">
+        <v>0</v>
+      </c>
+      <c r="G586" s="7">
+        <v>0</v>
+      </c>
+      <c r="H586" s="7">
+        <v>0</v>
+      </c>
+      <c r="I586" s="7">
+        <v>1</v>
+      </c>
+      <c r="J586" s="7">
+        <v>0</v>
+      </c>
+      <c r="K586" s="7">
+        <v>0</v>
+      </c>
+      <c r="L586" s="7">
+        <v>0</v>
+      </c>
+      <c r="M586" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D587" s="7">
+        <v>0</v>
+      </c>
+      <c r="E587" s="7">
+        <v>0</v>
+      </c>
+      <c r="F587" s="7">
+        <v>0</v>
+      </c>
+      <c r="G587" s="7">
+        <v>0</v>
+      </c>
+      <c r="H587" s="7">
+        <v>0</v>
+      </c>
+      <c r="I587" s="7">
+        <v>1</v>
+      </c>
+      <c r="J587" s="7">
+        <v>0</v>
+      </c>
+      <c r="K587" s="7">
+        <v>0</v>
+      </c>
+      <c r="L587" s="7">
+        <v>0</v>
+      </c>
+      <c r="M587" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>586</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D588" s="7">
+        <v>0</v>
+      </c>
+      <c r="E588" s="7">
+        <v>0</v>
+      </c>
+      <c r="F588" s="7">
+        <v>0</v>
+      </c>
+      <c r="G588" s="7">
+        <v>0</v>
+      </c>
+      <c r="H588" s="7">
+        <v>1</v>
+      </c>
+      <c r="I588" s="7">
+        <v>0</v>
+      </c>
+      <c r="J588" s="7">
+        <v>0</v>
+      </c>
+      <c r="K588" s="7">
+        <v>0</v>
+      </c>
+      <c r="L588" s="7">
+        <v>0</v>
+      </c>
+      <c r="M588" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D589" s="7">
+        <v>0</v>
+      </c>
+      <c r="E589" s="7">
+        <v>0</v>
+      </c>
+      <c r="F589" s="7">
+        <v>0</v>
+      </c>
+      <c r="G589" s="7">
+        <v>0</v>
+      </c>
+      <c r="H589" s="7">
+        <v>1</v>
+      </c>
+      <c r="I589" s="7">
+        <v>0</v>
+      </c>
+      <c r="J589" s="7">
+        <v>0</v>
+      </c>
+      <c r="K589" s="7">
+        <v>0</v>
+      </c>
+      <c r="L589" s="7">
+        <v>0</v>
+      </c>
+      <c r="M589" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D590" s="7">
+        <v>0</v>
+      </c>
+      <c r="E590" s="7">
+        <v>0</v>
+      </c>
+      <c r="F590" s="7">
+        <v>0</v>
+      </c>
+      <c r="G590" s="7">
+        <v>0</v>
+      </c>
+      <c r="H590" s="7">
+        <v>1</v>
+      </c>
+      <c r="I590" s="7">
+        <v>0</v>
+      </c>
+      <c r="J590" s="7">
+        <v>0</v>
+      </c>
+      <c r="K590" s="7">
+        <v>0</v>
+      </c>
+      <c r="L590" s="7">
+        <v>0</v>
+      </c>
+      <c r="M590" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D591" s="7">
+        <v>0</v>
+      </c>
+      <c r="E591" s="7">
+        <v>0</v>
+      </c>
+      <c r="F591" s="7">
+        <v>0</v>
+      </c>
+      <c r="G591" s="7">
+        <v>0</v>
+      </c>
+      <c r="H591" s="7">
+        <v>1</v>
+      </c>
+      <c r="I591" s="7">
+        <v>0</v>
+      </c>
+      <c r="J591" s="7">
+        <v>0</v>
+      </c>
+      <c r="K591" s="7">
+        <v>0</v>
+      </c>
+      <c r="L591" s="7">
+        <v>0</v>
+      </c>
+      <c r="M591" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D592" s="7">
+        <v>0</v>
+      </c>
+      <c r="E592" s="7">
+        <v>0</v>
+      </c>
+      <c r="F592" s="7">
+        <v>0</v>
+      </c>
+      <c r="G592" s="7">
+        <v>0</v>
+      </c>
+      <c r="H592" s="7">
+        <v>1</v>
+      </c>
+      <c r="I592" s="7">
+        <v>0</v>
+      </c>
+      <c r="J592" s="7">
+        <v>0</v>
+      </c>
+      <c r="K592" s="7">
+        <v>0</v>
+      </c>
+      <c r="L592" s="7">
+        <v>0</v>
+      </c>
+      <c r="M592" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D593" s="7">
+        <v>0</v>
+      </c>
+      <c r="E593" s="7">
+        <v>0</v>
+      </c>
+      <c r="F593" s="7">
+        <v>0</v>
+      </c>
+      <c r="G593" s="7">
+        <v>0</v>
+      </c>
+      <c r="H593" s="7">
+        <v>1</v>
+      </c>
+      <c r="I593" s="7">
+        <v>0</v>
+      </c>
+      <c r="J593" s="7">
+        <v>0</v>
+      </c>
+      <c r="K593" s="7">
+        <v>0</v>
+      </c>
+      <c r="L593" s="7">
+        <v>0</v>
+      </c>
+      <c r="M593" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D594" s="7">
+        <v>0</v>
+      </c>
+      <c r="E594" s="7">
+        <v>0</v>
+      </c>
+      <c r="F594" s="7">
+        <v>0</v>
+      </c>
+      <c r="G594" s="7">
+        <v>0</v>
+      </c>
+      <c r="H594" s="7">
+        <v>1</v>
+      </c>
+      <c r="I594" s="7">
+        <v>0</v>
+      </c>
+      <c r="J594" s="7">
+        <v>0</v>
+      </c>
+      <c r="K594" s="7">
+        <v>0</v>
+      </c>
+      <c r="L594" s="7">
+        <v>0</v>
+      </c>
+      <c r="M594" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D595" s="7">
+        <v>0</v>
+      </c>
+      <c r="E595" s="7">
+        <v>0</v>
+      </c>
+      <c r="F595" s="7">
+        <v>0</v>
+      </c>
+      <c r="G595" s="7">
+        <v>0</v>
+      </c>
+      <c r="H595" s="7">
+        <v>0</v>
+      </c>
+      <c r="I595" s="7">
+        <v>0</v>
+      </c>
+      <c r="J595" s="7">
+        <v>1</v>
+      </c>
+      <c r="K595" s="7">
+        <v>0</v>
+      </c>
+      <c r="L595" s="7">
+        <v>0</v>
+      </c>
+      <c r="M595" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D596" s="7">
+        <v>0</v>
+      </c>
+      <c r="E596" s="7">
+        <v>0</v>
+      </c>
+      <c r="F596" s="7">
+        <v>0</v>
+      </c>
+      <c r="G596" s="7">
+        <v>0</v>
+      </c>
+      <c r="H596" s="7">
+        <v>0</v>
+      </c>
+      <c r="I596" s="7">
+        <v>0</v>
+      </c>
+      <c r="J596" s="7">
+        <v>1</v>
+      </c>
+      <c r="K596" s="7">
+        <v>0</v>
+      </c>
+      <c r="L596" s="7">
+        <v>0</v>
+      </c>
+      <c r="M596" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D597" s="7">
+        <v>0</v>
+      </c>
+      <c r="E597" s="7">
+        <v>0</v>
+      </c>
+      <c r="F597" s="7">
+        <v>0</v>
+      </c>
+      <c r="G597" s="7">
+        <v>0</v>
+      </c>
+      <c r="H597" s="7">
+        <v>0</v>
+      </c>
+      <c r="I597" s="7">
+        <v>0</v>
+      </c>
+      <c r="J597" s="7">
+        <v>1</v>
+      </c>
+      <c r="K597" s="7">
+        <v>0</v>
+      </c>
+      <c r="L597" s="7">
+        <v>0</v>
+      </c>
+      <c r="M597" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D598" s="7">
+        <v>0</v>
+      </c>
+      <c r="E598" s="7">
+        <v>0</v>
+      </c>
+      <c r="F598" s="7">
+        <v>0</v>
+      </c>
+      <c r="G598" s="7">
+        <v>0</v>
+      </c>
+      <c r="H598" s="7">
+        <v>0</v>
+      </c>
+      <c r="I598" s="7">
+        <v>0</v>
+      </c>
+      <c r="J598" s="7">
+        <v>0</v>
+      </c>
+      <c r="K598" s="7">
+        <v>1</v>
+      </c>
+      <c r="L598" s="7">
+        <v>0</v>
+      </c>
+      <c r="M598" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D599" s="7">
+        <v>0</v>
+      </c>
+      <c r="E599" s="7">
+        <v>0</v>
+      </c>
+      <c r="F599" s="7">
+        <v>0</v>
+      </c>
+      <c r="G599" s="7">
+        <v>0</v>
+      </c>
+      <c r="H599" s="7">
+        <v>0</v>
+      </c>
+      <c r="I599" s="7">
+        <v>0</v>
+      </c>
+      <c r="J599" s="7">
+        <v>0</v>
+      </c>
+      <c r="K599" s="7">
+        <v>1</v>
+      </c>
+      <c r="L599" s="7">
+        <v>0</v>
+      </c>
+      <c r="M599" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
-  <conditionalFormatting sqref="D3:M359 D361:M371">
+  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M599">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17931,7 +26830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D372:M372">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17941,7 +26840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D372:M372">
+  <conditionalFormatting sqref="D373:M373">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17951,8 +26850,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D373:M373">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="D374:M375">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17961,7 +26860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D374:M375">
+  <conditionalFormatting sqref="D376:M376">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17971,7 +26870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:M376">
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17981,7 +26880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D377:M377">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -17991,7 +26890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D378:M379">
+  <conditionalFormatting sqref="D380:M380">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18001,7 +26900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D380:M380">
+  <conditionalFormatting sqref="D381:M381">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18011,7 +26910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D381:M381">
+  <conditionalFormatting sqref="D382:M382">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18021,7 +26920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D382:M382">
+  <conditionalFormatting sqref="D383:M383">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18031,18 +26930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D383:M383">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D384:M397">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F09F01-07A9-443C-A2AD-B8A71F7C75B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="402">
   <si>
     <t>route</t>
   </si>
@@ -1215,12 +1216,27 @@
   </si>
   <si>
     <t>/filter/list</t>
+  </si>
+  <si>
+    <t>/managementdashboard/delete</t>
+  </si>
+  <si>
+    <t>/managementdashboard/info</t>
+  </si>
+  <si>
+    <t>/managementdashboard/new</t>
+  </si>
+  <si>
+    <t>/managementdashboard/list</t>
+  </si>
+  <si>
+    <t>/managementdashboard/edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1590,12 +1606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M384"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17340,6 +17356,211 @@
         <v>1</v>
       </c>
       <c r="M384" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>383</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="7">
+        <v>1</v>
+      </c>
+      <c r="E385" s="7">
+        <v>1</v>
+      </c>
+      <c r="F385" s="7">
+        <v>1</v>
+      </c>
+      <c r="G385" s="7">
+        <v>1</v>
+      </c>
+      <c r="H385" s="7">
+        <v>1</v>
+      </c>
+      <c r="I385" s="7">
+        <v>1</v>
+      </c>
+      <c r="J385" s="7">
+        <v>1</v>
+      </c>
+      <c r="K385" s="7">
+        <v>1</v>
+      </c>
+      <c r="L385" s="7">
+        <v>1</v>
+      </c>
+      <c r="M385" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>384</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" s="7">
+        <v>1</v>
+      </c>
+      <c r="E386" s="7">
+        <v>1</v>
+      </c>
+      <c r="F386" s="7">
+        <v>1</v>
+      </c>
+      <c r="G386" s="7">
+        <v>1</v>
+      </c>
+      <c r="H386" s="7">
+        <v>1</v>
+      </c>
+      <c r="I386" s="7">
+        <v>1</v>
+      </c>
+      <c r="J386" s="7">
+        <v>1</v>
+      </c>
+      <c r="K386" s="7">
+        <v>1</v>
+      </c>
+      <c r="L386" s="7">
+        <v>1</v>
+      </c>
+      <c r="M386" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>385</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387" s="7">
+        <v>1</v>
+      </c>
+      <c r="E387" s="7">
+        <v>1</v>
+      </c>
+      <c r="F387" s="7">
+        <v>1</v>
+      </c>
+      <c r="G387" s="7">
+        <v>1</v>
+      </c>
+      <c r="H387" s="7">
+        <v>1</v>
+      </c>
+      <c r="I387" s="7">
+        <v>1</v>
+      </c>
+      <c r="J387" s="7">
+        <v>1</v>
+      </c>
+      <c r="K387" s="7">
+        <v>1</v>
+      </c>
+      <c r="L387" s="7">
+        <v>1</v>
+      </c>
+      <c r="M387" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>386</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="7">
+        <v>1</v>
+      </c>
+      <c r="E388" s="7">
+        <v>1</v>
+      </c>
+      <c r="F388" s="7">
+        <v>1</v>
+      </c>
+      <c r="G388" s="7">
+        <v>1</v>
+      </c>
+      <c r="H388" s="7">
+        <v>1</v>
+      </c>
+      <c r="I388" s="7">
+        <v>1</v>
+      </c>
+      <c r="J388" s="7">
+        <v>1</v>
+      </c>
+      <c r="K388" s="7">
+        <v>1</v>
+      </c>
+      <c r="L388" s="7">
+        <v>1</v>
+      </c>
+      <c r="M388" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>387</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="7">
+        <v>1</v>
+      </c>
+      <c r="E389" s="7">
+        <v>1</v>
+      </c>
+      <c r="F389" s="7">
+        <v>1</v>
+      </c>
+      <c r="G389" s="7">
+        <v>1</v>
+      </c>
+      <c r="H389" s="7">
+        <v>1</v>
+      </c>
+      <c r="I389" s="7">
+        <v>1</v>
+      </c>
+      <c r="J389" s="7">
+        <v>1</v>
+      </c>
+      <c r="K389" s="7">
+        <v>1</v>
+      </c>
+      <c r="L389" s="7">
+        <v>1</v>
+      </c>
+      <c r="M389" s="7">
         <v>1</v>
       </c>
     </row>
@@ -17464,7 +17685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D384:M384">
+  <conditionalFormatting sqref="D384:M389">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\wi-project\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780FE01B-F433-4156-B8EF-A469A06D7972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D55B0A-D377-4B57-A2C7-A3B6CF251807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="616">
   <si>
     <t>route</t>
   </si>
@@ -2256,16 +2256,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M604"/>
+  <dimension ref="A1:M603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R600" sqref="R600"/>
+      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B505" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
@@ -22930,10 +22930,10 @@
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>410</v>
@@ -22945,10 +22945,10 @@
         <v>0</v>
       </c>
       <c r="F505" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G505" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H505" s="7">
         <v>0</v>
@@ -22971,10 +22971,10 @@
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>410</v>
@@ -23012,10 +23012,10 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>410</v>
@@ -23053,10 +23053,10 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>410</v>
@@ -23094,10 +23094,10 @@
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>410</v>
@@ -23135,10 +23135,10 @@
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>410</v>
@@ -23176,10 +23176,10 @@
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>410</v>
@@ -23217,10 +23217,10 @@
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>410</v>
@@ -23258,10 +23258,10 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>410</v>
@@ -23299,10 +23299,10 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>410</v>
@@ -23340,10 +23340,10 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>410</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="F515" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" s="7">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="L515" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M515" s="7">
         <v>0</v>
@@ -23381,10 +23381,10 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>410</v>
@@ -23422,10 +23422,10 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>410</v>
@@ -23463,10 +23463,10 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>410</v>
@@ -23504,10 +23504,10 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>410</v>
@@ -23545,10 +23545,10 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>410</v>
@@ -23586,10 +23586,10 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>410</v>
@@ -23627,10 +23627,10 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>410</v>
@@ -23668,10 +23668,10 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>410</v>
@@ -23709,10 +23709,10 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>410</v>
@@ -23750,10 +23750,10 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>410</v>
@@ -23791,10 +23791,10 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>410</v>
@@ -23832,10 +23832,10 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>410</v>
@@ -23873,10 +23873,10 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>410</v>
@@ -23914,10 +23914,10 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>410</v>
@@ -23955,10 +23955,10 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>410</v>
@@ -23996,10 +23996,10 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>410</v>
@@ -24037,10 +24037,10 @@
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>410</v>
@@ -24078,10 +24078,10 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>410</v>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>410</v>
@@ -24160,10 +24160,10 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>410</v>
@@ -24201,10 +24201,10 @@
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>410</v>
@@ -24242,10 +24242,10 @@
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>410</v>
@@ -24283,10 +24283,10 @@
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>410</v>
@@ -24324,10 +24324,10 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>410</v>
@@ -24365,10 +24365,10 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>410</v>
@@ -24406,10 +24406,10 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>410</v>
@@ -24447,10 +24447,10 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>410</v>
@@ -24488,10 +24488,10 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>410</v>
@@ -24529,10 +24529,10 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>410</v>
@@ -24570,10 +24570,10 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>410</v>
@@ -24611,10 +24611,10 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>410</v>
@@ -24652,10 +24652,10 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>410</v>
@@ -24693,10 +24693,10 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>410</v>
@@ -24734,10 +24734,10 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>410</v>
@@ -24775,10 +24775,10 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>410</v>
@@ -24816,10 +24816,10 @@
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>410</v>
@@ -24857,10 +24857,10 @@
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>410</v>
@@ -24898,10 +24898,10 @@
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>410</v>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>410</v>
@@ -24980,10 +24980,10 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>410</v>
@@ -25021,10 +25021,10 @@
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>410</v>
@@ -25062,10 +25062,10 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>410</v>
@@ -25103,10 +25103,10 @@
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>410</v>
@@ -25144,10 +25144,10 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>410</v>
@@ -25185,10 +25185,10 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>410</v>
@@ -25226,10 +25226,10 @@
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>410</v>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>410</v>
@@ -25308,10 +25308,10 @@
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>410</v>
@@ -25349,10 +25349,10 @@
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>410</v>
@@ -25390,10 +25390,10 @@
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>410</v>
@@ -25431,10 +25431,10 @@
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>410</v>
@@ -25472,10 +25472,10 @@
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>410</v>
@@ -25513,10 +25513,10 @@
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>410</v>
@@ -25554,10 +25554,10 @@
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>410</v>
@@ -25595,10 +25595,10 @@
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>410</v>
@@ -25636,10 +25636,10 @@
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>410</v>
@@ -25677,10 +25677,10 @@
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>410</v>
@@ -25718,10 +25718,10 @@
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>410</v>
@@ -25759,10 +25759,10 @@
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>410</v>
@@ -25800,10 +25800,10 @@
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>410</v>
@@ -25841,10 +25841,10 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>410</v>
@@ -25882,10 +25882,10 @@
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>410</v>
@@ -25923,10 +25923,10 @@
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>410</v>
@@ -25964,10 +25964,10 @@
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>410</v>
@@ -26005,10 +26005,10 @@
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>410</v>
@@ -26046,10 +26046,10 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>410</v>
@@ -26087,10 +26087,10 @@
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>410</v>
@@ -26128,10 +26128,10 @@
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>410</v>
@@ -26169,10 +26169,10 @@
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>410</v>
@@ -26210,10 +26210,10 @@
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>410</v>
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
       <c r="I585" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" s="7">
         <v>0</v>
@@ -26243,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="L585" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M585" s="7">
         <v>0</v>
@@ -26251,10 +26251,10 @@
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>410</v>
@@ -26290,14 +26290,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C587" s="1" t="s">
+    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C587" s="7" t="s">
         <v>410</v>
       </c>
       <c r="D587" s="7">
@@ -26313,10 +26313,10 @@
         <v>0</v>
       </c>
       <c r="H587" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I587" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J587" s="7">
         <v>0</v>
@@ -26331,14 +26331,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="7">
-        <v>586</v>
-      </c>
-      <c r="B588" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C588" s="7" t="s">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C588" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D588" s="7">
@@ -26374,10 +26374,10 @@
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>410</v>
@@ -26415,10 +26415,10 @@
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>410</v>
@@ -26456,10 +26456,10 @@
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>410</v>
@@ -26497,10 +26497,10 @@
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>410</v>
@@ -26538,10 +26538,10 @@
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>410</v>
@@ -26579,10 +26579,10 @@
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>410</v>
@@ -26600,13 +26600,13 @@
         <v>0</v>
       </c>
       <c r="H594" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" s="7">
         <v>0</v>
       </c>
       <c r="J594" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K594" s="7">
         <v>0</v>
@@ -26620,10 +26620,10 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>410</v>
@@ -26661,10 +26661,10 @@
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>410</v>
@@ -26702,10 +26702,10 @@
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>410</v>
@@ -26729,10 +26729,10 @@
         <v>0</v>
       </c>
       <c r="J597" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K597" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L597" s="7">
         <v>0</v>
@@ -26743,10 +26743,10 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>410</v>
@@ -26784,51 +26784,51 @@
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>597</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="D599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K599" s="7">
         <v>1</v>
       </c>
       <c r="L599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>12</v>
@@ -26866,10 +26866,10 @@
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>12</v>
@@ -26907,10 +26907,10 @@
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>12</v>
@@ -26948,10 +26948,10 @@
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>12</v>
@@ -26984,53 +26984,12 @@
         <v>1</v>
       </c>
       <c r="M603" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
-        <v>602</v>
-      </c>
-      <c r="B604" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D604" s="7">
-        <v>1</v>
-      </c>
-      <c r="E604" s="7">
-        <v>1</v>
-      </c>
-      <c r="F604" s="7">
-        <v>1</v>
-      </c>
-      <c r="G604" s="7">
-        <v>1</v>
-      </c>
-      <c r="H604" s="7">
-        <v>1</v>
-      </c>
-      <c r="I604" s="7">
-        <v>1</v>
-      </c>
-      <c r="J604" s="7">
-        <v>1</v>
-      </c>
-      <c r="K604" s="7">
-        <v>1</v>
-      </c>
-      <c r="L604" s="7">
-        <v>1</v>
-      </c>
-      <c r="M604" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
-  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M599">
+  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M598">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27160,7 +27119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D600:M600">
+  <conditionalFormatting sqref="D599:M599">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27170,7 +27129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D601:M601">
+  <conditionalFormatting sqref="D600:M600">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27180,7 +27139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D602:M602">
+  <conditionalFormatting sqref="D601:M601">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27190,7 +27149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D603:M603">
+  <conditionalFormatting sqref="D602:M602">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27200,7 +27159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D604:M604">
+  <conditionalFormatting sqref="D603:M603">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D55B0A-D377-4B57-A2C7-A3B6CF251807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F055E-F2AC-472D-AC67-9B63286F756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="618">
   <si>
     <t>route</t>
   </si>
@@ -1882,6 +1882,12 @@
   </si>
   <si>
     <t>/managementdashboard/list</t>
+  </si>
+  <si>
+    <t>/project/add-share-session</t>
+  </si>
+  <si>
+    <t>/project/remove-share-session</t>
   </si>
 </sst>
 </file>
@@ -2256,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M603"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B505" sqref="B505"/>
+      <pane ySplit="2" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26984,6 +26990,88 @@
         <v>1</v>
       </c>
       <c r="M603" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A604" s="3">
+        <v>603</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" s="3">
+        <v>1</v>
+      </c>
+      <c r="G604" s="3">
+        <v>1</v>
+      </c>
+      <c r="H604" s="3">
+        <v>1</v>
+      </c>
+      <c r="I604" s="3">
+        <v>1</v>
+      </c>
+      <c r="J604" s="3">
+        <v>1</v>
+      </c>
+      <c r="K604" s="3">
+        <v>1</v>
+      </c>
+      <c r="L604" s="3">
+        <v>1</v>
+      </c>
+      <c r="M604" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A605" s="3">
+        <v>604</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605" s="3">
+        <v>1</v>
+      </c>
+      <c r="G605" s="3">
+        <v>1</v>
+      </c>
+      <c r="H605" s="3">
+        <v>1</v>
+      </c>
+      <c r="I605" s="3">
+        <v>1</v>
+      </c>
+      <c r="J605" s="3">
+        <v>1</v>
+      </c>
+      <c r="K605" s="3">
+        <v>1</v>
+      </c>
+      <c r="L605" s="3">
+        <v>1</v>
+      </c>
+      <c r="M605" s="3">
         <v>1</v>
       </c>
     </row>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Revotech\i2g\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F055E-F2AC-472D-AC67-9B63286F756A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C50DA8-16A0-4660-913D-AC98DFE982D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="619">
   <si>
     <t>route</t>
   </si>
@@ -1888,6 +1888,9 @@
   </si>
   <si>
     <t>/project/remove-share-session</t>
+  </si>
+  <si>
+    <t>Multi-MineralSolverBasementButton</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1901,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2262,21 +2265,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M605"/>
+  <dimension ref="A1:M606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
+      <pane ySplit="2" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G505" sqref="G505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2311,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7231,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8789,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9527,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12028,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12479,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12725,7 +12728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -13176,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13258,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13299,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13463,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13504,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13545,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -13668,7 +13671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13832,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13914,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14119,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14201,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14488,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14529,7 +14532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14570,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14652,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14734,7 +14737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14775,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14816,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14939,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14980,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15144,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15349,7 +15352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15390,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15431,7 +15434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15636,7 +15639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15677,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15718,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15759,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15800,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15923,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16046,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16087,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16128,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16210,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16251,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16292,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16333,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16374,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16456,7 +16459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16497,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16538,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16620,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16702,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16743,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16784,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16825,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16866,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16907,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16948,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16989,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -17030,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -17071,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -17194,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -17317,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -17358,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -17399,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -17440,7 +17443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -17481,7 +17484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -17522,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -17563,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -17604,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -17645,7 +17648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -17686,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -17768,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -17891,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -17973,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18014,7 +18017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18055,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18096,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18137,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18178,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18219,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18260,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18301,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18342,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18383,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18424,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18506,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18547,7 +18550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18588,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18629,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18670,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -18793,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -18834,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -18875,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -18916,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -18957,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19039,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19080,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19121,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19162,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19244,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19326,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19367,7 +19370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19408,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19490,7 +19493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19531,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19695,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19736,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19777,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19818,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19859,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19900,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19982,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -20023,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -20064,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -20105,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -20187,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -20228,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -20310,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -20351,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -20392,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -20433,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -20515,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -20556,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -20597,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -20638,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -20679,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -20720,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -20761,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -20802,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -20843,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -20884,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -20925,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -20966,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -21007,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -21048,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -21089,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -21130,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -21171,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -21212,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -21253,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -21294,7 +21297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -21376,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -21417,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -21458,7 +21461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -21499,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -21540,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -21581,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -21622,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -21663,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -21704,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -21745,7 +21748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -21786,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -21827,7 +21830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -21868,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -21909,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -21950,7 +21953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -21991,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -22073,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -22114,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -22237,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -22278,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -22319,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -22360,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -22401,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -22442,7 +22445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -22483,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -22524,7 +22527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -22565,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -22606,7 +22609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -22647,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -22688,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -22729,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -22770,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -22852,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -22893,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -22934,12 +22937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>504</v>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505" s="3">
+        <v>503</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>410</v>
@@ -22951,10 +22954,10 @@
         <v>0</v>
       </c>
       <c r="F505" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H505" s="7">
         <v>0</v>
@@ -22975,12 +22978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>410</v>
@@ -23016,12 +23019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>410</v>
@@ -23057,12 +23060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>410</v>
@@ -23098,12 +23101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>410</v>
@@ -23139,12 +23142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>410</v>
@@ -23180,12 +23183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>410</v>
@@ -23221,12 +23224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>410</v>
@@ -23262,12 +23265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>410</v>
@@ -23303,12 +23306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>410</v>
@@ -23344,12 +23347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>410</v>
@@ -23361,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="F515" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G515" s="7">
         <v>0</v>
@@ -23379,18 +23382,18 @@
         <v>0</v>
       </c>
       <c r="L515" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M515" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>410</v>
@@ -23426,12 +23429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>410</v>
@@ -23467,12 +23470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>410</v>
@@ -23508,12 +23511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>410</v>
@@ -23549,12 +23552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>410</v>
@@ -23590,12 +23593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>410</v>
@@ -23631,12 +23634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>410</v>
@@ -23672,12 +23675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>410</v>
@@ -23713,12 +23716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>410</v>
@@ -23754,12 +23757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>410</v>
@@ -23795,12 +23798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>410</v>
@@ -23836,12 +23839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>410</v>
@@ -23877,12 +23880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>410</v>
@@ -23918,12 +23921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>410</v>
@@ -23959,12 +23962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>410</v>
@@ -24000,12 +24003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>410</v>
@@ -24041,12 +24044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>410</v>
@@ -24082,12 +24085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>410</v>
@@ -24123,12 +24126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>410</v>
@@ -24164,12 +24167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>410</v>
@@ -24205,12 +24208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>410</v>
@@ -24246,12 +24249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>410</v>
@@ -24287,12 +24290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>410</v>
@@ -24328,12 +24331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>410</v>
@@ -24369,12 +24372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>410</v>
@@ -24410,12 +24413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>410</v>
@@ -24451,12 +24454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>410</v>
@@ -24492,12 +24495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>410</v>
@@ -24533,12 +24536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>410</v>
@@ -24574,12 +24577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>410</v>
@@ -24615,12 +24618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>410</v>
@@ -24656,12 +24659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>410</v>
@@ -24697,12 +24700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>410</v>
@@ -24738,12 +24741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>410</v>
@@ -24779,12 +24782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>410</v>
@@ -24820,12 +24823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>410</v>
@@ -24861,12 +24864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>410</v>
@@ -24902,12 +24905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>410</v>
@@ -24943,12 +24946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>410</v>
@@ -24984,12 +24987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>410</v>
@@ -25025,12 +25028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>410</v>
@@ -25066,12 +25069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>410</v>
@@ -25107,12 +25110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>410</v>
@@ -25148,12 +25151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>410</v>
@@ -25189,12 +25192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>410</v>
@@ -25230,12 +25233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>410</v>
@@ -25271,12 +25274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>410</v>
@@ -25312,12 +25315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>410</v>
@@ -25353,12 +25356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>410</v>
@@ -25394,12 +25397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>410</v>
@@ -25435,12 +25438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>410</v>
@@ -25476,12 +25479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>410</v>
@@ -25517,12 +25520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>410</v>
@@ -25558,12 +25561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>410</v>
@@ -25599,12 +25602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>410</v>
@@ -25640,12 +25643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>410</v>
@@ -25681,12 +25684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>410</v>
@@ -25722,12 +25725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>410</v>
@@ -25763,12 +25766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>410</v>
@@ -25804,12 +25807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>410</v>
@@ -25845,12 +25848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>410</v>
@@ -25886,12 +25889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>410</v>
@@ -25927,12 +25930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>410</v>
@@ -25968,12 +25971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>410</v>
@@ -26009,12 +26012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>410</v>
@@ -26050,12 +26053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>410</v>
@@ -26091,12 +26094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>410</v>
@@ -26132,12 +26135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>410</v>
@@ -26173,12 +26176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>410</v>
@@ -26214,12 +26217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>410</v>
@@ -26240,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="I585" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J585" s="7">
         <v>0</v>
@@ -26249,18 +26252,18 @@
         <v>0</v>
       </c>
       <c r="L585" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M585" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>410</v>
@@ -26296,94 +26299,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="7">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D587" s="7">
+        <v>0</v>
+      </c>
+      <c r="E587" s="7">
+        <v>0</v>
+      </c>
+      <c r="F587" s="7">
+        <v>0</v>
+      </c>
+      <c r="G587" s="7">
+        <v>0</v>
+      </c>
+      <c r="H587" s="7">
+        <v>0</v>
+      </c>
+      <c r="I587" s="7">
+        <v>1</v>
+      </c>
+      <c r="J587" s="7">
+        <v>0</v>
+      </c>
+      <c r="K587" s="7">
+        <v>0</v>
+      </c>
+      <c r="L587" s="7">
+        <v>0</v>
+      </c>
+      <c r="M587" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
         <v>586</v>
       </c>
-      <c r="B587" s="7" t="s">
+      <c r="B588" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C587" s="7" t="s">
+      <c r="C588" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D587" s="7">
-        <v>0</v>
-      </c>
-      <c r="E587" s="7">
-        <v>0</v>
-      </c>
-      <c r="F587" s="7">
-        <v>0</v>
-      </c>
-      <c r="G587" s="7">
-        <v>0</v>
-      </c>
-      <c r="H587" s="7">
-        <v>1</v>
-      </c>
-      <c r="I587" s="7">
-        <v>0</v>
-      </c>
-      <c r="J587" s="7">
-        <v>0</v>
-      </c>
-      <c r="K587" s="7">
-        <v>0</v>
-      </c>
-      <c r="L587" s="7">
-        <v>0</v>
-      </c>
-      <c r="M587" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A588" s="1">
+      <c r="D588" s="7">
+        <v>0</v>
+      </c>
+      <c r="E588" s="7">
+        <v>0</v>
+      </c>
+      <c r="F588" s="7">
+        <v>0</v>
+      </c>
+      <c r="G588" s="7">
+        <v>0</v>
+      </c>
+      <c r="H588" s="7">
+        <v>1</v>
+      </c>
+      <c r="I588" s="7">
+        <v>0</v>
+      </c>
+      <c r="J588" s="7">
+        <v>0</v>
+      </c>
+      <c r="K588" s="7">
+        <v>0</v>
+      </c>
+      <c r="L588" s="7">
+        <v>0</v>
+      </c>
+      <c r="M588" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="B589" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="C588" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D588" s="7">
-        <v>0</v>
-      </c>
-      <c r="E588" s="7">
-        <v>0</v>
-      </c>
-      <c r="F588" s="7">
-        <v>0</v>
-      </c>
-      <c r="G588" s="7">
-        <v>0</v>
-      </c>
-      <c r="H588" s="7">
-        <v>1</v>
-      </c>
-      <c r="I588" s="7">
-        <v>0</v>
-      </c>
-      <c r="J588" s="7">
-        <v>0</v>
-      </c>
-      <c r="K588" s="7">
-        <v>0</v>
-      </c>
-      <c r="L588" s="7">
-        <v>0</v>
-      </c>
-      <c r="M588" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A589" s="1">
-        <v>588</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>410</v>
@@ -26419,12 +26422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>410</v>
@@ -26460,12 +26463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>410</v>
@@ -26501,12 +26504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>410</v>
@@ -26542,12 +26545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>410</v>
@@ -26583,12 +26586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>410</v>
@@ -26606,13 +26609,13 @@
         <v>0</v>
       </c>
       <c r="H594" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I594" s="7">
         <v>0</v>
       </c>
       <c r="J594" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K594" s="7">
         <v>0</v>
@@ -26624,12 +26627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>410</v>
@@ -26665,12 +26668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>410</v>
@@ -26706,12 +26709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>410</v>
@@ -26735,10 +26738,10 @@
         <v>0</v>
       </c>
       <c r="J597" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K597" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L597" s="7">
         <v>0</v>
@@ -26747,12 +26750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>410</v>
@@ -26788,296 +26791,347 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D599" s="7">
+        <v>0</v>
+      </c>
+      <c r="E599" s="7">
+        <v>0</v>
+      </c>
+      <c r="F599" s="7">
+        <v>0</v>
+      </c>
+      <c r="G599" s="7">
+        <v>0</v>
+      </c>
+      <c r="H599" s="7">
+        <v>0</v>
+      </c>
+      <c r="I599" s="7">
+        <v>0</v>
+      </c>
+      <c r="J599" s="7">
+        <v>0</v>
+      </c>
+      <c r="K599" s="7">
+        <v>1</v>
+      </c>
+      <c r="L599" s="7">
+        <v>0</v>
+      </c>
+      <c r="M599" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B599" s="4" t="s">
+      <c r="B600" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C599" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D599" s="7">
-        <v>1</v>
-      </c>
-      <c r="E599" s="7">
-        <v>1</v>
-      </c>
-      <c r="F599" s="7">
-        <v>1</v>
-      </c>
-      <c r="G599" s="7">
-        <v>1</v>
-      </c>
-      <c r="H599" s="7">
-        <v>1</v>
-      </c>
-      <c r="I599" s="7">
-        <v>1</v>
-      </c>
-      <c r="J599" s="7">
-        <v>1</v>
-      </c>
-      <c r="K599" s="7">
-        <v>1</v>
-      </c>
-      <c r="L599" s="7">
-        <v>1</v>
-      </c>
-      <c r="M599" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A600" s="1">
+      <c r="C600" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D600" s="7">
+        <v>1</v>
+      </c>
+      <c r="E600" s="7">
+        <v>1</v>
+      </c>
+      <c r="F600" s="7">
+        <v>1</v>
+      </c>
+      <c r="G600" s="7">
+        <v>1</v>
+      </c>
+      <c r="H600" s="7">
+        <v>1</v>
+      </c>
+      <c r="I600" s="7">
+        <v>1</v>
+      </c>
+      <c r="J600" s="7">
+        <v>1</v>
+      </c>
+      <c r="K600" s="7">
+        <v>1</v>
+      </c>
+      <c r="L600" s="7">
+        <v>1</v>
+      </c>
+      <c r="M600" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B600" s="4" t="s">
+      <c r="B601" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C600" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D600" s="7">
-        <v>1</v>
-      </c>
-      <c r="E600" s="7">
-        <v>1</v>
-      </c>
-      <c r="F600" s="7">
-        <v>1</v>
-      </c>
-      <c r="G600" s="7">
-        <v>1</v>
-      </c>
-      <c r="H600" s="7">
-        <v>1</v>
-      </c>
-      <c r="I600" s="7">
-        <v>1</v>
-      </c>
-      <c r="J600" s="7">
-        <v>1</v>
-      </c>
-      <c r="K600" s="7">
-        <v>1</v>
-      </c>
-      <c r="L600" s="7">
-        <v>1</v>
-      </c>
-      <c r="M600" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A601" s="1">
+      <c r="C601" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D601" s="7">
+        <v>1</v>
+      </c>
+      <c r="E601" s="7">
+        <v>1</v>
+      </c>
+      <c r="F601" s="7">
+        <v>1</v>
+      </c>
+      <c r="G601" s="7">
+        <v>1</v>
+      </c>
+      <c r="H601" s="7">
+        <v>1</v>
+      </c>
+      <c r="I601" s="7">
+        <v>1</v>
+      </c>
+      <c r="J601" s="7">
+        <v>1</v>
+      </c>
+      <c r="K601" s="7">
+        <v>1</v>
+      </c>
+      <c r="L601" s="7">
+        <v>1</v>
+      </c>
+      <c r="M601" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B601" s="4" t="s">
+      <c r="B602" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C601" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D601" s="7">
-        <v>1</v>
-      </c>
-      <c r="E601" s="7">
-        <v>1</v>
-      </c>
-      <c r="F601" s="7">
-        <v>1</v>
-      </c>
-      <c r="G601" s="7">
-        <v>1</v>
-      </c>
-      <c r="H601" s="7">
-        <v>1</v>
-      </c>
-      <c r="I601" s="7">
-        <v>1</v>
-      </c>
-      <c r="J601" s="7">
-        <v>1</v>
-      </c>
-      <c r="K601" s="7">
-        <v>1</v>
-      </c>
-      <c r="L601" s="7">
-        <v>1</v>
-      </c>
-      <c r="M601" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
+      <c r="C602" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D602" s="7">
+        <v>1</v>
+      </c>
+      <c r="E602" s="7">
+        <v>1</v>
+      </c>
+      <c r="F602" s="7">
+        <v>1</v>
+      </c>
+      <c r="G602" s="7">
+        <v>1</v>
+      </c>
+      <c r="H602" s="7">
+        <v>1</v>
+      </c>
+      <c r="I602" s="7">
+        <v>1</v>
+      </c>
+      <c r="J602" s="7">
+        <v>1</v>
+      </c>
+      <c r="K602" s="7">
+        <v>1</v>
+      </c>
+      <c r="L602" s="7">
+        <v>1</v>
+      </c>
+      <c r="M602" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B602" s="4" t="s">
+      <c r="B603" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C602" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D602" s="7">
-        <v>1</v>
-      </c>
-      <c r="E602" s="7">
-        <v>1</v>
-      </c>
-      <c r="F602" s="7">
-        <v>1</v>
-      </c>
-      <c r="G602" s="7">
-        <v>1</v>
-      </c>
-      <c r="H602" s="7">
-        <v>1</v>
-      </c>
-      <c r="I602" s="7">
-        <v>1</v>
-      </c>
-      <c r="J602" s="7">
-        <v>1</v>
-      </c>
-      <c r="K602" s="7">
-        <v>1</v>
-      </c>
-      <c r="L602" s="7">
-        <v>1</v>
-      </c>
-      <c r="M602" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A603" s="1">
+      <c r="C603" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603" s="7">
+        <v>1</v>
+      </c>
+      <c r="E603" s="7">
+        <v>1</v>
+      </c>
+      <c r="F603" s="7">
+        <v>1</v>
+      </c>
+      <c r="G603" s="7">
+        <v>1</v>
+      </c>
+      <c r="H603" s="7">
+        <v>1</v>
+      </c>
+      <c r="I603" s="7">
+        <v>1</v>
+      </c>
+      <c r="J603" s="7">
+        <v>1</v>
+      </c>
+      <c r="K603" s="7">
+        <v>1</v>
+      </c>
+      <c r="L603" s="7">
+        <v>1</v>
+      </c>
+      <c r="M603" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B603" s="4" t="s">
+      <c r="B604" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C603" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D603" s="7">
-        <v>1</v>
-      </c>
-      <c r="E603" s="7">
-        <v>1</v>
-      </c>
-      <c r="F603" s="7">
-        <v>1</v>
-      </c>
-      <c r="G603" s="7">
-        <v>1</v>
-      </c>
-      <c r="H603" s="7">
-        <v>1</v>
-      </c>
-      <c r="I603" s="7">
-        <v>1</v>
-      </c>
-      <c r="J603" s="7">
-        <v>1</v>
-      </c>
-      <c r="K603" s="7">
-        <v>1</v>
-      </c>
-      <c r="L603" s="7">
-        <v>1</v>
-      </c>
-      <c r="M603" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A604" s="3">
+      <c r="C604" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604" s="7">
+        <v>1</v>
+      </c>
+      <c r="E604" s="7">
+        <v>1</v>
+      </c>
+      <c r="F604" s="7">
+        <v>1</v>
+      </c>
+      <c r="G604" s="7">
+        <v>1</v>
+      </c>
+      <c r="H604" s="7">
+        <v>1</v>
+      </c>
+      <c r="I604" s="7">
+        <v>1</v>
+      </c>
+      <c r="J604" s="7">
+        <v>1</v>
+      </c>
+      <c r="K604" s="7">
+        <v>1</v>
+      </c>
+      <c r="L604" s="7">
+        <v>1</v>
+      </c>
+      <c r="M604" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A605" s="3">
         <v>603</v>
       </c>
-      <c r="B604" s="3" t="s">
+      <c r="B605" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C604" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D604">
-        <v>1</v>
-      </c>
-      <c r="E604">
-        <v>1</v>
-      </c>
-      <c r="F604" s="3">
-        <v>1</v>
-      </c>
-      <c r="G604" s="3">
-        <v>1</v>
-      </c>
-      <c r="H604" s="3">
-        <v>1</v>
-      </c>
-      <c r="I604" s="3">
-        <v>1</v>
-      </c>
-      <c r="J604" s="3">
-        <v>1</v>
-      </c>
-      <c r="K604" s="3">
-        <v>1</v>
-      </c>
-      <c r="L604" s="3">
-        <v>1</v>
-      </c>
-      <c r="M604" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A605" s="3">
+      <c r="C605" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605" s="3">
+        <v>1</v>
+      </c>
+      <c r="G605" s="3">
+        <v>1</v>
+      </c>
+      <c r="H605" s="3">
+        <v>1</v>
+      </c>
+      <c r="I605" s="3">
+        <v>1</v>
+      </c>
+      <c r="J605" s="3">
+        <v>1</v>
+      </c>
+      <c r="K605" s="3">
+        <v>1</v>
+      </c>
+      <c r="L605" s="3">
+        <v>1</v>
+      </c>
+      <c r="M605" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A606" s="3">
         <v>604</v>
       </c>
-      <c r="B605" s="3" t="s">
+      <c r="B606" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C605" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D605">
-        <v>1</v>
-      </c>
-      <c r="E605">
-        <v>1</v>
-      </c>
-      <c r="F605" s="3">
-        <v>1</v>
-      </c>
-      <c r="G605" s="3">
-        <v>1</v>
-      </c>
-      <c r="H605" s="3">
-        <v>1</v>
-      </c>
-      <c r="I605" s="3">
-        <v>1</v>
-      </c>
-      <c r="J605" s="3">
-        <v>1</v>
-      </c>
-      <c r="K605" s="3">
-        <v>1</v>
-      </c>
-      <c r="L605" s="3">
-        <v>1</v>
-      </c>
-      <c r="M605" s="3">
+      <c r="C606" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606" s="3">
+        <v>1</v>
+      </c>
+      <c r="G606" s="3">
+        <v>1</v>
+      </c>
+      <c r="H606" s="3">
+        <v>1</v>
+      </c>
+      <c r="I606" s="3">
+        <v>1</v>
+      </c>
+      <c r="J606" s="3">
+        <v>1</v>
+      </c>
+      <c r="K606" s="3">
+        <v>1</v>
+      </c>
+      <c r="L606" s="3">
+        <v>1</v>
+      </c>
+      <c r="M606" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
-  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M598">
+  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M599">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27087,7 +27141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D372:M372">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27097,7 +27151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D372:M372">
+  <conditionalFormatting sqref="D373:M373">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27107,8 +27161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D373:M373">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="D374:M375">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -27117,7 +27171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D374:M375">
+  <conditionalFormatting sqref="D376:M376">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27127,7 +27181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:M376">
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27137,7 +27191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D377:M377">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27147,7 +27201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D378:M379">
+  <conditionalFormatting sqref="D380:M380">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27157,7 +27211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D380:M380">
+  <conditionalFormatting sqref="D381:M381">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27167,7 +27221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D381:M381">
+  <conditionalFormatting sqref="D382:M382">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27177,7 +27231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D382:M382">
+  <conditionalFormatting sqref="D383:M383">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27187,8 +27241,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D383:M383">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="D384:M397">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -27197,8 +27251,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D384:M397">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D600:M600">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -27207,7 +27261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D599:M599">
+  <conditionalFormatting sqref="D601:M601">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27217,7 +27271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D600:M600">
+  <conditionalFormatting sqref="D602:M602">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27227,7 +27281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D601:M601">
+  <conditionalFormatting sqref="D603:M603">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27237,7 +27291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D602:M602">
+  <conditionalFormatting sqref="D604:M604">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27247,7 +27301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D603:M603">
+  <conditionalFormatting sqref="D505:M505">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Revotech\i2g\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C50DA8-16A0-4660-913D-AC98DFE982D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608DBC1-A3C1-4583-B531-FE5547087B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="618">
   <si>
     <t>route</t>
   </si>
@@ -1585,9 +1585,6 @@
   </si>
   <si>
     <t>CutoffandSummationButton</t>
-  </si>
-  <si>
-    <t>Multi-MineralSolverToolbar</t>
   </si>
   <si>
     <t>Multi-MineralSolverButton</t>
@@ -2265,17 +2262,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M606"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G505" sqref="G505"/>
+      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G504" sqref="G504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22897,8 +22894,8 @@
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>502</v>
+      <c r="A504" s="3">
+        <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>517</v>
@@ -22938,8 +22935,8 @@
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A505" s="3">
-        <v>503</v>
+      <c r="A505" s="1">
+        <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>518</v>
@@ -22954,10 +22951,10 @@
         <v>0</v>
       </c>
       <c r="F505" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G505" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H505" s="7">
         <v>0</v>
@@ -22980,10 +22977,10 @@
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>410</v>
@@ -23021,10 +23018,10 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>460</v>
+        <v>617</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>410</v>
@@ -23062,10 +23059,10 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>410</v>
@@ -23103,7 +23100,7 @@
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>520</v>
@@ -23144,7 +23141,7 @@
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>521</v>
@@ -23185,7 +23182,7 @@
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>522</v>
@@ -23226,7 +23223,7 @@
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>523</v>
@@ -23267,7 +23264,7 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>524</v>
@@ -23308,7 +23305,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>525</v>
@@ -23349,10 +23346,10 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>410</v>
@@ -23364,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="F515" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" s="7">
         <v>0</v>
@@ -23382,7 +23379,7 @@
         <v>0</v>
       </c>
       <c r="L515" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M515" s="7">
         <v>0</v>
@@ -23390,10 +23387,10 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>410</v>
@@ -23431,10 +23428,10 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>410</v>
@@ -23472,10 +23469,10 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>410</v>
@@ -23513,7 +23510,7 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>528</v>
@@ -23554,7 +23551,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>529</v>
@@ -23595,7 +23592,7 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>530</v>
@@ -23636,10 +23633,10 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>410</v>
@@ -23677,7 +23674,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>570</v>
@@ -23718,10 +23715,10 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>410</v>
@@ -23759,10 +23756,10 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>410</v>
@@ -23800,7 +23797,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>572</v>
@@ -23841,7 +23838,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>573</v>
@@ -23882,7 +23879,7 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>574</v>
@@ -23923,7 +23920,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>575</v>
@@ -23964,10 +23961,10 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>410</v>
@@ -24005,7 +24002,7 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>533</v>
@@ -24046,7 +24043,7 @@
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>534</v>
@@ -24087,7 +24084,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>535</v>
@@ -24128,7 +24125,7 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>536</v>
@@ -24169,7 +24166,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>537</v>
@@ -24210,7 +24207,7 @@
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>538</v>
@@ -24251,7 +24248,7 @@
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>539</v>
@@ -24292,7 +24289,7 @@
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>540</v>
@@ -24333,7 +24330,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>541</v>
@@ -24374,7 +24371,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>542</v>
@@ -24415,7 +24412,7 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>543</v>
@@ -24456,7 +24453,7 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>544</v>
@@ -24497,7 +24494,7 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>545</v>
@@ -24538,7 +24535,7 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>546</v>
@@ -24579,7 +24576,7 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>547</v>
@@ -24620,7 +24617,7 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>548</v>
@@ -24661,7 +24658,7 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>549</v>
@@ -24702,7 +24699,7 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>550</v>
@@ -24743,7 +24740,7 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>551</v>
@@ -24784,7 +24781,7 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>552</v>
@@ -24825,7 +24822,7 @@
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>553</v>
@@ -24866,7 +24863,7 @@
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>554</v>
@@ -24907,7 +24904,7 @@
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>555</v>
@@ -24948,7 +24945,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>556</v>
@@ -24989,10 +24986,10 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>410</v>
@@ -25030,10 +25027,10 @@
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>410</v>
@@ -25071,7 +25068,7 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>558</v>
@@ -25112,7 +25109,7 @@
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>559</v>
@@ -25153,10 +25150,10 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>410</v>
@@ -25194,7 +25191,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>578</v>
@@ -25235,7 +25232,7 @@
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>579</v>
@@ -25276,7 +25273,7 @@
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>580</v>
@@ -25317,10 +25314,10 @@
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>410</v>
@@ -25358,10 +25355,10 @@
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>410</v>
@@ -25399,7 +25396,7 @@
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>582</v>
@@ -25440,7 +25437,7 @@
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>583</v>
@@ -25481,7 +25478,7 @@
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>584</v>
@@ -25522,7 +25519,7 @@
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>585</v>
@@ -25563,7 +25560,7 @@
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>586</v>
@@ -25604,7 +25601,7 @@
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>587</v>
@@ -25645,7 +25642,7 @@
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>588</v>
@@ -25686,7 +25683,7 @@
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>589</v>
@@ -25727,7 +25724,7 @@
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>590</v>
@@ -25768,10 +25765,10 @@
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>410</v>
@@ -25809,7 +25806,7 @@
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>562</v>
@@ -25850,7 +25847,7 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>563</v>
@@ -25891,7 +25888,7 @@
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>564</v>
@@ -25932,7 +25929,7 @@
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>565</v>
@@ -25973,7 +25970,7 @@
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>566</v>
@@ -26014,10 +26011,10 @@
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>410</v>
@@ -26055,7 +26052,7 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>592</v>
@@ -26096,7 +26093,7 @@
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>593</v>
@@ -26137,7 +26134,7 @@
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>594</v>
@@ -26178,7 +26175,7 @@
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>595</v>
@@ -26219,7 +26216,7 @@
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>596</v>
@@ -26243,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="I585" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" s="7">
         <v>0</v>
@@ -26252,7 +26249,7 @@
         <v>0</v>
       </c>
       <c r="L585" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M585" s="7">
         <v>0</v>
@@ -26260,7 +26257,7 @@
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>597</v>
@@ -26299,55 +26296,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587" s="1" t="s">
+    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D587" s="7">
+        <v>0</v>
+      </c>
+      <c r="E587" s="7">
+        <v>0</v>
+      </c>
+      <c r="F587" s="7">
+        <v>0</v>
+      </c>
+      <c r="G587" s="7">
+        <v>0</v>
+      </c>
+      <c r="H587" s="7">
+        <v>1</v>
+      </c>
+      <c r="I587" s="7">
+        <v>0</v>
+      </c>
+      <c r="J587" s="7">
+        <v>0</v>
+      </c>
+      <c r="K587" s="7">
+        <v>0</v>
+      </c>
+      <c r="L587" s="7">
+        <v>0</v>
+      </c>
+      <c r="M587" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C587" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D587" s="7">
-        <v>0</v>
-      </c>
-      <c r="E587" s="7">
-        <v>0</v>
-      </c>
-      <c r="F587" s="7">
-        <v>0</v>
-      </c>
-      <c r="G587" s="7">
-        <v>0</v>
-      </c>
-      <c r="H587" s="7">
-        <v>0</v>
-      </c>
-      <c r="I587" s="7">
-        <v>1</v>
-      </c>
-      <c r="J587" s="7">
-        <v>0</v>
-      </c>
-      <c r="K587" s="7">
-        <v>0</v>
-      </c>
-      <c r="L587" s="7">
-        <v>0</v>
-      </c>
-      <c r="M587" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="7">
-        <v>586</v>
-      </c>
-      <c r="B588" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C588" s="7" t="s">
+      <c r="C588" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D588" s="7">
@@ -26383,7 +26380,7 @@
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>599</v>
@@ -26424,7 +26421,7 @@
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>600</v>
@@ -26465,7 +26462,7 @@
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>601</v>
@@ -26506,7 +26503,7 @@
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>602</v>
@@ -26547,7 +26544,7 @@
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>603</v>
@@ -26588,7 +26585,7 @@
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>604</v>
@@ -26609,13 +26606,13 @@
         <v>0</v>
       </c>
       <c r="H594" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" s="7">
         <v>0</v>
       </c>
       <c r="J594" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K594" s="7">
         <v>0</v>
@@ -26629,7 +26626,7 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>605</v>
@@ -26670,7 +26667,7 @@
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>606</v>
@@ -26711,7 +26708,7 @@
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>607</v>
@@ -26738,10 +26735,10 @@
         <v>0</v>
       </c>
       <c r="J597" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K597" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L597" s="7">
         <v>0</v>
@@ -26752,7 +26749,7 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>608</v>
@@ -26793,48 +26790,48 @@
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>597</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="D599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K599" s="7">
         <v>1</v>
       </c>
       <c r="L599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M599" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>611</v>
@@ -26875,7 +26872,7 @@
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>612</v>
@@ -26916,7 +26913,7 @@
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>613</v>
@@ -26957,7 +26954,7 @@
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>614</v>
@@ -26997,49 +26994,49 @@
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A604" s="1">
-        <v>602</v>
-      </c>
-      <c r="B604" s="4" t="s">
+      <c r="A604" s="3">
+        <v>603</v>
+      </c>
+      <c r="B604" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C604" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D604" s="7">
-        <v>1</v>
-      </c>
-      <c r="E604" s="7">
-        <v>1</v>
-      </c>
-      <c r="F604" s="7">
-        <v>1</v>
-      </c>
-      <c r="G604" s="7">
-        <v>1</v>
-      </c>
-      <c r="H604" s="7">
-        <v>1</v>
-      </c>
-      <c r="I604" s="7">
-        <v>1</v>
-      </c>
-      <c r="J604" s="7">
-        <v>1</v>
-      </c>
-      <c r="K604" s="7">
-        <v>1</v>
-      </c>
-      <c r="L604" s="7">
-        <v>1</v>
-      </c>
-      <c r="M604" s="7">
+      <c r="C604" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" s="3">
+        <v>1</v>
+      </c>
+      <c r="G604" s="3">
+        <v>1</v>
+      </c>
+      <c r="H604" s="3">
+        <v>1</v>
+      </c>
+      <c r="I604" s="3">
+        <v>1</v>
+      </c>
+      <c r="J604" s="3">
+        <v>1</v>
+      </c>
+      <c r="K604" s="3">
+        <v>1</v>
+      </c>
+      <c r="L604" s="3">
+        <v>1</v>
+      </c>
+      <c r="M604" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>616</v>
@@ -27078,50 +27075,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A606" s="3">
-        <v>604</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C606" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D606">
-        <v>1</v>
-      </c>
-      <c r="E606">
-        <v>1</v>
-      </c>
-      <c r="F606" s="3">
-        <v>1</v>
-      </c>
-      <c r="G606" s="3">
-        <v>1</v>
-      </c>
-      <c r="H606" s="3">
-        <v>1</v>
-      </c>
-      <c r="I606" s="3">
-        <v>1</v>
-      </c>
-      <c r="J606" s="3">
-        <v>1</v>
-      </c>
-      <c r="K606" s="3">
-        <v>1</v>
-      </c>
-      <c r="L606" s="3">
-        <v>1</v>
-      </c>
-      <c r="M606" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
-  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M599">
+  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M598">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27251,7 +27207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D600:M600">
+  <conditionalFormatting sqref="D599:M599">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27261,7 +27217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D601:M601">
+  <conditionalFormatting sqref="D600:M600">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27271,7 +27227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D602:M602">
+  <conditionalFormatting sqref="D601:M601">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27281,7 +27237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D603:M603">
+  <conditionalFormatting sqref="D602:M602">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27291,7 +27247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D604:M604">
+  <conditionalFormatting sqref="D603:M603">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27301,7 +27257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D505:M505">
+  <conditionalFormatting sqref="D504:M504">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Revotech\i2g\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin\workspace\wi-auth\server\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608DBC1-A3C1-4583-B531-FE5547087B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890B7D3-4888-406B-B833-67989FA09F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="619">
   <si>
     <t>route</t>
   </si>
@@ -1888,6 +1888,9 @@
   </si>
   <si>
     <t>Multi-MineralSolverBasementButton</t>
+  </si>
+  <si>
+    <t>MachineLearningApplicationButton</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1901,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2262,21 +2265,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M605"/>
+  <dimension ref="A1:M606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G504" sqref="G504"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2311,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4454,37 +4457,37 @@
         <v>12</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4495,37 +4498,37 @@
         <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4536,37 +4539,37 @@
         <v>12</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4577,37 +4580,37 @@
         <v>12</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4618,37 +4621,37 @@
         <v>12</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7231,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8789,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9527,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12028,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12479,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12725,7 +12728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -13176,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13258,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13299,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13463,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13504,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13545,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -13668,7 +13671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13832,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13914,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14119,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14201,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14488,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14529,7 +14532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14570,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14652,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14734,7 +14737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14775,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14816,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14939,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14980,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15144,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15349,7 +15352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15390,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15431,7 +15434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15636,7 +15639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15677,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15718,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15759,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15800,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15923,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16046,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16087,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16128,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16210,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16251,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16292,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16333,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16374,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16456,7 +16459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16497,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16538,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16620,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16702,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16743,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16784,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16825,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16866,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16907,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16948,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16989,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -17030,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -17071,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -17194,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -17317,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -17358,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -17399,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -17440,7 +17443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -17481,7 +17484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -17522,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -17563,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -17604,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -17645,7 +17648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -17686,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -17768,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -17891,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -17973,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18014,7 +18017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18055,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18096,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18137,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18178,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18219,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18260,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18301,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18342,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18383,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18424,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18506,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18547,7 +18550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18588,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18629,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18670,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -18793,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -18834,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -18875,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -18916,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -18957,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19039,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19080,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19121,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19162,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19244,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19326,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19367,7 +19370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19408,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19490,7 +19493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19531,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19695,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19736,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19777,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19818,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19859,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19900,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19982,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -20023,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -20064,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -20105,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -20187,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -20228,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -20310,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -20351,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -20392,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -20433,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -20515,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -20556,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -20597,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -20638,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -20679,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -20720,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -20761,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -20802,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -20843,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -20884,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -20925,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -20966,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -21007,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -21048,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -21089,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -21130,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -21171,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -21212,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -21253,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -21294,7 +21297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -21376,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -21417,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -21458,7 +21461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -21499,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -21540,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -21581,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -21622,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -21663,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -21704,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -21745,7 +21748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -21786,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -21827,7 +21830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -21868,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -21909,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -21950,7 +21953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -21991,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -22073,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -22114,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -22237,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -22278,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -22319,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -22360,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -22401,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -22442,7 +22445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -22483,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -22524,7 +22527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -22565,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -22606,7 +22609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -22647,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -22688,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -22729,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -22770,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -22852,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -22893,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>503</v>
       </c>
@@ -22934,7 +22937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -22975,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -23016,7 +23019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -23098,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -23139,7 +23142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -23180,7 +23183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -23221,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -23262,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -23303,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -23344,7 +23347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -23385,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -23426,7 +23429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -23467,7 +23470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -23508,7 +23511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -23549,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -23590,7 +23593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -23631,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -23672,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -23713,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -23754,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -23795,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -23836,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -23877,7 +23880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -23918,7 +23921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -23959,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -24000,7 +24003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -24041,7 +24044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -24082,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -24123,7 +24126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -24164,7 +24167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -24205,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -24246,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -24287,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -24328,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -24369,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -24410,7 +24413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -24451,7 +24454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -24492,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -24533,7 +24536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -24574,7 +24577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -24615,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -24656,7 +24659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -24697,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -24738,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -24779,7 +24782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -24820,7 +24823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -24861,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -24902,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -24943,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -24984,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -25066,7 +25069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -25107,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -25148,7 +25151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -25189,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -25230,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -25271,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -25312,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -25353,7 +25356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -25394,7 +25397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -25435,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -25476,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -25517,7 +25520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -25558,7 +25561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -25599,7 +25602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -25640,7 +25643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -25681,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -25722,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -25763,7 +25766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -25804,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -25845,7 +25848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -25886,7 +25889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -25927,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -25968,7 +25971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -26009,7 +26012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -26050,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -26091,7 +26094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -26132,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -26173,7 +26176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -26214,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -26255,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -26296,7 +26299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="7">
         <v>586</v>
       </c>
@@ -26337,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -26378,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -26419,7 +26422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -26460,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -26501,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -26542,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -26583,7 +26586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -26624,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -26665,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -26706,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -26747,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -26788,7 +26791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -26829,7 +26832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -26870,7 +26873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -26911,7 +26914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -26952,7 +26955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -26993,7 +26996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>603</v>
       </c>
@@ -27034,7 +27037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>604</v>
       </c>
@@ -27075,9 +27078,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A606" s="3">
+        <v>605</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606" s="3">
+        <v>0</v>
+      </c>
+      <c r="G606" s="3">
+        <v>0</v>
+      </c>
+      <c r="H606" s="3">
+        <v>0</v>
+      </c>
+      <c r="I606" s="3">
+        <v>0</v>
+      </c>
+      <c r="J606" s="3">
+        <v>1</v>
+      </c>
+      <c r="K606" s="3">
+        <v>0</v>
+      </c>
+      <c r="L606" s="3">
+        <v>0</v>
+      </c>
+      <c r="M606" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
-  <conditionalFormatting sqref="D3:M359 D361:M371 D398:M598">
+  <conditionalFormatting sqref="D361:M371 D398:M598 D3:M359">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin\workspace\wi-auth\server\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoang/workspace/revotech/wi-auth/server/license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890B7D3-4888-406B-B833-67989FA09F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73615A8E-7306-3A4B-B75C-40B046619388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="620">
   <si>
     <t>route</t>
   </si>
@@ -1891,6 +1891,9 @@
   </si>
   <si>
     <t>MachineLearningApplicationButton</t>
+  </si>
+  <si>
+    <t>WI_PROCESSING</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1985,6 +1988,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,21 +2271,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M606"/>
+  <dimension ref="A1:M607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2314,7 +2320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5184,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5799,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6127,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6496,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6619,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6947,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7029,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7316,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7562,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7644,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7685,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8054,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8259,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8341,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8628,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8669,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8710,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8751,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8792,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8833,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8874,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9038,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9161,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9202,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9243,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9366,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9489,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9571,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9612,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9694,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9776,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9817,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9858,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9899,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9981,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10063,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10186,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10268,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10432,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10473,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10514,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10555,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10596,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10678,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10719,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10760,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10801,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10842,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10883,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10924,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10965,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11088,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11170,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11252,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11293,7 +11299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11334,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11416,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11457,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11498,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11539,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11580,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11662,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11703,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11785,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11826,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11867,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11990,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12031,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12113,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12154,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12236,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12277,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12359,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12400,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12482,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12523,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12564,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12605,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12646,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12687,7 +12693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12728,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12769,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12810,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12851,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12892,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12933,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12974,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13015,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -13056,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -13138,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -13179,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13220,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13261,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13302,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13343,7 +13349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13384,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13425,7 +13431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13466,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13507,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13589,7 +13595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13630,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13712,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13753,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13794,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13835,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13876,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13917,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13999,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14040,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14081,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14122,7 +14128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14163,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14286,7 +14292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14327,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14368,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14409,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14491,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14532,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14573,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14614,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14696,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14737,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14778,7 +14784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14860,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14901,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14942,7 +14948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14983,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15024,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15065,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15106,7 +15112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15147,7 +15153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15188,7 +15194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15229,7 +15235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15311,7 +15317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15352,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15393,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15434,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15475,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15516,7 +15522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15557,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15639,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15680,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15721,7 +15727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15762,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15803,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15844,7 +15850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15885,7 +15891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15926,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16008,7 +16014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16049,7 +16055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16090,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16131,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16172,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16213,7 +16219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16254,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16295,7 +16301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16336,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16377,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16418,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16459,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16500,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16582,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16623,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16664,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16705,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16746,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16787,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16828,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16869,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16910,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16951,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16992,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -17033,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -17074,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -17115,7 +17121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -17156,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -17197,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -17320,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -17361,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -17402,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -17443,7 +17449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -17484,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -17525,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -17566,7 +17572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -17607,7 +17613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -17648,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -17689,7 +17695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -17730,7 +17736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -17771,7 +17777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -17853,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -17894,7 +17900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -17935,7 +17941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -17976,7 +17982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18017,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18058,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18099,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18181,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18222,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18263,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18304,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18345,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18386,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18427,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18468,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18509,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18591,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18632,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18673,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18714,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18755,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -18796,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -18837,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -18919,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -18960,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -19001,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19042,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19083,7 +19089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19124,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19165,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19206,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19247,7 +19253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19288,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19329,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19370,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19411,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19452,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19493,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19534,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19575,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19616,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19657,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19698,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19739,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19780,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19821,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19862,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19903,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19944,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19985,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -20026,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -20067,7 +20073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -20108,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -20149,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -20190,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -20231,7 +20237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -20272,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -20313,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -20354,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -20395,7 +20401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -20436,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -20477,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -20518,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -20559,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -20600,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -20641,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -20682,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -20723,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -20764,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -20805,7 +20811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -20846,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -20887,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -20928,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -20969,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -21051,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -21092,7 +21098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -21133,7 +21139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -21174,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -21215,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -21256,7 +21262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -21297,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -21338,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -21379,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -21420,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -21461,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -21543,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -21584,7 +21590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -21625,7 +21631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -21666,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -21707,7 +21713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -21748,7 +21754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -21789,7 +21795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -21830,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -21871,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -21912,7 +21918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -21953,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -21994,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -22035,7 +22041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -22076,7 +22082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -22117,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -22158,7 +22164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -22199,7 +22205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -22240,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -22281,7 +22287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -22322,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -22363,7 +22369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -22404,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -22445,7 +22451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -22486,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -22527,7 +22533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -22568,7 +22574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -22609,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -22650,7 +22656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -22691,7 +22697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -22732,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -22773,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -22814,7 +22820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -22855,7 +22861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -22896,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>503</v>
       </c>
@@ -22937,7 +22943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -22978,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -23019,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -23060,7 +23066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -23101,7 +23107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -23142,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -23183,7 +23189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -23224,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -23265,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -23306,7 +23312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -23347,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -23388,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -23429,7 +23435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -23470,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -23511,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -23552,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -23593,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -23634,7 +23640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -23675,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -23716,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -23757,7 +23763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -23798,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -23839,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -23880,7 +23886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -23921,7 +23927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -23962,7 +23968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -24003,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -24044,7 +24050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -24085,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -24126,7 +24132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -24167,7 +24173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -24208,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -24249,7 +24255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -24290,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -24331,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -24372,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -24413,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -24454,7 +24460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -24495,7 +24501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -24536,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -24577,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -24618,7 +24624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -24659,7 +24665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -24700,7 +24706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -24741,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -24782,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -24823,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -24864,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -24905,7 +24911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -24946,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -24987,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -25028,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -25069,7 +25075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -25110,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -25151,7 +25157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -25192,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -25233,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -25274,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -25315,7 +25321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -25356,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -25397,7 +25403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -25438,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -25479,7 +25485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -25520,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -25561,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -25602,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -25643,7 +25649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -25684,7 +25690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -25725,7 +25731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -25766,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -25807,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -25848,7 +25854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -25889,7 +25895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -25930,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -25971,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -26012,7 +26018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -26053,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -26094,7 +26100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -26135,7 +26141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -26176,7 +26182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -26217,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -26258,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -26299,7 +26305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>586</v>
       </c>
@@ -26340,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -26381,7 +26387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -26422,7 +26428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -26463,7 +26469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -26504,7 +26510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -26545,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -26586,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -26627,7 +26633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -26668,7 +26674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -26709,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -26750,7 +26756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -26791,7 +26797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -26832,7 +26838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -26873,7 +26879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -26914,7 +26920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -26955,7 +26961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -26996,7 +27002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>603</v>
       </c>
@@ -27037,7 +27043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>604</v>
       </c>
@@ -27078,7 +27084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>605</v>
       </c>
@@ -27117,11 +27123,62 @@
       </c>
       <c r="M606" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="1">
+        <v>1</v>
+      </c>
+      <c r="E607" s="1">
+        <v>1</v>
+      </c>
+      <c r="F607" s="1">
+        <v>1</v>
+      </c>
+      <c r="G607" s="1">
+        <v>1</v>
+      </c>
+      <c r="H607" s="1">
+        <v>1</v>
+      </c>
+      <c r="I607" s="1">
+        <v>1</v>
+      </c>
+      <c r="J607" s="1">
+        <v>1</v>
+      </c>
+      <c r="K607" s="1">
+        <v>1</v>
+      </c>
+      <c r="L607" s="1">
+        <v>1</v>
+      </c>
+      <c r="M607" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M397" xr:uid="{507722B7-2DF1-4316-9624-323B77695059}"/>
   <conditionalFormatting sqref="D361:M371 D398:M598 D3:M359">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:M360">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27131,7 +27188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D360:M360">
+  <conditionalFormatting sqref="D372:M372">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27141,7 +27198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D372:M372">
+  <conditionalFormatting sqref="D373:M373">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27151,8 +27208,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D373:M373">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="D374:M375">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -27161,7 +27218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D374:M375">
+  <conditionalFormatting sqref="D376:M376">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27171,7 +27228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:M376">
+  <conditionalFormatting sqref="D377:M377">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27181,7 +27238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D377:M377">
+  <conditionalFormatting sqref="D378:M379">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27191,7 +27248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D378:M379">
+  <conditionalFormatting sqref="D380:M380">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27201,7 +27258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D380:M380">
+  <conditionalFormatting sqref="D381:M381">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27211,7 +27268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D381:M381">
+  <conditionalFormatting sqref="D382:M382">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27221,7 +27278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D382:M382">
+  <conditionalFormatting sqref="D383:M383">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27231,18 +27288,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D383:M383">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D384:M397">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -27252,6 +27299,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D599:M599">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D600:M600">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27261,7 +27318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D600:M600">
+  <conditionalFormatting sqref="D601:M601">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27271,7 +27328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D601:M601">
+  <conditionalFormatting sqref="D602:M602">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27281,7 +27338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D602:M602">
+  <conditionalFormatting sqref="D603:M603">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27291,7 +27348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D603:M603">
+  <conditionalFormatting sqref="D504:M504">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -27301,7 +27358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D504:M504">
+  <conditionalFormatting sqref="D607:M607">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoang/workspace/revotech/wi-auth/server/license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73615A8E-7306-3A4B-B75C-40B046619388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45465CE-FBD4-4642-9C3A-750020B167CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feature_api!$A$2:$M$397</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="621">
   <si>
     <t>route</t>
   </si>
@@ -1894,6 +1896,9 @@
   </si>
   <si>
     <t>WI_PROCESSING</t>
+  </si>
+  <si>
+    <t>/export/wellheader</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1990,6 +1995,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,11 +2279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M607"/>
+  <dimension ref="A1:M608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
+      <pane ySplit="2" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N608" sqref="N608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27163,6 +27171,47 @@
         <v>1</v>
       </c>
       <c r="M607" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A608" s="3">
+        <v>607</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" s="10">
+        <v>1</v>
+      </c>
+      <c r="G608" s="10">
+        <v>1</v>
+      </c>
+      <c r="H608" s="10">
+        <v>1</v>
+      </c>
+      <c r="I608" s="10">
+        <v>1</v>
+      </c>
+      <c r="J608" s="10">
+        <v>1</v>
+      </c>
+      <c r="K608" s="10">
+        <v>1</v>
+      </c>
+      <c r="L608" s="10">
+        <v>1</v>
+      </c>
+      <c r="M608" s="10">
         <v>1</v>
       </c>
     </row>
@@ -27358,7 +27407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D607:M607">
+  <conditionalFormatting sqref="D607:M607 F608:M608">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoang/workspace/revotech/wi-auth/server/license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45465CE-FBD4-4642-9C3A-750020B167CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D3806-900F-2648-A479-024D4F6538BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="622">
   <si>
     <t>route</t>
   </si>
@@ -1899,6 +1899,9 @@
   </si>
   <si>
     <t>/export/wellheader</t>
+  </si>
+  <si>
+    <t>/current-resource</t>
   </si>
 </sst>
 </file>
@@ -2279,11 +2282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M608"/>
+  <dimension ref="A1:M609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N608" sqref="N608"/>
+      <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B597" sqref="B597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27212,6 +27215,47 @@
         <v>1</v>
       </c>
       <c r="M608" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A609" s="3">
+        <v>608</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609" s="10">
+        <v>1</v>
+      </c>
+      <c r="G609" s="10">
+        <v>1</v>
+      </c>
+      <c r="H609" s="10">
+        <v>1</v>
+      </c>
+      <c r="I609" s="10">
+        <v>1</v>
+      </c>
+      <c r="J609" s="10">
+        <v>1</v>
+      </c>
+      <c r="K609" s="10">
+        <v>1</v>
+      </c>
+      <c r="L609" s="10">
+        <v>1</v>
+      </c>
+      <c r="M609" s="10">
         <v>1</v>
       </c>
     </row>
@@ -27407,7 +27451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D607:M607 F608:M608">
+  <conditionalFormatting sqref="D607:M607 F608:M609">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/server/license/feature_api.xlsx
+++ b/server/license/feature_api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoang/workspace/revotech/wi-auth/server/license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D3806-900F-2648-A479-024D4F6538BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D948FB-C094-D04D-9DDF-D5A13B7D4B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_api" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="623">
   <si>
     <t>route</t>
   </si>
@@ -1902,6 +1894,9 @@
   </si>
   <si>
     <t>/current-resource</t>
+  </si>
+  <si>
+    <t>/project/close-all</t>
   </si>
 </sst>
 </file>
@@ -2282,11 +2277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M609"/>
+  <dimension ref="A1:M610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B597" sqref="B597"/>
+      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27256,6 +27251,47 @@
         <v>1</v>
       </c>
       <c r="M609" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A610" s="3">
+        <v>609</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610" s="10">
+        <v>1</v>
+      </c>
+      <c r="G610" s="10">
+        <v>1</v>
+      </c>
+      <c r="H610" s="10">
+        <v>1</v>
+      </c>
+      <c r="I610" s="10">
+        <v>1</v>
+      </c>
+      <c r="J610" s="10">
+        <v>1</v>
+      </c>
+      <c r="K610" s="10">
+        <v>1</v>
+      </c>
+      <c r="L610" s="10">
+        <v>1</v>
+      </c>
+      <c r="M610" s="10">
         <v>1</v>
       </c>
     </row>
@@ -27451,7 +27487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D607:M607 F608:M609">
+  <conditionalFormatting sqref="D607:M607 F608:M610">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
